--- a/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>BNS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,121 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6212000</v>
+        <v>5695800</v>
       </c>
       <c r="E8" s="3">
-        <v>6353500</v>
+        <v>5985000</v>
       </c>
       <c r="F8" s="3">
-        <v>6098400</v>
+        <v>5996600</v>
       </c>
       <c r="G8" s="3">
-        <v>6015500</v>
+        <v>6133300</v>
       </c>
       <c r="H8" s="3">
-        <v>5811500</v>
+        <v>5886900</v>
       </c>
       <c r="I8" s="3">
+        <v>5807000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5610000</v>
+      </c>
+      <c r="K8" s="3">
         <v>5368100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5070000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4823200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4649100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4553100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4481900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4400400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4378100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,8 +822,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +872,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -872,8 +896,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -916,8 +942,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,8 +992,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1004,52 +1042,64 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-225100</v>
+        <v>-283400</v>
       </c>
       <c r="E15" s="3">
-        <v>-230400</v>
+        <v>-309600</v>
       </c>
       <c r="F15" s="3">
-        <v>-215300</v>
+        <v>-217300</v>
       </c>
       <c r="G15" s="3">
-        <v>-209300</v>
+        <v>-222400</v>
       </c>
       <c r="H15" s="3">
-        <v>-195700</v>
+        <v>-207800</v>
       </c>
       <c r="I15" s="3">
+        <v>-202000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-188900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-176900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-167100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-148100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-145100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-142100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-144400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-143700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-140600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1113,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3514800</v>
+        <v>3827500</v>
       </c>
       <c r="E17" s="3">
-        <v>3597600</v>
+        <v>3466300</v>
       </c>
       <c r="F17" s="3">
-        <v>3599100</v>
+        <v>3392900</v>
       </c>
       <c r="G17" s="3">
-        <v>3316000</v>
+        <v>3472900</v>
       </c>
       <c r="H17" s="3">
-        <v>3078900</v>
+        <v>3474300</v>
       </c>
       <c r="I17" s="3">
+        <v>3201100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2972200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3002900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2498500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2298900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2196900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2127000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2068800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2026600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1994300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2697200</v>
+        <v>1868300</v>
       </c>
       <c r="E18" s="3">
-        <v>2756000</v>
+        <v>2518700</v>
       </c>
       <c r="F18" s="3">
-        <v>2499300</v>
+        <v>2603700</v>
       </c>
       <c r="G18" s="3">
-        <v>2699500</v>
+        <v>2660400</v>
       </c>
       <c r="H18" s="3">
-        <v>2732600</v>
+        <v>2412600</v>
       </c>
       <c r="I18" s="3">
+        <v>2605900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2637900</v>
+      </c>
+      <c r="K18" s="3">
         <v>2365300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2571500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2524400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2452200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2426100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2413000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2373800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2383800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,96 +1233,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-511100</v>
+        <v>-598800</v>
       </c>
       <c r="E20" s="3">
-        <v>-695600</v>
+        <v>-486200</v>
       </c>
       <c r="F20" s="3">
-        <v>-328200</v>
+        <v>-493400</v>
       </c>
       <c r="G20" s="3">
-        <v>-633100</v>
+        <v>-671500</v>
       </c>
       <c r="H20" s="3">
-        <v>-629300</v>
+        <v>-316800</v>
       </c>
       <c r="I20" s="3">
+        <v>-611100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-607500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-507400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-465200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-257500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-511300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-454700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-574600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-356500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-424100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2390100</v>
+        <v>1533300</v>
       </c>
       <c r="E21" s="3">
-        <v>2268200</v>
+        <v>2322500</v>
       </c>
       <c r="F21" s="3">
-        <v>2365300</v>
+        <v>2307200</v>
       </c>
       <c r="G21" s="3">
-        <v>2253100</v>
+        <v>2189500</v>
       </c>
       <c r="H21" s="3">
-        <v>2278700</v>
+        <v>2283300</v>
       </c>
       <c r="I21" s="3">
+        <v>2175000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2199700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2017500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2259900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2415000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2086000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2113600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1982800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2161000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2100300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1301,96 +1379,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2186100</v>
+        <v>1269500</v>
       </c>
       <c r="E23" s="3">
-        <v>2060400</v>
+        <v>2032600</v>
       </c>
       <c r="F23" s="3">
-        <v>2171000</v>
+        <v>2110300</v>
       </c>
       <c r="G23" s="3">
-        <v>2066400</v>
+        <v>1989000</v>
       </c>
       <c r="H23" s="3">
-        <v>2103300</v>
+        <v>2095800</v>
       </c>
       <c r="I23" s="3">
+        <v>1994800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2030400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1857900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2106300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2266900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1940900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1971400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1838400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2017400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1959800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>448700</v>
+        <v>307400</v>
       </c>
       <c r="E24" s="3">
-        <v>566900</v>
+        <v>342300</v>
       </c>
       <c r="F24" s="3">
-        <v>470500</v>
+        <v>433100</v>
       </c>
       <c r="G24" s="3">
-        <v>374900</v>
+        <v>547200</v>
       </c>
       <c r="H24" s="3">
-        <v>393700</v>
+        <v>454200</v>
       </c>
       <c r="I24" s="3">
+        <v>361900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>380100</v>
+      </c>
+      <c r="K24" s="3">
         <v>398200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>467500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>527600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>400400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>406300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>255100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>474000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>414800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1737400</v>
+        <v>962100</v>
       </c>
       <c r="E26" s="3">
-        <v>1493500</v>
+        <v>1690300</v>
       </c>
       <c r="F26" s="3">
-        <v>1700600</v>
+        <v>1677200</v>
       </c>
       <c r="G26" s="3">
-        <v>1691500</v>
+        <v>1441800</v>
       </c>
       <c r="H26" s="3">
-        <v>1709600</v>
+        <v>1641600</v>
       </c>
       <c r="I26" s="3">
+        <v>1632900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1650300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1459700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1638800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1739200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1540500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1565100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1583300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1543400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1544900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1608700</v>
+        <v>903300</v>
       </c>
       <c r="E27" s="3">
-        <v>1384400</v>
+        <v>1643800</v>
       </c>
       <c r="F27" s="3">
-        <v>1599700</v>
+        <v>1552900</v>
       </c>
       <c r="G27" s="3">
-        <v>1586100</v>
+        <v>1336400</v>
       </c>
       <c r="H27" s="3">
-        <v>1591400</v>
+        <v>1544200</v>
       </c>
       <c r="I27" s="3">
+        <v>1531100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1536200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1472500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1537200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1673700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1478000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1500300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1509600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1466600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,8 +1679,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1609,8 +1729,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1829,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>511100</v>
+        <v>598800</v>
       </c>
       <c r="E32" s="3">
-        <v>695600</v>
+        <v>486200</v>
       </c>
       <c r="F32" s="3">
-        <v>328200</v>
+        <v>493400</v>
       </c>
       <c r="G32" s="3">
-        <v>633100</v>
+        <v>671500</v>
       </c>
       <c r="H32" s="3">
-        <v>629300</v>
+        <v>316800</v>
       </c>
       <c r="I32" s="3">
+        <v>611100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>607500</v>
+      </c>
+      <c r="K32" s="3">
         <v>507400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>465200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>257500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>511300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>454700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>574600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>356500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1608700</v>
+        <v>903300</v>
       </c>
       <c r="E33" s="3">
-        <v>1384400</v>
+        <v>1643800</v>
       </c>
       <c r="F33" s="3">
-        <v>1599700</v>
+        <v>1552900</v>
       </c>
       <c r="G33" s="3">
-        <v>1586100</v>
+        <v>1336400</v>
       </c>
       <c r="H33" s="3">
-        <v>1591400</v>
+        <v>1544200</v>
       </c>
       <c r="I33" s="3">
+        <v>1531100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1536200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1472500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1537200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1673700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1478000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1500300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1509600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1466600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1608700</v>
+        <v>903300</v>
       </c>
       <c r="E35" s="3">
-        <v>1384400</v>
+        <v>1643800</v>
       </c>
       <c r="F35" s="3">
-        <v>1599700</v>
+        <v>1552900</v>
       </c>
       <c r="G35" s="3">
-        <v>1586100</v>
+        <v>1336400</v>
       </c>
       <c r="H35" s="3">
-        <v>1591400</v>
+        <v>1544200</v>
       </c>
       <c r="I35" s="3">
+        <v>1531100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1536200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1472500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1537200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1673700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1478000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1500300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1509600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1466600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,96 +2128,110 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8208400</v>
+        <v>8475400</v>
       </c>
       <c r="E41" s="3">
-        <v>7940400</v>
+        <v>7436200</v>
       </c>
       <c r="F41" s="3">
-        <v>7272000</v>
+        <v>7923800</v>
       </c>
       <c r="G41" s="3">
-        <v>7376600</v>
+        <v>7665100</v>
       </c>
       <c r="H41" s="3">
-        <v>6772900</v>
+        <v>7019800</v>
       </c>
       <c r="I41" s="3">
+        <v>7120800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>6538000</v>
+      </c>
+      <c r="K41" s="3">
         <v>6020800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5560100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5828700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5823400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5103800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6764300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>6125100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5266200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>253770000</v>
+        <v>301175200</v>
       </c>
       <c r="E42" s="3">
-        <v>245117500</v>
+        <v>288437800</v>
       </c>
       <c r="F42" s="3">
-        <v>239843400</v>
+        <v>244971600</v>
       </c>
       <c r="G42" s="3">
-        <v>236266900</v>
+        <v>236619000</v>
       </c>
       <c r="H42" s="3">
-        <v>224567000</v>
+        <v>231527800</v>
       </c>
       <c r="I42" s="3">
+        <v>228075300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>216781100</v>
+      </c>
+      <c r="K42" s="3">
         <v>195829300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>207922900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>208904200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>209121500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>207952400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>225427900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>214720300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>216684600</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2090,8 +2274,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2134,8 +2324,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2178,8 +2374,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2222,140 +2424,164 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4226200</v>
+        <v>1767300</v>
       </c>
       <c r="E47" s="3">
-        <v>4137300</v>
+        <v>1691000</v>
       </c>
       <c r="F47" s="3">
-        <v>3992000</v>
+        <v>4079600</v>
       </c>
       <c r="G47" s="3">
-        <v>3902500</v>
+        <v>3993900</v>
       </c>
       <c r="H47" s="3">
-        <v>3651000</v>
+        <v>3853600</v>
       </c>
       <c r="I47" s="3">
+        <v>3767200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3524400</v>
+      </c>
+      <c r="K47" s="3">
         <v>3540400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3617900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3362300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>3412900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>3261100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>3474700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>3274200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>3302600</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2009200</v>
+        <v>4450200</v>
       </c>
       <c r="E48" s="3">
-        <v>1982800</v>
+        <v>4435000</v>
       </c>
       <c r="F48" s="3">
-        <v>2049100</v>
+        <v>1939500</v>
       </c>
       <c r="G48" s="3">
-        <v>2017500</v>
+        <v>1914100</v>
       </c>
       <c r="H48" s="3">
-        <v>2020500</v>
+        <v>1978100</v>
       </c>
       <c r="I48" s="3">
+        <v>1947500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1950400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1955000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1799200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1722100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1772000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1658100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1809200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1747700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1935900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13147500</v>
+        <v>12435100</v>
       </c>
       <c r="E49" s="3">
-        <v>13258100</v>
+        <v>12492500</v>
       </c>
       <c r="F49" s="3">
-        <v>13418500</v>
+        <v>12691600</v>
       </c>
       <c r="G49" s="3">
-        <v>13447800</v>
+        <v>12798500</v>
       </c>
       <c r="H49" s="3">
-        <v>13338700</v>
+        <v>12953200</v>
       </c>
       <c r="I49" s="3">
+        <v>12981600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>12876200</v>
+      </c>
+      <c r="K49" s="3">
         <v>11209000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>9239000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>8967000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>9009400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>8879200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>9437700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>9261800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>9327100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2674,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1181900</v>
+        <v>1213600</v>
       </c>
       <c r="E52" s="3">
-        <v>1284300</v>
+        <v>1248500</v>
       </c>
       <c r="F52" s="3">
-        <v>1557500</v>
+        <v>1140900</v>
       </c>
       <c r="G52" s="3">
-        <v>1541000</v>
+        <v>1239700</v>
       </c>
       <c r="H52" s="3">
-        <v>1458900</v>
+        <v>1503500</v>
       </c>
       <c r="I52" s="3">
+        <v>1487500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1408300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1473200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1345200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1293400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1274800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1286000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1485000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1379000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1552600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>817651100</v>
+        <v>906235500</v>
       </c>
       <c r="E54" s="3">
-        <v>803031200</v>
+        <v>838616200</v>
       </c>
       <c r="F54" s="3">
-        <v>796579000</v>
+        <v>789302300</v>
       </c>
       <c r="G54" s="3">
-        <v>778597900</v>
+        <v>775189300</v>
       </c>
       <c r="H54" s="3">
-        <v>751655500</v>
+        <v>768960800</v>
       </c>
       <c r="I54" s="3">
+        <v>751603100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>725594900</v>
+      </c>
+      <c r="K54" s="3">
         <v>712668600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>697316900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>687018900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>681155300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>674501300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>708036100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>681413900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>688538400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,8 +2868,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2654,8 +2914,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2698,8 +2964,14 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2742,8 +3014,14 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2786,52 +3064,64 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5459200</v>
+        <v>5438500</v>
       </c>
       <c r="E61" s="3">
-        <v>6790900</v>
+        <v>5301200</v>
       </c>
       <c r="F61" s="3">
-        <v>5686600</v>
+        <v>5270000</v>
       </c>
       <c r="G61" s="3">
-        <v>5639900</v>
+        <v>6555500</v>
       </c>
       <c r="H61" s="3">
-        <v>4289400</v>
+        <v>5489400</v>
       </c>
       <c r="I61" s="3">
+        <v>5444400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4140700</v>
+      </c>
+      <c r="K61" s="3">
         <v>4281100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4266100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4242700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4416900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5489300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5854700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5767100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5863900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2874,8 +3164,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>766821300</v>
+        <v>856905600</v>
       </c>
       <c r="E66" s="3">
-        <v>752279600</v>
+        <v>789659900</v>
       </c>
       <c r="F66" s="3">
-        <v>745799600</v>
+        <v>740234800</v>
       </c>
       <c r="G66" s="3">
-        <v>728605900</v>
+        <v>726197300</v>
       </c>
       <c r="H66" s="3">
-        <v>702552600</v>
+        <v>719942000</v>
       </c>
       <c r="I66" s="3">
+        <v>703344400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>678194300</v>
+      </c>
+      <c r="K66" s="3">
         <v>663747700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>651024100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>642619400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>636478200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>632539800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>663375800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>638197100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>645324700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,52 +3484,64 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2923800</v>
+        <v>2629900</v>
       </c>
       <c r="E70" s="3">
-        <v>2923800</v>
+        <v>2822500</v>
       </c>
       <c r="F70" s="3">
-        <v>2923800</v>
+        <v>2822500</v>
       </c>
       <c r="G70" s="3">
-        <v>2923800</v>
+        <v>2822500</v>
       </c>
       <c r="H70" s="3">
-        <v>3149700</v>
+        <v>2822500</v>
       </c>
       <c r="I70" s="3">
+        <v>2822500</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3040500</v>
+      </c>
+      <c r="K70" s="3">
         <v>3187300</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>3187300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>3407700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>3407700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>2246800</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>2319300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>2496000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>2761000</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>33728000</v>
+        <v>33293300</v>
       </c>
       <c r="E72" s="3">
-        <v>33161900</v>
+        <v>33267900</v>
       </c>
       <c r="F72" s="3">
-        <v>32709500</v>
+        <v>32558600</v>
       </c>
       <c r="G72" s="3">
-        <v>32100500</v>
+        <v>32012100</v>
       </c>
       <c r="H72" s="3">
-        <v>31480200</v>
+        <v>31575400</v>
       </c>
       <c r="I72" s="3">
+        <v>30987500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>30388700</v>
+      </c>
+      <c r="K72" s="3">
         <v>30724400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>30016700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>28815800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>28453400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>27695800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>27932800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>27496500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>26814300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47906100</v>
+        <v>46700000</v>
       </c>
       <c r="E76" s="3">
-        <v>47827800</v>
+        <v>46133900</v>
       </c>
       <c r="F76" s="3">
-        <v>47855600</v>
+        <v>46245100</v>
       </c>
       <c r="G76" s="3">
-        <v>47068200</v>
+        <v>46169500</v>
       </c>
       <c r="H76" s="3">
-        <v>45953300</v>
+        <v>46196400</v>
       </c>
       <c r="I76" s="3">
+        <v>45436300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>44360100</v>
+      </c>
+      <c r="K76" s="3">
         <v>45733500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>43105500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>40991800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>41269400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>39714800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>42341000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>40720800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>40452700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1608700</v>
+        <v>903300</v>
       </c>
       <c r="E81" s="3">
-        <v>1384400</v>
+        <v>1643800</v>
       </c>
       <c r="F81" s="3">
-        <v>1599700</v>
+        <v>1552900</v>
       </c>
       <c r="G81" s="3">
-        <v>1586100</v>
+        <v>1336400</v>
       </c>
       <c r="H81" s="3">
-        <v>1591400</v>
+        <v>1544200</v>
       </c>
       <c r="I81" s="3">
+        <v>1531100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1536200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1472500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1537200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1673700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1478000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1500300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1509600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1466600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +4013,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>204000</v>
+        <v>263800</v>
       </c>
       <c r="E83" s="3">
-        <v>207800</v>
+        <v>289900</v>
       </c>
       <c r="F83" s="3">
-        <v>194200</v>
+        <v>196900</v>
       </c>
       <c r="G83" s="3">
-        <v>186700</v>
+        <v>200600</v>
       </c>
       <c r="H83" s="3">
-        <v>175400</v>
+        <v>187500</v>
       </c>
       <c r="I83" s="3">
+        <v>180200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>169300</v>
+      </c>
+      <c r="K83" s="3">
         <v>159600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>153600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>148100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>145100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>142100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>144400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>143700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>140600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4309,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3060100</v>
+        <v>51916200</v>
       </c>
       <c r="E89" s="3">
-        <v>-5297400</v>
+        <v>12508500</v>
       </c>
       <c r="F89" s="3">
-        <v>1924100</v>
+        <v>2954000</v>
       </c>
       <c r="G89" s="3">
-        <v>-8739100</v>
+        <v>-5113700</v>
       </c>
       <c r="H89" s="3">
-        <v>13779800</v>
+        <v>1857400</v>
       </c>
       <c r="I89" s="3">
+        <v>-8436100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>13302100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-8250600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1346000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>6458300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-67700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>10880400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-4796100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>6374800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-18996000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,40 +4383,42 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-111400</v>
+        <v>-223800</v>
       </c>
       <c r="E91" s="3">
-        <v>49700</v>
+        <v>-69000</v>
       </c>
       <c r="F91" s="3">
-        <v>-65500</v>
+        <v>-107600</v>
       </c>
       <c r="G91" s="3">
-        <v>-12800</v>
+        <v>48000</v>
       </c>
       <c r="H91" s="3">
-        <v>-146800</v>
+        <v>-63200</v>
       </c>
       <c r="I91" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-141700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-79800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-68500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-17900</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
@@ -3986,11 +4426,17 @@
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-83000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4529,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-763300</v>
+        <v>-50996900</v>
       </c>
       <c r="E94" s="3">
-        <v>5024100</v>
+        <v>-12422800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1489000</v>
+        <v>-736900</v>
       </c>
       <c r="G94" s="3">
-        <v>8684200</v>
+        <v>4849900</v>
       </c>
       <c r="H94" s="3">
-        <v>-11891800</v>
+        <v>-1437400</v>
       </c>
       <c r="I94" s="3">
+        <v>8383100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-11479500</v>
+      </c>
+      <c r="K94" s="3">
         <v>8039800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-811500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5603900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>498600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-11229400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>4276700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2833200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>16361800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,52 +4603,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-823600</v>
+        <v>-840100</v>
       </c>
       <c r="E96" s="3">
-        <v>-799500</v>
+        <v>-811700</v>
       </c>
       <c r="F96" s="3">
-        <v>-800200</v>
+        <v>-795000</v>
       </c>
       <c r="G96" s="3">
-        <v>-783700</v>
+        <v>-771700</v>
       </c>
       <c r="H96" s="3">
-        <v>-785200</v>
+        <v>-772500</v>
       </c>
       <c r="I96" s="3">
+        <v>-756500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-757900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-761100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-739200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-728600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-630300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-699600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-727500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-717500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-709800</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,136 +4799,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1982100</v>
+        <v>-24000</v>
       </c>
       <c r="E100" s="3">
-        <v>1057700</v>
+        <v>-561700</v>
       </c>
       <c r="F100" s="3">
-        <v>-651200</v>
+        <v>-1913400</v>
       </c>
       <c r="G100" s="3">
-        <v>606000</v>
+        <v>1021000</v>
       </c>
       <c r="H100" s="3">
-        <v>-6529700</v>
+        <v>-628600</v>
       </c>
       <c r="I100" s="3">
+        <v>585000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-6303300</v>
+      </c>
+      <c r="K100" s="3">
         <v>6132200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1036600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-718200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>174100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-746400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>872700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2534400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>469400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-46700</v>
+        <v>143900</v>
       </c>
       <c r="E101" s="3">
-        <v>-115900</v>
+        <v>-11600</v>
       </c>
       <c r="F101" s="3">
-        <v>111400</v>
+        <v>-45100</v>
       </c>
       <c r="G101" s="3">
-        <v>52700</v>
+        <v>-111900</v>
       </c>
       <c r="H101" s="3">
-        <v>-80500</v>
+        <v>107600</v>
       </c>
       <c r="I101" s="3">
+        <v>50900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-77800</v>
+      </c>
+      <c r="K101" s="3">
         <v>13600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>166400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-131000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>114600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-353500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>285800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-148300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>93000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>268000</v>
+        <v>1039200</v>
       </c>
       <c r="E102" s="3">
-        <v>668500</v>
+        <v>-487600</v>
       </c>
       <c r="F102" s="3">
-        <v>-104600</v>
+        <v>258700</v>
       </c>
       <c r="G102" s="3">
-        <v>603700</v>
+        <v>645300</v>
       </c>
       <c r="H102" s="3">
-        <v>752000</v>
+        <v>-101000</v>
       </c>
       <c r="I102" s="3">
+        <v>582800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>726000</v>
+      </c>
+      <c r="K102" s="3">
         <v>460700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-335700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>5200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>719700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>639200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>858900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-460900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>BNS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,127 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5695800</v>
+        <v>5317000</v>
       </c>
       <c r="E8" s="3">
-        <v>5985000</v>
+        <v>5965400</v>
       </c>
       <c r="F8" s="3">
-        <v>5996600</v>
+        <v>6268300</v>
       </c>
       <c r="G8" s="3">
-        <v>6133300</v>
+        <v>6280500</v>
       </c>
       <c r="H8" s="3">
-        <v>5886900</v>
+        <v>6423600</v>
       </c>
       <c r="I8" s="3">
-        <v>5807000</v>
+        <v>6165600</v>
       </c>
       <c r="J8" s="3">
+        <v>6081900</v>
+      </c>
+      <c r="K8" s="3">
         <v>5610000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5368100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5070000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4823200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4649100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4553100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4481900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4400400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4378100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +834,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +887,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -898,8 +910,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -948,8 +961,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,8 +1014,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1048,58 +1067,64 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-283400</v>
+        <v>-306700</v>
       </c>
       <c r="E15" s="3">
-        <v>-309600</v>
+        <v>-296800</v>
       </c>
       <c r="F15" s="3">
-        <v>-217300</v>
+        <v>-324200</v>
       </c>
       <c r="G15" s="3">
-        <v>-222400</v>
+        <v>-227600</v>
       </c>
       <c r="H15" s="3">
-        <v>-207800</v>
+        <v>-232900</v>
       </c>
       <c r="I15" s="3">
-        <v>-202000</v>
+        <v>-217700</v>
       </c>
       <c r="J15" s="3">
+        <v>-211600</v>
+      </c>
+      <c r="K15" s="3">
         <v>-188900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-176900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-167100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-148100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-145100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-142100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-144400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-143700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-140600</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3827500</v>
+        <v>3740000</v>
       </c>
       <c r="E17" s="3">
-        <v>3466300</v>
+        <v>4008700</v>
       </c>
       <c r="F17" s="3">
-        <v>3392900</v>
+        <v>3630400</v>
       </c>
       <c r="G17" s="3">
-        <v>3472900</v>
+        <v>3553500</v>
       </c>
       <c r="H17" s="3">
-        <v>3474300</v>
+        <v>3637200</v>
       </c>
       <c r="I17" s="3">
-        <v>3201100</v>
+        <v>3638800</v>
       </c>
       <c r="J17" s="3">
+        <v>3352600</v>
+      </c>
+      <c r="K17" s="3">
         <v>2972200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3002900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2498500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2298900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2196900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2127000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2068800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2026600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1994300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1868300</v>
+        <v>1577000</v>
       </c>
       <c r="E18" s="3">
-        <v>2518700</v>
+        <v>1956800</v>
       </c>
       <c r="F18" s="3">
-        <v>2603700</v>
+        <v>2637900</v>
       </c>
       <c r="G18" s="3">
-        <v>2660400</v>
+        <v>2727000</v>
       </c>
       <c r="H18" s="3">
-        <v>2412600</v>
+        <v>2786400</v>
       </c>
       <c r="I18" s="3">
-        <v>2605900</v>
+        <v>2526800</v>
       </c>
       <c r="J18" s="3">
+        <v>2729300</v>
+      </c>
+      <c r="K18" s="3">
         <v>2637900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2365300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2571500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2524400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2452200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2426100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2413000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2373800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2383800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,108 +1267,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-598800</v>
+        <v>-408700</v>
       </c>
       <c r="E20" s="3">
-        <v>-486200</v>
+        <v>-627100</v>
       </c>
       <c r="F20" s="3">
-        <v>-493400</v>
+        <v>-509200</v>
       </c>
       <c r="G20" s="3">
-        <v>-671500</v>
+        <v>-516800</v>
       </c>
       <c r="H20" s="3">
-        <v>-316800</v>
+        <v>-703200</v>
       </c>
       <c r="I20" s="3">
-        <v>-611100</v>
+        <v>-331800</v>
       </c>
       <c r="J20" s="3">
+        <v>-640100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-607500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-507400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-465200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-257500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-511300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-454700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-574600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-356500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-424100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1533300</v>
+        <v>1455200</v>
       </c>
       <c r="E21" s="3">
-        <v>2322500</v>
+        <v>1605900</v>
       </c>
       <c r="F21" s="3">
-        <v>2307200</v>
+        <v>2432400</v>
       </c>
       <c r="G21" s="3">
-        <v>2189500</v>
+        <v>2416500</v>
       </c>
       <c r="H21" s="3">
-        <v>2283300</v>
+        <v>2293200</v>
       </c>
       <c r="I21" s="3">
-        <v>2175000</v>
+        <v>2391300</v>
       </c>
       <c r="J21" s="3">
+        <v>2277900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2199700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2017500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2259900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2415000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2086000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2113600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1982800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2161000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2100300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1385,108 +1424,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1269500</v>
+        <v>1168300</v>
       </c>
       <c r="E23" s="3">
-        <v>2032600</v>
+        <v>1329600</v>
       </c>
       <c r="F23" s="3">
-        <v>2110300</v>
+        <v>2128800</v>
       </c>
       <c r="G23" s="3">
-        <v>1989000</v>
+        <v>2210200</v>
       </c>
       <c r="H23" s="3">
-        <v>2095800</v>
+        <v>2083100</v>
       </c>
       <c r="I23" s="3">
-        <v>1994800</v>
+        <v>2195000</v>
       </c>
       <c r="J23" s="3">
+        <v>2089200</v>
+      </c>
+      <c r="K23" s="3">
         <v>2030400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1857900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2106300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2266900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1940900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1971400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1838400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2017400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1959800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>307400</v>
+        <v>175800</v>
       </c>
       <c r="E24" s="3">
-        <v>342300</v>
+        <v>321900</v>
       </c>
       <c r="F24" s="3">
-        <v>433100</v>
+        <v>358500</v>
       </c>
       <c r="G24" s="3">
-        <v>547200</v>
+        <v>453600</v>
       </c>
       <c r="H24" s="3">
-        <v>454200</v>
+        <v>573100</v>
       </c>
       <c r="I24" s="3">
-        <v>361900</v>
+        <v>475700</v>
       </c>
       <c r="J24" s="3">
+        <v>379000</v>
+      </c>
+      <c r="K24" s="3">
         <v>380100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>398200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>467500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>527600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>406300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>255100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>474000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>414800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>962100</v>
+        <v>992500</v>
       </c>
       <c r="E26" s="3">
-        <v>1690300</v>
+        <v>1007700</v>
       </c>
       <c r="F26" s="3">
-        <v>1677200</v>
+        <v>1770300</v>
       </c>
       <c r="G26" s="3">
-        <v>1441800</v>
+        <v>1756600</v>
       </c>
       <c r="H26" s="3">
-        <v>1641600</v>
+        <v>1510000</v>
       </c>
       <c r="I26" s="3">
-        <v>1632900</v>
+        <v>1719300</v>
       </c>
       <c r="J26" s="3">
+        <v>1710200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1650300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1459700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1638800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1739200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1540500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1565100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1583300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1543400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1544900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>903300</v>
+        <v>1013800</v>
       </c>
       <c r="E27" s="3">
-        <v>1643800</v>
+        <v>946000</v>
       </c>
       <c r="F27" s="3">
-        <v>1552900</v>
+        <v>1721600</v>
       </c>
       <c r="G27" s="3">
-        <v>1336400</v>
+        <v>1626400</v>
       </c>
       <c r="H27" s="3">
-        <v>1544200</v>
+        <v>1399600</v>
       </c>
       <c r="I27" s="3">
-        <v>1531100</v>
+        <v>1617300</v>
       </c>
       <c r="J27" s="3">
+        <v>1603600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1536200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1472500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1537200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1673700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1478000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1500300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1509600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1466600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,8 +1742,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1735,8 +1795,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>598800</v>
+        <v>408700</v>
       </c>
       <c r="E32" s="3">
-        <v>486200</v>
+        <v>627100</v>
       </c>
       <c r="F32" s="3">
-        <v>493400</v>
+        <v>509200</v>
       </c>
       <c r="G32" s="3">
-        <v>671500</v>
+        <v>516800</v>
       </c>
       <c r="H32" s="3">
-        <v>316800</v>
+        <v>703200</v>
       </c>
       <c r="I32" s="3">
-        <v>611100</v>
+        <v>331800</v>
       </c>
       <c r="J32" s="3">
+        <v>640100</v>
+      </c>
+      <c r="K32" s="3">
         <v>607500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>507400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>465200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>257500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>511300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>454700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>574600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>356500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>903300</v>
+        <v>1013800</v>
       </c>
       <c r="E33" s="3">
-        <v>1643800</v>
+        <v>946000</v>
       </c>
       <c r="F33" s="3">
-        <v>1552900</v>
+        <v>1721600</v>
       </c>
       <c r="G33" s="3">
-        <v>1336400</v>
+        <v>1626400</v>
       </c>
       <c r="H33" s="3">
-        <v>1544200</v>
+        <v>1399600</v>
       </c>
       <c r="I33" s="3">
-        <v>1531100</v>
+        <v>1617300</v>
       </c>
       <c r="J33" s="3">
+        <v>1603600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1536200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1472500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1537200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1673700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1478000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1500300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1509600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1466600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>903300</v>
+        <v>1013800</v>
       </c>
       <c r="E35" s="3">
-        <v>1643800</v>
+        <v>946000</v>
       </c>
       <c r="F35" s="3">
-        <v>1552900</v>
+        <v>1721600</v>
       </c>
       <c r="G35" s="3">
-        <v>1336400</v>
+        <v>1626400</v>
       </c>
       <c r="H35" s="3">
-        <v>1544200</v>
+        <v>1399600</v>
       </c>
       <c r="I35" s="3">
-        <v>1531100</v>
+        <v>1617300</v>
       </c>
       <c r="J35" s="3">
+        <v>1603600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1536200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1472500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1537200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1673700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1478000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1500300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1509600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1466600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,108 +2215,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8475400</v>
+        <v>8441200</v>
       </c>
       <c r="E41" s="3">
-        <v>7436200</v>
+        <v>8876600</v>
       </c>
       <c r="F41" s="3">
-        <v>7923800</v>
+        <v>7788200</v>
       </c>
       <c r="G41" s="3">
-        <v>7665100</v>
+        <v>8298900</v>
       </c>
       <c r="H41" s="3">
-        <v>7019800</v>
+        <v>8028000</v>
       </c>
       <c r="I41" s="3">
-        <v>7120800</v>
+        <v>7352100</v>
       </c>
       <c r="J41" s="3">
+        <v>7457900</v>
+      </c>
+      <c r="K41" s="3">
         <v>6538000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6020800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5560100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5828700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5823400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5103800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6764300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6125100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5266200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>301175200</v>
+        <v>271358300</v>
       </c>
       <c r="E42" s="3">
-        <v>288437800</v>
+        <v>315432200</v>
       </c>
       <c r="F42" s="3">
-        <v>244971600</v>
+        <v>302091800</v>
       </c>
       <c r="G42" s="3">
-        <v>236619000</v>
+        <v>256568000</v>
       </c>
       <c r="H42" s="3">
-        <v>231527800</v>
+        <v>247820000</v>
       </c>
       <c r="I42" s="3">
-        <v>228075300</v>
+        <v>242487800</v>
       </c>
       <c r="J42" s="3">
+        <v>238871900</v>
+      </c>
+      <c r="K42" s="3">
         <v>216781100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>195829300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>207922900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>208904200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>209121500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>207952400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>225427900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>214720300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>216684600</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2280,8 +2372,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2330,8 +2425,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2380,8 +2478,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2430,158 +2531,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1767300</v>
+        <v>1825900</v>
       </c>
       <c r="E47" s="3">
-        <v>1691000</v>
+        <v>1851000</v>
       </c>
       <c r="F47" s="3">
-        <v>4079600</v>
+        <v>1771100</v>
       </c>
       <c r="G47" s="3">
-        <v>3993900</v>
+        <v>4272800</v>
       </c>
       <c r="H47" s="3">
-        <v>3853600</v>
+        <v>4183000</v>
       </c>
       <c r="I47" s="3">
-        <v>3767200</v>
+        <v>4036100</v>
       </c>
       <c r="J47" s="3">
+        <v>3945500</v>
+      </c>
+      <c r="K47" s="3">
         <v>3524400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3540400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3617900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3362300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3412900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3261100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3474700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3274200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3302600</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4450200</v>
+        <v>4585600</v>
       </c>
       <c r="E48" s="3">
-        <v>4435000</v>
+        <v>4660900</v>
       </c>
       <c r="F48" s="3">
-        <v>1939500</v>
+        <v>4644900</v>
       </c>
       <c r="G48" s="3">
-        <v>1914100</v>
+        <v>2031300</v>
       </c>
       <c r="H48" s="3">
-        <v>1978100</v>
+        <v>2004700</v>
       </c>
       <c r="I48" s="3">
-        <v>1947500</v>
+        <v>2071700</v>
       </c>
       <c r="J48" s="3">
+        <v>2039700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1950400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1955000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1799200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1722100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1772000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1658100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1809200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1747700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1935900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12435100</v>
+        <v>13042000</v>
       </c>
       <c r="E49" s="3">
-        <v>12492500</v>
+        <v>13023800</v>
       </c>
       <c r="F49" s="3">
-        <v>12691600</v>
+        <v>13083900</v>
       </c>
       <c r="G49" s="3">
-        <v>12798500</v>
+        <v>13292400</v>
       </c>
       <c r="H49" s="3">
-        <v>12953200</v>
+        <v>13404300</v>
       </c>
       <c r="I49" s="3">
-        <v>12981600</v>
+        <v>13566400</v>
       </c>
       <c r="J49" s="3">
+        <v>13596100</v>
+      </c>
+      <c r="K49" s="3">
         <v>12876200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11209000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9239000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8967000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9009400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8879200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9437700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9261800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9327100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1213600</v>
+        <v>1647000</v>
       </c>
       <c r="E52" s="3">
-        <v>1248500</v>
+        <v>1271000</v>
       </c>
       <c r="F52" s="3">
-        <v>1140900</v>
+        <v>1307600</v>
       </c>
       <c r="G52" s="3">
-        <v>1239700</v>
+        <v>1194900</v>
       </c>
       <c r="H52" s="3">
-        <v>1503500</v>
+        <v>1298400</v>
       </c>
       <c r="I52" s="3">
-        <v>1487500</v>
+        <v>1574700</v>
       </c>
       <c r="J52" s="3">
+        <v>1558000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1408300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1473200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1345200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1293400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1274800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1286000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1485000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1379000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1552600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>906235500</v>
+        <v>890377900</v>
       </c>
       <c r="E54" s="3">
-        <v>838616200</v>
+        <v>949134800</v>
       </c>
       <c r="F54" s="3">
-        <v>789302300</v>
+        <v>878314600</v>
       </c>
       <c r="G54" s="3">
-        <v>775189300</v>
+        <v>826666300</v>
       </c>
       <c r="H54" s="3">
-        <v>768960800</v>
+        <v>811885100</v>
       </c>
       <c r="I54" s="3">
-        <v>751603100</v>
+        <v>805361800</v>
       </c>
       <c r="J54" s="3">
+        <v>787182400</v>
+      </c>
+      <c r="K54" s="3">
         <v>725594900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>712668600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>697316900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>687018900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>681155300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>674501300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>708036100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>681413900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>688538400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,8 +2999,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2920,8 +3050,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2970,8 +3103,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3020,8 +3156,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3070,58 +3209,64 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5438500</v>
+        <v>5583400</v>
       </c>
       <c r="E61" s="3">
-        <v>5301200</v>
+        <v>5696000</v>
       </c>
       <c r="F61" s="3">
-        <v>5270000</v>
+        <v>5552200</v>
       </c>
       <c r="G61" s="3">
-        <v>6555500</v>
+        <v>5519400</v>
       </c>
       <c r="H61" s="3">
-        <v>5489400</v>
+        <v>6865800</v>
       </c>
       <c r="I61" s="3">
-        <v>5444400</v>
+        <v>5749300</v>
       </c>
       <c r="J61" s="3">
+        <v>5702100</v>
+      </c>
+      <c r="K61" s="3">
         <v>4140700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4281100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4266100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4242700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4416900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5489300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5854700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5767100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5863900</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3170,8 +3315,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>856905600</v>
+        <v>838478400</v>
       </c>
       <c r="E66" s="3">
-        <v>789659900</v>
+        <v>897469700</v>
       </c>
       <c r="F66" s="3">
-        <v>740234800</v>
+        <v>827040700</v>
       </c>
       <c r="G66" s="3">
-        <v>726197300</v>
+        <v>775276000</v>
       </c>
       <c r="H66" s="3">
-        <v>719942000</v>
+        <v>760574000</v>
       </c>
       <c r="I66" s="3">
-        <v>703344400</v>
+        <v>754022500</v>
       </c>
       <c r="J66" s="3">
+        <v>736639200</v>
+      </c>
+      <c r="K66" s="3">
         <v>678194300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>663747700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>651024100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>642619400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>636478200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>632539800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>663375800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>638197100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>645324700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,58 +3654,64 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2629900</v>
+        <v>4039900</v>
       </c>
       <c r="E70" s="3">
-        <v>2822500</v>
+        <v>2754400</v>
       </c>
       <c r="F70" s="3">
-        <v>2822500</v>
+        <v>2956100</v>
       </c>
       <c r="G70" s="3">
-        <v>2822500</v>
+        <v>2956100</v>
       </c>
       <c r="H70" s="3">
-        <v>2822500</v>
+        <v>2956100</v>
       </c>
       <c r="I70" s="3">
-        <v>2822500</v>
+        <v>2956100</v>
       </c>
       <c r="J70" s="3">
+        <v>2956100</v>
+      </c>
+      <c r="K70" s="3">
         <v>3040500</v>
-      </c>
-      <c r="K70" s="3">
-        <v>3187300</v>
       </c>
       <c r="L70" s="3">
         <v>3187300</v>
       </c>
       <c r="M70" s="3">
-        <v>3407700</v>
+        <v>3187300</v>
       </c>
       <c r="N70" s="3">
         <v>3407700</v>
       </c>
       <c r="O70" s="3">
+        <v>3407700</v>
+      </c>
+      <c r="P70" s="3">
         <v>2246800</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>2319300</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>2496000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>2761000</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>33293300</v>
+        <v>35047400</v>
       </c>
       <c r="E72" s="3">
-        <v>33267900</v>
+        <v>34869300</v>
       </c>
       <c r="F72" s="3">
-        <v>32558600</v>
+        <v>34842700</v>
       </c>
       <c r="G72" s="3">
-        <v>32012100</v>
+        <v>34099900</v>
       </c>
       <c r="H72" s="3">
-        <v>31575400</v>
+        <v>33527500</v>
       </c>
       <c r="I72" s="3">
-        <v>30987500</v>
+        <v>33070100</v>
       </c>
       <c r="J72" s="3">
+        <v>32454400</v>
+      </c>
+      <c r="K72" s="3">
         <v>30388700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30724400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30016700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28815800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28453400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>27695800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>27932800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>27496500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>26814300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46700000</v>
+        <v>47859600</v>
       </c>
       <c r="E76" s="3">
-        <v>46133900</v>
+        <v>48910700</v>
       </c>
       <c r="F76" s="3">
-        <v>46245100</v>
+        <v>48317800</v>
       </c>
       <c r="G76" s="3">
-        <v>46169500</v>
+        <v>48434200</v>
       </c>
       <c r="H76" s="3">
-        <v>46196400</v>
+        <v>48355100</v>
       </c>
       <c r="I76" s="3">
-        <v>45436300</v>
+        <v>48383300</v>
       </c>
       <c r="J76" s="3">
+        <v>47587200</v>
+      </c>
+      <c r="K76" s="3">
         <v>44360100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>45733500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>43105500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>40991800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>41269400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>39714800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>42341000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>40720800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>40452700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>903300</v>
+        <v>1013800</v>
       </c>
       <c r="E81" s="3">
-        <v>1643800</v>
+        <v>946000</v>
       </c>
       <c r="F81" s="3">
-        <v>1552900</v>
+        <v>1721600</v>
       </c>
       <c r="G81" s="3">
-        <v>1336400</v>
+        <v>1626400</v>
       </c>
       <c r="H81" s="3">
-        <v>1544200</v>
+        <v>1399600</v>
       </c>
       <c r="I81" s="3">
-        <v>1531100</v>
+        <v>1617300</v>
       </c>
       <c r="J81" s="3">
+        <v>1603600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1536200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1472500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1537200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1673700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1478000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1500300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1509600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1466600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>263800</v>
+        <v>286900</v>
       </c>
       <c r="E83" s="3">
-        <v>289900</v>
+        <v>276300</v>
       </c>
       <c r="F83" s="3">
-        <v>196900</v>
+        <v>303700</v>
       </c>
       <c r="G83" s="3">
-        <v>200600</v>
+        <v>206300</v>
       </c>
       <c r="H83" s="3">
-        <v>187500</v>
+        <v>210100</v>
       </c>
       <c r="I83" s="3">
-        <v>180200</v>
+        <v>196400</v>
       </c>
       <c r="J83" s="3">
+        <v>188800</v>
+      </c>
+      <c r="K83" s="3">
         <v>169300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>159600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>153600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>148100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>145100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>142100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>144400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>143700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>140600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>51916200</v>
+        <v>-31087500</v>
       </c>
       <c r="E89" s="3">
-        <v>12508500</v>
+        <v>54373800</v>
       </c>
       <c r="F89" s="3">
-        <v>2954000</v>
+        <v>13100600</v>
       </c>
       <c r="G89" s="3">
-        <v>-5113700</v>
+        <v>3093800</v>
       </c>
       <c r="H89" s="3">
-        <v>1857400</v>
+        <v>-5355800</v>
       </c>
       <c r="I89" s="3">
-        <v>-8436100</v>
+        <v>1945300</v>
       </c>
       <c r="J89" s="3">
+        <v>-8835500</v>
+      </c>
+      <c r="K89" s="3">
         <v>13302100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8250600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1346000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6458300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-67700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10880400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4796100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6374800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-18996000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,43 +4604,44 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-223800</v>
+        <v>-125600</v>
       </c>
       <c r="E91" s="3">
-        <v>-69000</v>
+        <v>-234400</v>
       </c>
       <c r="F91" s="3">
-        <v>-107600</v>
+        <v>-72300</v>
       </c>
       <c r="G91" s="3">
-        <v>48000</v>
+        <v>-112600</v>
       </c>
       <c r="H91" s="3">
-        <v>-63200</v>
+        <v>50200</v>
       </c>
       <c r="I91" s="3">
-        <v>-12400</v>
+        <v>-66200</v>
       </c>
       <c r="J91" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-141700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-79800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-68500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17900</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
@@ -4432,11 +4652,14 @@
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-83000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-50996900</v>
+        <v>28963300</v>
       </c>
       <c r="E94" s="3">
-        <v>-12422800</v>
+        <v>-53411000</v>
       </c>
       <c r="F94" s="3">
-        <v>-736900</v>
+        <v>-13010800</v>
       </c>
       <c r="G94" s="3">
-        <v>4849900</v>
+        <v>-771700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1437400</v>
+        <v>5079500</v>
       </c>
       <c r="I94" s="3">
-        <v>8383100</v>
+        <v>-1505400</v>
       </c>
       <c r="J94" s="3">
+        <v>8779900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-11479500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>8039800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-811500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5603900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>498600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11229400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>4276700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2833200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>16361800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,58 +4837,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-840100</v>
+        <v>-847100</v>
       </c>
       <c r="E96" s="3">
-        <v>-811700</v>
+        <v>-879800</v>
       </c>
       <c r="F96" s="3">
-        <v>-795000</v>
+        <v>-850100</v>
       </c>
       <c r="G96" s="3">
-        <v>-771700</v>
+        <v>-832600</v>
       </c>
       <c r="H96" s="3">
-        <v>-772500</v>
+        <v>-808300</v>
       </c>
       <c r="I96" s="3">
-        <v>-756500</v>
+        <v>-809000</v>
       </c>
       <c r="J96" s="3">
+        <v>-792300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-757900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-761100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-739200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-728600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-630300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-699600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-727500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-717500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-709800</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,154 +5047,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-24000</v>
+        <v>1852500</v>
       </c>
       <c r="E100" s="3">
-        <v>-561700</v>
+        <v>-25100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1913400</v>
+        <v>-588300</v>
       </c>
       <c r="G100" s="3">
-        <v>1021000</v>
+        <v>-2003900</v>
       </c>
       <c r="H100" s="3">
-        <v>-628600</v>
+        <v>1069300</v>
       </c>
       <c r="I100" s="3">
-        <v>585000</v>
+        <v>-658300</v>
       </c>
       <c r="J100" s="3">
+        <v>612700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6303300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6132200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1036600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-718200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>174100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-746400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>872700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2534400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>469400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>143900</v>
+        <v>-163600</v>
       </c>
       <c r="E101" s="3">
-        <v>-11600</v>
+        <v>150700</v>
       </c>
       <c r="F101" s="3">
-        <v>-45100</v>
+        <v>-12200</v>
       </c>
       <c r="G101" s="3">
-        <v>-111900</v>
+        <v>-47200</v>
       </c>
       <c r="H101" s="3">
-        <v>107600</v>
+        <v>-117200</v>
       </c>
       <c r="I101" s="3">
-        <v>50900</v>
+        <v>112600</v>
       </c>
       <c r="J101" s="3">
+        <v>53300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-77800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>166400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-131000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>114600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-353500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>285800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-148300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>93000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1039200</v>
+        <v>-435300</v>
       </c>
       <c r="E102" s="3">
-        <v>-487600</v>
+        <v>1088400</v>
       </c>
       <c r="F102" s="3">
-        <v>258700</v>
+        <v>-510700</v>
       </c>
       <c r="G102" s="3">
-        <v>645300</v>
+        <v>270900</v>
       </c>
       <c r="H102" s="3">
-        <v>-101000</v>
+        <v>675800</v>
       </c>
       <c r="I102" s="3">
-        <v>582800</v>
+        <v>-105800</v>
       </c>
       <c r="J102" s="3">
+        <v>610400</v>
+      </c>
+      <c r="K102" s="3">
         <v>726000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>460700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-335700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>719700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>639200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>858900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-460900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
@@ -737,25 +737,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5317000</v>
+        <v>5378000</v>
       </c>
       <c r="E8" s="3">
-        <v>5965400</v>
+        <v>6033800</v>
       </c>
       <c r="F8" s="3">
-        <v>6268300</v>
+        <v>6340200</v>
       </c>
       <c r="G8" s="3">
-        <v>6280500</v>
+        <v>6352600</v>
       </c>
       <c r="H8" s="3">
-        <v>6423600</v>
+        <v>6497300</v>
       </c>
       <c r="I8" s="3">
-        <v>6165600</v>
+        <v>6236300</v>
       </c>
       <c r="J8" s="3">
-        <v>6081900</v>
+        <v>6151600</v>
       </c>
       <c r="K8" s="3">
         <v>5610000</v>
@@ -1076,25 +1076,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-306700</v>
+        <v>-310200</v>
       </c>
       <c r="E15" s="3">
-        <v>-296800</v>
+        <v>-300200</v>
       </c>
       <c r="F15" s="3">
-        <v>-324200</v>
+        <v>-327900</v>
       </c>
       <c r="G15" s="3">
-        <v>-227600</v>
+        <v>-230200</v>
       </c>
       <c r="H15" s="3">
-        <v>-232900</v>
+        <v>-235600</v>
       </c>
       <c r="I15" s="3">
-        <v>-217700</v>
+        <v>-220200</v>
       </c>
       <c r="J15" s="3">
-        <v>-211600</v>
+        <v>-214000</v>
       </c>
       <c r="K15" s="3">
         <v>-188900</v>
@@ -1147,25 +1147,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3740000</v>
+        <v>2652800</v>
       </c>
       <c r="E17" s="3">
-        <v>4008700</v>
+        <v>3305600</v>
       </c>
       <c r="F17" s="3">
-        <v>3630400</v>
+        <v>3672000</v>
       </c>
       <c r="G17" s="3">
-        <v>3553500</v>
+        <v>3594300</v>
       </c>
       <c r="H17" s="3">
-        <v>3637200</v>
+        <v>3679000</v>
       </c>
       <c r="I17" s="3">
-        <v>3638800</v>
+        <v>3680500</v>
       </c>
       <c r="J17" s="3">
-        <v>3352600</v>
+        <v>3391100</v>
       </c>
       <c r="K17" s="3">
         <v>2972200</v>
@@ -1200,25 +1200,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1577000</v>
+        <v>2725200</v>
       </c>
       <c r="E18" s="3">
-        <v>1956800</v>
+        <v>2728200</v>
       </c>
       <c r="F18" s="3">
-        <v>2637900</v>
+        <v>2668200</v>
       </c>
       <c r="G18" s="3">
-        <v>2727000</v>
+        <v>2758300</v>
       </c>
       <c r="H18" s="3">
-        <v>2786400</v>
+        <v>2818300</v>
       </c>
       <c r="I18" s="3">
-        <v>2526800</v>
+        <v>2555800</v>
       </c>
       <c r="J18" s="3">
-        <v>2729300</v>
+        <v>2760600</v>
       </c>
       <c r="K18" s="3">
         <v>2637900</v>
@@ -1274,25 +1274,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-408700</v>
+        <v>-1543500</v>
       </c>
       <c r="E20" s="3">
-        <v>-627100</v>
+        <v>-1383400</v>
       </c>
       <c r="F20" s="3">
-        <v>-509200</v>
+        <v>-515000</v>
       </c>
       <c r="G20" s="3">
-        <v>-516800</v>
+        <v>-522700</v>
       </c>
       <c r="H20" s="3">
-        <v>-703200</v>
+        <v>-711300</v>
       </c>
       <c r="I20" s="3">
-        <v>-331800</v>
+        <v>-335600</v>
       </c>
       <c r="J20" s="3">
-        <v>-640100</v>
+        <v>-647400</v>
       </c>
       <c r="K20" s="3">
         <v>-607500</v>
@@ -1327,25 +1327,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1455200</v>
+        <v>1471900</v>
       </c>
       <c r="E21" s="3">
-        <v>1605900</v>
+        <v>1624300</v>
       </c>
       <c r="F21" s="3">
-        <v>2432400</v>
+        <v>2460300</v>
       </c>
       <c r="G21" s="3">
-        <v>2416500</v>
+        <v>2444200</v>
       </c>
       <c r="H21" s="3">
-        <v>2293200</v>
+        <v>2319500</v>
       </c>
       <c r="I21" s="3">
-        <v>2391300</v>
+        <v>2418800</v>
       </c>
       <c r="J21" s="3">
-        <v>2277900</v>
+        <v>2304100</v>
       </c>
       <c r="K21" s="3">
         <v>2199700</v>
@@ -1433,25 +1433,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1168300</v>
+        <v>1181700</v>
       </c>
       <c r="E23" s="3">
-        <v>1329600</v>
+        <v>1344900</v>
       </c>
       <c r="F23" s="3">
-        <v>2128800</v>
+        <v>2153200</v>
       </c>
       <c r="G23" s="3">
-        <v>2210200</v>
+        <v>2235600</v>
       </c>
       <c r="H23" s="3">
-        <v>2083100</v>
+        <v>2107000</v>
       </c>
       <c r="I23" s="3">
-        <v>2195000</v>
+        <v>2220200</v>
       </c>
       <c r="J23" s="3">
-        <v>2089200</v>
+        <v>2113200</v>
       </c>
       <c r="K23" s="3">
         <v>2030400</v>
@@ -1486,25 +1486,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>175800</v>
+        <v>177800</v>
       </c>
       <c r="E24" s="3">
-        <v>321900</v>
+        <v>325600</v>
       </c>
       <c r="F24" s="3">
-        <v>358500</v>
+        <v>362600</v>
       </c>
       <c r="G24" s="3">
-        <v>453600</v>
+        <v>458800</v>
       </c>
       <c r="H24" s="3">
-        <v>573100</v>
+        <v>579700</v>
       </c>
       <c r="I24" s="3">
-        <v>475700</v>
+        <v>481100</v>
       </c>
       <c r="J24" s="3">
-        <v>379000</v>
+        <v>383400</v>
       </c>
       <c r="K24" s="3">
         <v>380100</v>
@@ -1592,25 +1592,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>992500</v>
+        <v>1003800</v>
       </c>
       <c r="E26" s="3">
-        <v>1007700</v>
+        <v>1019200</v>
       </c>
       <c r="F26" s="3">
-        <v>1770300</v>
+        <v>1790600</v>
       </c>
       <c r="G26" s="3">
-        <v>1756600</v>
+        <v>1776700</v>
       </c>
       <c r="H26" s="3">
-        <v>1510000</v>
+        <v>1527300</v>
       </c>
       <c r="I26" s="3">
-        <v>1719300</v>
+        <v>1739000</v>
       </c>
       <c r="J26" s="3">
-        <v>1710200</v>
+        <v>1729800</v>
       </c>
       <c r="K26" s="3">
         <v>1650300</v>
@@ -1645,25 +1645,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1013800</v>
+        <v>1025400</v>
       </c>
       <c r="E27" s="3">
-        <v>946000</v>
+        <v>956900</v>
       </c>
       <c r="F27" s="3">
-        <v>1721600</v>
+        <v>1741300</v>
       </c>
       <c r="G27" s="3">
-        <v>1626400</v>
+        <v>1645100</v>
       </c>
       <c r="H27" s="3">
-        <v>1399600</v>
+        <v>1415700</v>
       </c>
       <c r="I27" s="3">
-        <v>1617300</v>
+        <v>1635900</v>
       </c>
       <c r="J27" s="3">
-        <v>1603600</v>
+        <v>1622000</v>
       </c>
       <c r="K27" s="3">
         <v>1536200</v>
@@ -1910,25 +1910,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>408700</v>
+        <v>1543500</v>
       </c>
       <c r="E32" s="3">
-        <v>627100</v>
+        <v>1383400</v>
       </c>
       <c r="F32" s="3">
-        <v>509200</v>
+        <v>515000</v>
       </c>
       <c r="G32" s="3">
-        <v>516800</v>
+        <v>522700</v>
       </c>
       <c r="H32" s="3">
-        <v>703200</v>
+        <v>711300</v>
       </c>
       <c r="I32" s="3">
-        <v>331800</v>
+        <v>335600</v>
       </c>
       <c r="J32" s="3">
-        <v>640100</v>
+        <v>647400</v>
       </c>
       <c r="K32" s="3">
         <v>607500</v>
@@ -1963,25 +1963,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1013800</v>
+        <v>1025400</v>
       </c>
       <c r="E33" s="3">
-        <v>946000</v>
+        <v>956900</v>
       </c>
       <c r="F33" s="3">
-        <v>1721600</v>
+        <v>1741300</v>
       </c>
       <c r="G33" s="3">
-        <v>1626400</v>
+        <v>1645100</v>
       </c>
       <c r="H33" s="3">
-        <v>1399600</v>
+        <v>1415700</v>
       </c>
       <c r="I33" s="3">
-        <v>1617300</v>
+        <v>1635900</v>
       </c>
       <c r="J33" s="3">
-        <v>1603600</v>
+        <v>1622000</v>
       </c>
       <c r="K33" s="3">
         <v>1536200</v>
@@ -2069,25 +2069,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1013800</v>
+        <v>1025400</v>
       </c>
       <c r="E35" s="3">
-        <v>946000</v>
+        <v>956900</v>
       </c>
       <c r="F35" s="3">
-        <v>1721600</v>
+        <v>1741300</v>
       </c>
       <c r="G35" s="3">
-        <v>1626400</v>
+        <v>1645100</v>
       </c>
       <c r="H35" s="3">
-        <v>1399600</v>
+        <v>1415700</v>
       </c>
       <c r="I35" s="3">
-        <v>1617300</v>
+        <v>1635900</v>
       </c>
       <c r="J35" s="3">
-        <v>1603600</v>
+        <v>1622000</v>
       </c>
       <c r="K35" s="3">
         <v>1536200</v>
@@ -2222,25 +2222,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8441200</v>
+        <v>8538100</v>
       </c>
       <c r="E41" s="3">
-        <v>8876600</v>
+        <v>8978400</v>
       </c>
       <c r="F41" s="3">
-        <v>7788200</v>
+        <v>7877600</v>
       </c>
       <c r="G41" s="3">
-        <v>8298900</v>
+        <v>8394100</v>
       </c>
       <c r="H41" s="3">
-        <v>8028000</v>
+        <v>8120100</v>
       </c>
       <c r="I41" s="3">
-        <v>7352100</v>
+        <v>7436500</v>
       </c>
       <c r="J41" s="3">
-        <v>7457900</v>
+        <v>7543500</v>
       </c>
       <c r="K41" s="3">
         <v>6538000</v>
@@ -2275,25 +2275,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>271358300</v>
+        <v>275350800</v>
       </c>
       <c r="E42" s="3">
-        <v>315432200</v>
+        <v>319964100</v>
       </c>
       <c r="F42" s="3">
-        <v>302091800</v>
+        <v>306704800</v>
       </c>
       <c r="G42" s="3">
-        <v>256568000</v>
+        <v>259510900</v>
       </c>
       <c r="H42" s="3">
-        <v>247820000</v>
+        <v>250662600</v>
       </c>
       <c r="I42" s="3">
-        <v>242487800</v>
+        <v>245269300</v>
       </c>
       <c r="J42" s="3">
-        <v>238871900</v>
+        <v>241611900</v>
       </c>
       <c r="K42" s="3">
         <v>216781100</v>
@@ -2540,25 +2540,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1825900</v>
+        <v>1846800</v>
       </c>
       <c r="E47" s="3">
-        <v>1851000</v>
+        <v>1872200</v>
       </c>
       <c r="F47" s="3">
-        <v>1771100</v>
+        <v>1791400</v>
       </c>
       <c r="G47" s="3">
-        <v>4272800</v>
+        <v>4321800</v>
       </c>
       <c r="H47" s="3">
-        <v>4183000</v>
+        <v>4230900</v>
       </c>
       <c r="I47" s="3">
-        <v>4036100</v>
+        <v>4082400</v>
       </c>
       <c r="J47" s="3">
-        <v>3945500</v>
+        <v>3990700</v>
       </c>
       <c r="K47" s="3">
         <v>3524400</v>
@@ -2593,25 +2593,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4585600</v>
+        <v>4638200</v>
       </c>
       <c r="E48" s="3">
-        <v>4660900</v>
+        <v>4714400</v>
       </c>
       <c r="F48" s="3">
-        <v>4644900</v>
+        <v>4698200</v>
       </c>
       <c r="G48" s="3">
-        <v>2031300</v>
+        <v>2054600</v>
       </c>
       <c r="H48" s="3">
-        <v>2004700</v>
+        <v>2027700</v>
       </c>
       <c r="I48" s="3">
-        <v>2071700</v>
+        <v>2095500</v>
       </c>
       <c r="J48" s="3">
-        <v>2039700</v>
+        <v>2063100</v>
       </c>
       <c r="K48" s="3">
         <v>1950400</v>
@@ -2646,25 +2646,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13042000</v>
+        <v>13191600</v>
       </c>
       <c r="E49" s="3">
-        <v>13023800</v>
+        <v>13173200</v>
       </c>
       <c r="F49" s="3">
-        <v>13083900</v>
+        <v>13234000</v>
       </c>
       <c r="G49" s="3">
-        <v>13292400</v>
+        <v>13444900</v>
       </c>
       <c r="H49" s="3">
-        <v>13404300</v>
+        <v>13558100</v>
       </c>
       <c r="I49" s="3">
-        <v>13566400</v>
+        <v>13722000</v>
       </c>
       <c r="J49" s="3">
-        <v>13596100</v>
+        <v>13752100</v>
       </c>
       <c r="K49" s="3">
         <v>12876200</v>
@@ -2805,25 +2805,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1647000</v>
+        <v>1665900</v>
       </c>
       <c r="E52" s="3">
-        <v>1271000</v>
+        <v>1285600</v>
       </c>
       <c r="F52" s="3">
-        <v>1307600</v>
+        <v>1322600</v>
       </c>
       <c r="G52" s="3">
-        <v>1194900</v>
+        <v>1208600</v>
       </c>
       <c r="H52" s="3">
-        <v>1298400</v>
+        <v>1313300</v>
       </c>
       <c r="I52" s="3">
-        <v>1574700</v>
+        <v>1592800</v>
       </c>
       <c r="J52" s="3">
-        <v>1558000</v>
+        <v>1575800</v>
       </c>
       <c r="K52" s="3">
         <v>1408300</v>
@@ -2911,25 +2911,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>890377900</v>
+        <v>900590900</v>
       </c>
       <c r="E54" s="3">
-        <v>949134800</v>
+        <v>960021700</v>
       </c>
       <c r="F54" s="3">
-        <v>878314600</v>
+        <v>888389200</v>
       </c>
       <c r="G54" s="3">
-        <v>826666300</v>
+        <v>836148500</v>
       </c>
       <c r="H54" s="3">
-        <v>811885100</v>
+        <v>821197800</v>
       </c>
       <c r="I54" s="3">
-        <v>805361800</v>
+        <v>814599700</v>
       </c>
       <c r="J54" s="3">
-        <v>787182400</v>
+        <v>796211700</v>
       </c>
       <c r="K54" s="3">
         <v>725594900</v>
@@ -3218,25 +3218,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5583400</v>
+        <v>5647400</v>
       </c>
       <c r="E61" s="3">
-        <v>5696000</v>
+        <v>5761300</v>
       </c>
       <c r="F61" s="3">
-        <v>5552200</v>
+        <v>5615800</v>
       </c>
       <c r="G61" s="3">
-        <v>5519400</v>
+        <v>5582700</v>
       </c>
       <c r="H61" s="3">
-        <v>6865800</v>
+        <v>6944500</v>
       </c>
       <c r="I61" s="3">
-        <v>5749300</v>
+        <v>5815200</v>
       </c>
       <c r="J61" s="3">
-        <v>5702100</v>
+        <v>5767500</v>
       </c>
       <c r="K61" s="3">
         <v>4140700</v>
@@ -3483,25 +3483,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>838478400</v>
+        <v>848096100</v>
       </c>
       <c r="E66" s="3">
-        <v>897469700</v>
+        <v>907764000</v>
       </c>
       <c r="F66" s="3">
-        <v>827040700</v>
+        <v>836527200</v>
       </c>
       <c r="G66" s="3">
-        <v>775276000</v>
+        <v>784168700</v>
       </c>
       <c r="H66" s="3">
-        <v>760574000</v>
+        <v>769298100</v>
       </c>
       <c r="I66" s="3">
-        <v>754022500</v>
+        <v>762671500</v>
       </c>
       <c r="J66" s="3">
-        <v>736639200</v>
+        <v>745088800</v>
       </c>
       <c r="K66" s="3">
         <v>678194300</v>
@@ -3663,25 +3663,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4039900</v>
+        <v>4086200</v>
       </c>
       <c r="E70" s="3">
-        <v>2754400</v>
+        <v>2786000</v>
       </c>
       <c r="F70" s="3">
-        <v>2956100</v>
+        <v>2990000</v>
       </c>
       <c r="G70" s="3">
-        <v>2956100</v>
+        <v>2990000</v>
       </c>
       <c r="H70" s="3">
-        <v>2956100</v>
+        <v>2990000</v>
       </c>
       <c r="I70" s="3">
-        <v>2956100</v>
+        <v>2990000</v>
       </c>
       <c r="J70" s="3">
-        <v>2956100</v>
+        <v>2990000</v>
       </c>
       <c r="K70" s="3">
         <v>3040500</v>
@@ -3769,25 +3769,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>35047400</v>
+        <v>35449400</v>
       </c>
       <c r="E72" s="3">
-        <v>34869300</v>
+        <v>35269300</v>
       </c>
       <c r="F72" s="3">
-        <v>34842700</v>
+        <v>35242400</v>
       </c>
       <c r="G72" s="3">
-        <v>34099900</v>
+        <v>34491000</v>
       </c>
       <c r="H72" s="3">
-        <v>33527500</v>
+        <v>33912100</v>
       </c>
       <c r="I72" s="3">
-        <v>33070100</v>
+        <v>33449400</v>
       </c>
       <c r="J72" s="3">
-        <v>32454400</v>
+        <v>32826700</v>
       </c>
       <c r="K72" s="3">
         <v>30388700</v>
@@ -3981,25 +3981,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47859600</v>
+        <v>48408600</v>
       </c>
       <c r="E76" s="3">
-        <v>48910700</v>
+        <v>49471700</v>
       </c>
       <c r="F76" s="3">
-        <v>48317800</v>
+        <v>48872000</v>
       </c>
       <c r="G76" s="3">
-        <v>48434200</v>
+        <v>48989800</v>
       </c>
       <c r="H76" s="3">
-        <v>48355100</v>
+        <v>48909700</v>
       </c>
       <c r="I76" s="3">
-        <v>48383300</v>
+        <v>48938200</v>
       </c>
       <c r="J76" s="3">
-        <v>47587200</v>
+        <v>48133000</v>
       </c>
       <c r="K76" s="3">
         <v>44360100</v>
@@ -4145,25 +4145,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1013800</v>
+        <v>1025400</v>
       </c>
       <c r="E81" s="3">
-        <v>946000</v>
+        <v>956900</v>
       </c>
       <c r="F81" s="3">
-        <v>1721600</v>
+        <v>1741300</v>
       </c>
       <c r="G81" s="3">
-        <v>1626400</v>
+        <v>1645100</v>
       </c>
       <c r="H81" s="3">
-        <v>1399600</v>
+        <v>1415700</v>
       </c>
       <c r="I81" s="3">
-        <v>1617300</v>
+        <v>1635900</v>
       </c>
       <c r="J81" s="3">
-        <v>1603600</v>
+        <v>1622000</v>
       </c>
       <c r="K81" s="3">
         <v>1536200</v>
@@ -4219,25 +4219,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>286900</v>
+        <v>290200</v>
       </c>
       <c r="E83" s="3">
-        <v>276300</v>
+        <v>279400</v>
       </c>
       <c r="F83" s="3">
-        <v>303700</v>
+        <v>307200</v>
       </c>
       <c r="G83" s="3">
-        <v>206300</v>
+        <v>208600</v>
       </c>
       <c r="H83" s="3">
-        <v>210100</v>
+        <v>212500</v>
       </c>
       <c r="I83" s="3">
-        <v>196400</v>
+        <v>198600</v>
       </c>
       <c r="J83" s="3">
-        <v>188800</v>
+        <v>190900</v>
       </c>
       <c r="K83" s="3">
         <v>169300</v>
@@ -4537,25 +4537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-31087500</v>
+        <v>-31444100</v>
       </c>
       <c r="E89" s="3">
-        <v>54373800</v>
+        <v>54997500</v>
       </c>
       <c r="F89" s="3">
-        <v>13100600</v>
+        <v>13250900</v>
       </c>
       <c r="G89" s="3">
-        <v>3093800</v>
+        <v>3129300</v>
       </c>
       <c r="H89" s="3">
-        <v>-5355800</v>
+        <v>-5417200</v>
       </c>
       <c r="I89" s="3">
-        <v>1945300</v>
+        <v>1967700</v>
       </c>
       <c r="J89" s="3">
-        <v>-8835500</v>
+        <v>-8936800</v>
       </c>
       <c r="K89" s="3">
         <v>13302100</v>
@@ -4611,25 +4611,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-125600</v>
+        <v>-127000</v>
       </c>
       <c r="E91" s="3">
-        <v>-234400</v>
+        <v>-237100</v>
       </c>
       <c r="F91" s="3">
-        <v>-72300</v>
+        <v>-73100</v>
       </c>
       <c r="G91" s="3">
-        <v>-112600</v>
+        <v>-113900</v>
       </c>
       <c r="H91" s="3">
-        <v>50200</v>
+        <v>50800</v>
       </c>
       <c r="I91" s="3">
-        <v>-66200</v>
+        <v>-67000</v>
       </c>
       <c r="J91" s="3">
-        <v>-12900</v>
+        <v>-13100</v>
       </c>
       <c r="K91" s="3">
         <v>-141700</v>
@@ -4770,25 +4770,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>28963300</v>
+        <v>29295500</v>
       </c>
       <c r="E94" s="3">
-        <v>-53411000</v>
+        <v>-54023700</v>
       </c>
       <c r="F94" s="3">
-        <v>-13010800</v>
+        <v>-13160100</v>
       </c>
       <c r="G94" s="3">
-        <v>-771700</v>
+        <v>-780600</v>
       </c>
       <c r="H94" s="3">
-        <v>5079500</v>
+        <v>5137800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1505400</v>
+        <v>-1522700</v>
       </c>
       <c r="J94" s="3">
-        <v>8779900</v>
+        <v>8880600</v>
       </c>
       <c r="K94" s="3">
         <v>-11479500</v>
@@ -4844,25 +4844,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-847100</v>
+        <v>-856800</v>
       </c>
       <c r="E96" s="3">
-        <v>-879800</v>
+        <v>-889900</v>
       </c>
       <c r="F96" s="3">
-        <v>-850100</v>
+        <v>-859900</v>
       </c>
       <c r="G96" s="3">
-        <v>-832600</v>
+        <v>-842200</v>
       </c>
       <c r="H96" s="3">
-        <v>-808300</v>
+        <v>-817500</v>
       </c>
       <c r="I96" s="3">
-        <v>-809000</v>
+        <v>-818300</v>
       </c>
       <c r="J96" s="3">
-        <v>-792300</v>
+        <v>-801400</v>
       </c>
       <c r="K96" s="3">
         <v>-757900</v>
@@ -5056,25 +5056,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1852500</v>
+        <v>1873700</v>
       </c>
       <c r="E100" s="3">
-        <v>-25100</v>
+        <v>-25400</v>
       </c>
       <c r="F100" s="3">
-        <v>-588300</v>
+        <v>-595100</v>
       </c>
       <c r="G100" s="3">
-        <v>-2003900</v>
+        <v>-2026900</v>
       </c>
       <c r="H100" s="3">
-        <v>1069300</v>
+        <v>1081600</v>
       </c>
       <c r="I100" s="3">
-        <v>-658300</v>
+        <v>-665900</v>
       </c>
       <c r="J100" s="3">
-        <v>612700</v>
+        <v>619700</v>
       </c>
       <c r="K100" s="3">
         <v>-6303300</v>
@@ -5109,25 +5109,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-163600</v>
+        <v>-165500</v>
       </c>
       <c r="E101" s="3">
-        <v>150700</v>
+        <v>152400</v>
       </c>
       <c r="F101" s="3">
-        <v>-12200</v>
+        <v>-12300</v>
       </c>
       <c r="G101" s="3">
-        <v>-47200</v>
+        <v>-47700</v>
       </c>
       <c r="H101" s="3">
-        <v>-117200</v>
+        <v>-118600</v>
       </c>
       <c r="I101" s="3">
-        <v>112600</v>
+        <v>113900</v>
       </c>
       <c r="J101" s="3">
-        <v>53300</v>
+        <v>53900</v>
       </c>
       <c r="K101" s="3">
         <v>-77800</v>
@@ -5162,25 +5162,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-435300</v>
+        <v>-440300</v>
       </c>
       <c r="E102" s="3">
-        <v>1088400</v>
+        <v>1100800</v>
       </c>
       <c r="F102" s="3">
-        <v>-510700</v>
+        <v>-516500</v>
       </c>
       <c r="G102" s="3">
-        <v>270900</v>
+        <v>274100</v>
       </c>
       <c r="H102" s="3">
-        <v>675800</v>
+        <v>683600</v>
       </c>
       <c r="I102" s="3">
-        <v>-105800</v>
+        <v>-107000</v>
       </c>
       <c r="J102" s="3">
-        <v>610400</v>
+        <v>617400</v>
       </c>
       <c r="K102" s="3">
         <v>726000</v>

--- a/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>BNS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,139 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5378000</v>
+        <v>5164100</v>
       </c>
       <c r="E8" s="3">
-        <v>6033800</v>
+        <v>5275200</v>
       </c>
       <c r="F8" s="3">
-        <v>6340200</v>
+        <v>5540000</v>
       </c>
       <c r="G8" s="3">
-        <v>6352600</v>
+        <v>6215700</v>
       </c>
       <c r="H8" s="3">
-        <v>6497300</v>
+        <v>6531300</v>
       </c>
       <c r="I8" s="3">
+        <v>6544000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6693100</v>
+      </c>
+      <c r="K8" s="3">
         <v>6236300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6151600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5610000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5368100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5070000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4823200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4649100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4553100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4481900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4400400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4378100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -837,8 +849,14 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,8 +908,14 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +935,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -964,8 +990,14 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,8 +1049,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1070,61 +1108,73 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-310200</v>
+        <v>-323600</v>
       </c>
       <c r="E15" s="3">
-        <v>-300200</v>
+        <v>-343400</v>
       </c>
       <c r="F15" s="3">
-        <v>-327900</v>
+        <v>-319600</v>
       </c>
       <c r="G15" s="3">
-        <v>-230200</v>
+        <v>-309300</v>
       </c>
       <c r="H15" s="3">
-        <v>-235600</v>
+        <v>-337800</v>
       </c>
       <c r="I15" s="3">
+        <v>-237100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-242700</v>
+      </c>
+      <c r="K15" s="3">
         <v>-220200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-214000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-188900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-176900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-167100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-148100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-145100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-142100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-144400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-143700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-140600</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1191,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2652800</v>
+        <v>2191100</v>
       </c>
       <c r="E17" s="3">
-        <v>3305600</v>
+        <v>2495600</v>
       </c>
       <c r="F17" s="3">
-        <v>3672000</v>
+        <v>2732700</v>
       </c>
       <c r="G17" s="3">
-        <v>3594300</v>
+        <v>3405200</v>
       </c>
       <c r="H17" s="3">
-        <v>3679000</v>
+        <v>3782700</v>
       </c>
       <c r="I17" s="3">
+        <v>3702600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3789800</v>
+      </c>
+      <c r="K17" s="3">
         <v>3680500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3391100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2972200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3002900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2498500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2298900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2196900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2127000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2068800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2026600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1994300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2725200</v>
+        <v>2973000</v>
       </c>
       <c r="E18" s="3">
-        <v>2728200</v>
+        <v>2779500</v>
       </c>
       <c r="F18" s="3">
-        <v>2668200</v>
+        <v>2807300</v>
       </c>
       <c r="G18" s="3">
-        <v>2758300</v>
+        <v>2810500</v>
       </c>
       <c r="H18" s="3">
-        <v>2818300</v>
+        <v>2748600</v>
       </c>
       <c r="I18" s="3">
+        <v>2841400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2903200</v>
+      </c>
+      <c r="K18" s="3">
         <v>2555800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2760600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2637900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2365300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2571500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2524400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2452200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2426100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2413000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>2373800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2383800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,114 +1332,128 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1543500</v>
+        <v>-514700</v>
       </c>
       <c r="E20" s="3">
-        <v>-1383400</v>
+        <v>-942100</v>
       </c>
       <c r="F20" s="3">
-        <v>-515000</v>
+        <v>-1590000</v>
       </c>
       <c r="G20" s="3">
-        <v>-522700</v>
+        <v>-1425100</v>
       </c>
       <c r="H20" s="3">
-        <v>-711300</v>
+        <v>-530500</v>
       </c>
       <c r="I20" s="3">
+        <v>-538500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-732800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-335600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-647400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-607500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-507400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-465200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-257500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-511300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-454700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-574600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-356500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-424100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1471900</v>
+        <v>2759700</v>
       </c>
       <c r="E21" s="3">
-        <v>1624300</v>
+        <v>2160200</v>
       </c>
       <c r="F21" s="3">
-        <v>2460300</v>
+        <v>1516300</v>
       </c>
       <c r="G21" s="3">
-        <v>2444200</v>
+        <v>1673300</v>
       </c>
       <c r="H21" s="3">
-        <v>2319500</v>
+        <v>2534500</v>
       </c>
       <c r="I21" s="3">
+        <v>2517800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2389400</v>
+      </c>
+      <c r="K21" s="3">
         <v>2418800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2304100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2199700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2017500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2259900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2415000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2086000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2113600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1982800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>2161000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2100300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1427,114 +1505,132 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1181700</v>
+        <v>2458400</v>
       </c>
       <c r="E23" s="3">
-        <v>1344900</v>
+        <v>1837400</v>
       </c>
       <c r="F23" s="3">
-        <v>2153200</v>
+        <v>1217300</v>
       </c>
       <c r="G23" s="3">
-        <v>2235600</v>
+        <v>1385400</v>
       </c>
       <c r="H23" s="3">
-        <v>2107000</v>
+        <v>2218100</v>
       </c>
       <c r="I23" s="3">
+        <v>2302900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2170500</v>
+      </c>
+      <c r="K23" s="3">
         <v>2220200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2113200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2030400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1857900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2106300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2266900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1940900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1971400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1838400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2017400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1959800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>177800</v>
+        <v>556700</v>
       </c>
       <c r="E24" s="3">
-        <v>325600</v>
+        <v>331500</v>
       </c>
       <c r="F24" s="3">
-        <v>362600</v>
+        <v>183200</v>
       </c>
       <c r="G24" s="3">
-        <v>458800</v>
+        <v>335400</v>
       </c>
       <c r="H24" s="3">
-        <v>579700</v>
+        <v>373500</v>
       </c>
       <c r="I24" s="3">
+        <v>472600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>597100</v>
+      </c>
+      <c r="K24" s="3">
         <v>481100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>383400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>380100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>398200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>467500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>527600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>400400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>406300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>255100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>474000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>414800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1682,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1003800</v>
+        <v>1901700</v>
       </c>
       <c r="E26" s="3">
-        <v>1019200</v>
+        <v>1505900</v>
       </c>
       <c r="F26" s="3">
-        <v>1790600</v>
+        <v>1034100</v>
       </c>
       <c r="G26" s="3">
-        <v>1776700</v>
+        <v>1050000</v>
       </c>
       <c r="H26" s="3">
-        <v>1527300</v>
+        <v>1844600</v>
       </c>
       <c r="I26" s="3">
+        <v>1830300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1573400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1739000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1729800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1650300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1459700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1638800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1739200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1540500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1565100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1583300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1543400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1544900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1025400</v>
+        <v>1796200</v>
       </c>
       <c r="E27" s="3">
-        <v>956900</v>
+        <v>1383800</v>
       </c>
       <c r="F27" s="3">
-        <v>1741300</v>
+        <v>1056300</v>
       </c>
       <c r="G27" s="3">
-        <v>1645100</v>
+        <v>985700</v>
       </c>
       <c r="H27" s="3">
-        <v>1415700</v>
+        <v>1793800</v>
       </c>
       <c r="I27" s="3">
+        <v>1694700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1458400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1635900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1622000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1536200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1472500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1537200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1673700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1478000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1500300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1509600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1466600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1859,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1798,8 +1918,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1977,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +2036,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1543500</v>
+        <v>514700</v>
       </c>
       <c r="E32" s="3">
-        <v>1383400</v>
+        <v>942100</v>
       </c>
       <c r="F32" s="3">
-        <v>515000</v>
+        <v>1590000</v>
       </c>
       <c r="G32" s="3">
-        <v>522700</v>
+        <v>1425100</v>
       </c>
       <c r="H32" s="3">
-        <v>711300</v>
+        <v>530500</v>
       </c>
       <c r="I32" s="3">
+        <v>538500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>732800</v>
+      </c>
+      <c r="K32" s="3">
         <v>335600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>647400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>607500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>507400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>465200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>257500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>511300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>454700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>574600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>356500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1025400</v>
+        <v>1796200</v>
       </c>
       <c r="E33" s="3">
-        <v>956900</v>
+        <v>1383800</v>
       </c>
       <c r="F33" s="3">
-        <v>1741300</v>
+        <v>1056300</v>
       </c>
       <c r="G33" s="3">
-        <v>1645100</v>
+        <v>985700</v>
       </c>
       <c r="H33" s="3">
-        <v>1415700</v>
+        <v>1793800</v>
       </c>
       <c r="I33" s="3">
+        <v>1694700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1458400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1635900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1622000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1536200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1472500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1537200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1673700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1478000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1500300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1509600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1466600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2213,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1025400</v>
+        <v>1796200</v>
       </c>
       <c r="E35" s="3">
-        <v>956900</v>
+        <v>1383800</v>
       </c>
       <c r="F35" s="3">
-        <v>1741300</v>
+        <v>1056300</v>
       </c>
       <c r="G35" s="3">
-        <v>1645100</v>
+        <v>985700</v>
       </c>
       <c r="H35" s="3">
-        <v>1415700</v>
+        <v>1793800</v>
       </c>
       <c r="I35" s="3">
+        <v>1694700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1458400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1635900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1622000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1536200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1472500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1537200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1673700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1478000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1500300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1509600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1466600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2363,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,114 +2386,128 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8538100</v>
+        <v>7488500</v>
       </c>
       <c r="E41" s="3">
-        <v>8978400</v>
+        <v>8820800</v>
       </c>
       <c r="F41" s="3">
-        <v>7877600</v>
+        <v>8795400</v>
       </c>
       <c r="G41" s="3">
-        <v>8394100</v>
+        <v>9249000</v>
       </c>
       <c r="H41" s="3">
-        <v>8120100</v>
+        <v>8115000</v>
       </c>
       <c r="I41" s="3">
+        <v>8647100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>8364800</v>
+      </c>
+      <c r="K41" s="3">
         <v>7436500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>7543500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6538000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6020800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5560100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5828700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5823400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5103800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>6764300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6125100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5266200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>275350800</v>
+        <v>308491100</v>
       </c>
       <c r="E42" s="3">
-        <v>319964100</v>
+        <v>277867100</v>
       </c>
       <c r="F42" s="3">
-        <v>306704800</v>
+        <v>283649000</v>
       </c>
       <c r="G42" s="3">
-        <v>259510900</v>
+        <v>329606900</v>
       </c>
       <c r="H42" s="3">
-        <v>250662600</v>
+        <v>315947900</v>
       </c>
       <c r="I42" s="3">
+        <v>267331800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>258216800</v>
+      </c>
+      <c r="K42" s="3">
         <v>245269300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>241611900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>216781100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>195829300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>207922900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>208904200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>209121500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>207952400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>225427900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>214720300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>216684600</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2375,8 +2559,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2428,8 +2618,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2481,8 +2677,14 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2534,167 +2736,191 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1846800</v>
+        <v>1995200</v>
       </c>
       <c r="E47" s="3">
-        <v>1872200</v>
+        <v>1962700</v>
       </c>
       <c r="F47" s="3">
-        <v>1791400</v>
+        <v>1902500</v>
       </c>
       <c r="G47" s="3">
-        <v>4321800</v>
+        <v>1928600</v>
       </c>
       <c r="H47" s="3">
-        <v>4230900</v>
+        <v>1845400</v>
       </c>
       <c r="I47" s="3">
+        <v>4452000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4358400</v>
+      </c>
+      <c r="K47" s="3">
         <v>4082400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3990700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3524400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>3540400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>3617900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>3362300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>3412900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>3261100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>3474700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>3274200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>3302600</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4638200</v>
+        <v>4544000</v>
       </c>
       <c r="E48" s="3">
-        <v>4714400</v>
+        <v>4676400</v>
       </c>
       <c r="F48" s="3">
-        <v>4698200</v>
+        <v>4777900</v>
       </c>
       <c r="G48" s="3">
-        <v>2054600</v>
+        <v>4856500</v>
       </c>
       <c r="H48" s="3">
-        <v>2027700</v>
+        <v>4839800</v>
       </c>
       <c r="I48" s="3">
+        <v>2116600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2088800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2095500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2063100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1950400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1955000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1799200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1722100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1772000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1658100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1809200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1747700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1935900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13191600</v>
+        <v>13463100</v>
       </c>
       <c r="E49" s="3">
-        <v>13173200</v>
+        <v>13493200</v>
       </c>
       <c r="F49" s="3">
-        <v>13234000</v>
+        <v>13589200</v>
       </c>
       <c r="G49" s="3">
-        <v>13444900</v>
+        <v>13570200</v>
       </c>
       <c r="H49" s="3">
-        <v>13558100</v>
+        <v>13632800</v>
       </c>
       <c r="I49" s="3">
+        <v>13850100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>13966700</v>
+      </c>
+      <c r="K49" s="3">
         <v>13722000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>13752100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>12876200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>11209000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>9239000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>8967000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>9009400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>8879200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>9437700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>9261800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>9327100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2972,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +3031,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1665900</v>
+        <v>1678000</v>
       </c>
       <c r="E52" s="3">
-        <v>1285600</v>
+        <v>1732700</v>
       </c>
       <c r="F52" s="3">
-        <v>1322600</v>
+        <v>1716100</v>
       </c>
       <c r="G52" s="3">
-        <v>1208600</v>
+        <v>1324300</v>
       </c>
       <c r="H52" s="3">
-        <v>1313300</v>
+        <v>1362400</v>
       </c>
       <c r="I52" s="3">
+        <v>1245000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1352900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1592800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1575800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1408300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1473200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1345200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1293400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1274800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1286000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1485000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1379000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1552600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3149,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>900590900</v>
+        <v>923114900</v>
       </c>
       <c r="E54" s="3">
-        <v>960021700</v>
+        <v>901240300</v>
       </c>
       <c r="F54" s="3">
-        <v>888389200</v>
+        <v>927731900</v>
       </c>
       <c r="G54" s="3">
-        <v>836148500</v>
+        <v>988953800</v>
       </c>
       <c r="H54" s="3">
-        <v>821197800</v>
+        <v>915162500</v>
       </c>
       <c r="I54" s="3">
+        <v>861347400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>845946200</v>
+      </c>
+      <c r="K54" s="3">
         <v>814599700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>796211700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>725594900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>712668600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>697316900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>687018900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>681155300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>674501300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>708036100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>681413900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>688538400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3235,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,8 +3258,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3053,8 +3313,14 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3106,8 +3372,14 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3159,8 +3431,14 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3212,61 +3490,73 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5647400</v>
+        <v>5233900</v>
       </c>
       <c r="E61" s="3">
-        <v>5761300</v>
+        <v>5872300</v>
       </c>
       <c r="F61" s="3">
-        <v>5615800</v>
+        <v>5817600</v>
       </c>
       <c r="G61" s="3">
-        <v>5582700</v>
+        <v>5935000</v>
       </c>
       <c r="H61" s="3">
-        <v>6944500</v>
+        <v>5785100</v>
       </c>
       <c r="I61" s="3">
+        <v>5751000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>7153800</v>
+      </c>
+      <c r="K61" s="3">
         <v>5815200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5767500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4140700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4281100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4266100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4242700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4416900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5489300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5854700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>5767100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5863900</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3318,8 +3608,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3667,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3726,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3785,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>848096100</v>
+        <v>868638400</v>
       </c>
       <c r="E66" s="3">
-        <v>907764000</v>
+        <v>847214200</v>
       </c>
       <c r="F66" s="3">
-        <v>836527200</v>
+        <v>873655100</v>
       </c>
       <c r="G66" s="3">
-        <v>784168700</v>
+        <v>935121300</v>
       </c>
       <c r="H66" s="3">
-        <v>769298100</v>
+        <v>861737600</v>
       </c>
       <c r="I66" s="3">
+        <v>807801100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>792482300</v>
+      </c>
+      <c r="K66" s="3">
         <v>762671500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>745088800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>678194300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>663747700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>651024100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>642619400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>636478200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>632539800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>663375800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>638197100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>645324700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3871,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3926,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,61 +3985,73 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4086200</v>
+        <v>4209400</v>
       </c>
       <c r="E70" s="3">
-        <v>2786000</v>
+        <v>4209400</v>
       </c>
       <c r="F70" s="3">
+        <v>4209400</v>
+      </c>
+      <c r="G70" s="3">
+        <v>2869900</v>
+      </c>
+      <c r="H70" s="3">
+        <v>3080100</v>
+      </c>
+      <c r="I70" s="3">
+        <v>3080100</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3080100</v>
+      </c>
+      <c r="K70" s="3">
         <v>2990000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="L70" s="3">
         <v>2990000</v>
       </c>
-      <c r="H70" s="3">
-        <v>2990000</v>
-      </c>
-      <c r="I70" s="3">
-        <v>2990000</v>
-      </c>
-      <c r="J70" s="3">
-        <v>2990000</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>3040500</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>3187300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>3187300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>3407700</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>3407700</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>2246800</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>2319300</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>2496000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>2761000</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +4103,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>35449400</v>
+        <v>37965800</v>
       </c>
       <c r="E72" s="3">
-        <v>35269300</v>
+        <v>37038000</v>
       </c>
       <c r="F72" s="3">
-        <v>35242400</v>
+        <v>36517800</v>
       </c>
       <c r="G72" s="3">
-        <v>34491000</v>
+        <v>36332200</v>
       </c>
       <c r="H72" s="3">
-        <v>33912100</v>
+        <v>36304500</v>
       </c>
       <c r="I72" s="3">
+        <v>35530500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>34934100</v>
+      </c>
+      <c r="K72" s="3">
         <v>33449400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>32826700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>30388700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>30724400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>30016700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>28815800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>28453400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>27695800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>27932800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>27496500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>26814300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4221,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4280,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4339,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>48408600</v>
+        <v>50267200</v>
       </c>
       <c r="E76" s="3">
-        <v>49471700</v>
+        <v>49816700</v>
       </c>
       <c r="F76" s="3">
-        <v>48872000</v>
+        <v>49867500</v>
       </c>
       <c r="G76" s="3">
-        <v>48989800</v>
+        <v>50962600</v>
       </c>
       <c r="H76" s="3">
-        <v>48909700</v>
+        <v>50344900</v>
       </c>
       <c r="I76" s="3">
+        <v>50466200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>50383700</v>
+      </c>
+      <c r="K76" s="3">
         <v>48938200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>48133000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>44360100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>45733500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>43105500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>40991800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>41269400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>39714800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>42341000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>40720800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>40452700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4457,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1025400</v>
+        <v>1796200</v>
       </c>
       <c r="E81" s="3">
-        <v>956900</v>
+        <v>1383800</v>
       </c>
       <c r="F81" s="3">
-        <v>1741300</v>
+        <v>1056300</v>
       </c>
       <c r="G81" s="3">
-        <v>1645100</v>
+        <v>985700</v>
       </c>
       <c r="H81" s="3">
-        <v>1415700</v>
+        <v>1793800</v>
       </c>
       <c r="I81" s="3">
+        <v>1694700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1458400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1635900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1622000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1536200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1472500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1537200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1673700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1478000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1500300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1509600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1466600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4607,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>290200</v>
+        <v>301300</v>
       </c>
       <c r="E83" s="3">
-        <v>279400</v>
+        <v>322800</v>
       </c>
       <c r="F83" s="3">
-        <v>307200</v>
+        <v>299000</v>
       </c>
       <c r="G83" s="3">
-        <v>208600</v>
+        <v>287900</v>
       </c>
       <c r="H83" s="3">
-        <v>212500</v>
+        <v>316400</v>
       </c>
       <c r="I83" s="3">
+        <v>214900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>218900</v>
+      </c>
+      <c r="K83" s="3">
         <v>198600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>190900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>169300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>159600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>153600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>148100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>145100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>142100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>144400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>143700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>140600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4721,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4780,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4839,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4898,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4957,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-31444100</v>
+        <v>5260100</v>
       </c>
       <c r="E89" s="3">
-        <v>54997500</v>
+        <v>7022200</v>
       </c>
       <c r="F89" s="3">
-        <v>13250900</v>
+        <v>-32391700</v>
       </c>
       <c r="G89" s="3">
-        <v>3129300</v>
+        <v>56654900</v>
       </c>
       <c r="H89" s="3">
-        <v>-5417200</v>
+        <v>13650300</v>
       </c>
       <c r="I89" s="3">
+        <v>3223600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-5580500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1967700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-8936800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>13302100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-8250600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1346000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>6458300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-67700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>10880400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4796100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>6374800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-18996000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,49 +5043,51 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-127000</v>
+        <v>-35700</v>
       </c>
       <c r="E91" s="3">
-        <v>-237100</v>
+        <v>-161000</v>
       </c>
       <c r="F91" s="3">
-        <v>-73100</v>
+        <v>-130800</v>
       </c>
       <c r="G91" s="3">
-        <v>-113900</v>
+        <v>-244300</v>
       </c>
       <c r="H91" s="3">
-        <v>50800</v>
+        <v>-75300</v>
       </c>
       <c r="I91" s="3">
+        <v>-117400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>52300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-67000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-13100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-141700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-79800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-68500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-17900</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
@@ -4655,11 +5095,17 @@
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-83000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +5157,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +5216,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>29295500</v>
+        <v>-4764500</v>
       </c>
       <c r="E94" s="3">
-        <v>-54023700</v>
+        <v>-5743100</v>
       </c>
       <c r="F94" s="3">
-        <v>-13160100</v>
+        <v>30178400</v>
       </c>
       <c r="G94" s="3">
-        <v>-780600</v>
+        <v>-55651800</v>
       </c>
       <c r="H94" s="3">
-        <v>5137800</v>
+        <v>-13556700</v>
       </c>
       <c r="I94" s="3">
+        <v>-804100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>5292600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1522700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>8880600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-11479500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>8039800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-811500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-5603900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>498600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-11229400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>4276700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2833200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>16361800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,61 +5302,69 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-856800</v>
+        <v>-899300</v>
       </c>
       <c r="E96" s="3">
-        <v>-889900</v>
+        <v>-930200</v>
       </c>
       <c r="F96" s="3">
-        <v>-859900</v>
+        <v>-882600</v>
       </c>
       <c r="G96" s="3">
+        <v>-916700</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-885800</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-867600</v>
+      </c>
+      <c r="J96" s="3">
         <v>-842200</v>
       </c>
-      <c r="H96" s="3">
-        <v>-817500</v>
-      </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-818300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-801400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-757900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-761100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-739200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-728600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-630300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-699600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-727500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-717500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-709800</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5416,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5475,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,163 +5534,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1873700</v>
+        <v>-1680400</v>
       </c>
       <c r="E100" s="3">
-        <v>-25400</v>
+        <v>-1177600</v>
       </c>
       <c r="F100" s="3">
-        <v>-595100</v>
+        <v>1930200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2026900</v>
+        <v>-26200</v>
       </c>
       <c r="H100" s="3">
-        <v>1081600</v>
+        <v>-613000</v>
       </c>
       <c r="I100" s="3">
+        <v>-2088000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1114200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-665900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>619700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-6303300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>6132200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1036600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-718200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>174100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-746400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>872700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-2534400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>469400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-165500</v>
+        <v>-147500</v>
       </c>
       <c r="E101" s="3">
-        <v>152400</v>
+        <v>-76100</v>
       </c>
       <c r="F101" s="3">
-        <v>-12300</v>
+        <v>-170500</v>
       </c>
       <c r="G101" s="3">
-        <v>-47700</v>
+        <v>157000</v>
       </c>
       <c r="H101" s="3">
-        <v>-118600</v>
+        <v>-12700</v>
       </c>
       <c r="I101" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-122100</v>
+      </c>
+      <c r="K101" s="3">
         <v>113900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>53900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-77800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>13600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>166400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-131000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>114600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-353500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>285800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-148300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>93000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-440300</v>
+        <v>-1332300</v>
       </c>
       <c r="E102" s="3">
-        <v>1100800</v>
+        <v>25400</v>
       </c>
       <c r="F102" s="3">
-        <v>-516500</v>
+        <v>-453600</v>
       </c>
       <c r="G102" s="3">
-        <v>274100</v>
+        <v>1134000</v>
       </c>
       <c r="H102" s="3">
-        <v>683600</v>
+        <v>-532100</v>
       </c>
       <c r="I102" s="3">
+        <v>282300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>704200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-107000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>617400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>726000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>460700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-335700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>5200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>719700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>639200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>858900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-460900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
@@ -665,7 +665,9 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -743,25 +745,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5164100</v>
+        <v>5398800</v>
       </c>
       <c r="E8" s="3">
-        <v>5275200</v>
+        <v>5514800</v>
       </c>
       <c r="F8" s="3">
-        <v>5540000</v>
+        <v>5791700</v>
       </c>
       <c r="G8" s="3">
-        <v>6215700</v>
+        <v>6498100</v>
       </c>
       <c r="H8" s="3">
-        <v>6531300</v>
+        <v>6828100</v>
       </c>
       <c r="I8" s="3">
-        <v>6544000</v>
+        <v>6841300</v>
       </c>
       <c r="J8" s="3">
-        <v>6693100</v>
+        <v>6997200</v>
       </c>
       <c r="K8" s="3">
         <v>6236300</v>
@@ -1120,25 +1122,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-323600</v>
+        <v>-338300</v>
       </c>
       <c r="E15" s="3">
-        <v>-343400</v>
+        <v>-359000</v>
       </c>
       <c r="F15" s="3">
-        <v>-319600</v>
+        <v>-334100</v>
       </c>
       <c r="G15" s="3">
-        <v>-309300</v>
+        <v>-323300</v>
       </c>
       <c r="H15" s="3">
-        <v>-337800</v>
+        <v>-353200</v>
       </c>
       <c r="I15" s="3">
-        <v>-237100</v>
+        <v>-247900</v>
       </c>
       <c r="J15" s="3">
-        <v>-242700</v>
+        <v>-253700</v>
       </c>
       <c r="K15" s="3">
         <v>-220200</v>
@@ -1199,25 +1201,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2191100</v>
+        <v>2290700</v>
       </c>
       <c r="E17" s="3">
-        <v>2495600</v>
+        <v>2609000</v>
       </c>
       <c r="F17" s="3">
-        <v>2732700</v>
+        <v>2856900</v>
       </c>
       <c r="G17" s="3">
-        <v>3405200</v>
+        <v>3559900</v>
       </c>
       <c r="H17" s="3">
-        <v>3782700</v>
+        <v>3954600</v>
       </c>
       <c r="I17" s="3">
-        <v>3702600</v>
+        <v>3870800</v>
       </c>
       <c r="J17" s="3">
-        <v>3789800</v>
+        <v>3962000</v>
       </c>
       <c r="K17" s="3">
         <v>3680500</v>
@@ -1258,25 +1260,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2973000</v>
+        <v>3108100</v>
       </c>
       <c r="E18" s="3">
-        <v>2779500</v>
+        <v>2905800</v>
       </c>
       <c r="F18" s="3">
-        <v>2807300</v>
+        <v>2934800</v>
       </c>
       <c r="G18" s="3">
-        <v>2810500</v>
+        <v>2938200</v>
       </c>
       <c r="H18" s="3">
-        <v>2748600</v>
+        <v>2873500</v>
       </c>
       <c r="I18" s="3">
-        <v>2841400</v>
+        <v>2970500</v>
       </c>
       <c r="J18" s="3">
-        <v>2903200</v>
+        <v>3035200</v>
       </c>
       <c r="K18" s="3">
         <v>2555800</v>
@@ -1340,25 +1342,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-514700</v>
+        <v>-538100</v>
       </c>
       <c r="E20" s="3">
-        <v>-942100</v>
+        <v>-984900</v>
       </c>
       <c r="F20" s="3">
-        <v>-1590000</v>
+        <v>-1662200</v>
       </c>
       <c r="G20" s="3">
-        <v>-1425100</v>
+        <v>-1489800</v>
       </c>
       <c r="H20" s="3">
-        <v>-530500</v>
+        <v>-554600</v>
       </c>
       <c r="I20" s="3">
-        <v>-538500</v>
+        <v>-562900</v>
       </c>
       <c r="J20" s="3">
-        <v>-732800</v>
+        <v>-766000</v>
       </c>
       <c r="K20" s="3">
         <v>-335600</v>
@@ -1399,25 +1401,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2759700</v>
+        <v>2885100</v>
       </c>
       <c r="E21" s="3">
-        <v>2160200</v>
+        <v>2258300</v>
       </c>
       <c r="F21" s="3">
-        <v>1516300</v>
+        <v>1585100</v>
       </c>
       <c r="G21" s="3">
-        <v>1673300</v>
+        <v>1749300</v>
       </c>
       <c r="H21" s="3">
-        <v>2534500</v>
+        <v>2649600</v>
       </c>
       <c r="I21" s="3">
-        <v>2517800</v>
+        <v>2632200</v>
       </c>
       <c r="J21" s="3">
-        <v>2389400</v>
+        <v>2497900</v>
       </c>
       <c r="K21" s="3">
         <v>2418800</v>
@@ -1517,25 +1519,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2458400</v>
+        <v>2570100</v>
       </c>
       <c r="E23" s="3">
-        <v>1837400</v>
+        <v>1920900</v>
       </c>
       <c r="F23" s="3">
-        <v>1217300</v>
+        <v>1272600</v>
       </c>
       <c r="G23" s="3">
-        <v>1385400</v>
+        <v>1448400</v>
       </c>
       <c r="H23" s="3">
-        <v>2218100</v>
+        <v>2318900</v>
       </c>
       <c r="I23" s="3">
-        <v>2302900</v>
+        <v>2407600</v>
       </c>
       <c r="J23" s="3">
-        <v>2170500</v>
+        <v>2269100</v>
       </c>
       <c r="K23" s="3">
         <v>2220200</v>
@@ -1576,25 +1578,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>556700</v>
+        <v>582000</v>
       </c>
       <c r="E24" s="3">
-        <v>331500</v>
+        <v>346500</v>
       </c>
       <c r="F24" s="3">
-        <v>183200</v>
+        <v>191500</v>
       </c>
       <c r="G24" s="3">
-        <v>335400</v>
+        <v>350700</v>
       </c>
       <c r="H24" s="3">
-        <v>373500</v>
+        <v>390500</v>
       </c>
       <c r="I24" s="3">
-        <v>472600</v>
+        <v>494100</v>
       </c>
       <c r="J24" s="3">
-        <v>597100</v>
+        <v>624300</v>
       </c>
       <c r="K24" s="3">
         <v>481100</v>
@@ -1694,25 +1696,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1901700</v>
+        <v>1988100</v>
       </c>
       <c r="E26" s="3">
-        <v>1505900</v>
+        <v>1574400</v>
       </c>
       <c r="F26" s="3">
-        <v>1034100</v>
+        <v>1081100</v>
       </c>
       <c r="G26" s="3">
-        <v>1050000</v>
+        <v>1097700</v>
       </c>
       <c r="H26" s="3">
-        <v>1844600</v>
+        <v>1928400</v>
       </c>
       <c r="I26" s="3">
-        <v>1830300</v>
+        <v>1913400</v>
       </c>
       <c r="J26" s="3">
-        <v>1573400</v>
+        <v>1644800</v>
       </c>
       <c r="K26" s="3">
         <v>1739000</v>
@@ -1753,25 +1755,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1796200</v>
+        <v>1877800</v>
       </c>
       <c r="E27" s="3">
-        <v>1383800</v>
+        <v>1446700</v>
       </c>
       <c r="F27" s="3">
-        <v>1056300</v>
+        <v>1104300</v>
       </c>
       <c r="G27" s="3">
-        <v>985700</v>
+        <v>1030500</v>
       </c>
       <c r="H27" s="3">
-        <v>1793800</v>
+        <v>1875300</v>
       </c>
       <c r="I27" s="3">
-        <v>1694700</v>
+        <v>1771700</v>
       </c>
       <c r="J27" s="3">
-        <v>1458400</v>
+        <v>1524600</v>
       </c>
       <c r="K27" s="3">
         <v>1635900</v>
@@ -2048,25 +2050,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>514700</v>
+        <v>538100</v>
       </c>
       <c r="E32" s="3">
-        <v>942100</v>
+        <v>984900</v>
       </c>
       <c r="F32" s="3">
-        <v>1590000</v>
+        <v>1662200</v>
       </c>
       <c r="G32" s="3">
-        <v>1425100</v>
+        <v>1489800</v>
       </c>
       <c r="H32" s="3">
-        <v>530500</v>
+        <v>554600</v>
       </c>
       <c r="I32" s="3">
-        <v>538500</v>
+        <v>562900</v>
       </c>
       <c r="J32" s="3">
-        <v>732800</v>
+        <v>766000</v>
       </c>
       <c r="K32" s="3">
         <v>335600</v>
@@ -2107,25 +2109,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1796200</v>
+        <v>1877800</v>
       </c>
       <c r="E33" s="3">
-        <v>1383800</v>
+        <v>1446700</v>
       </c>
       <c r="F33" s="3">
-        <v>1056300</v>
+        <v>1104300</v>
       </c>
       <c r="G33" s="3">
-        <v>985700</v>
+        <v>1030500</v>
       </c>
       <c r="H33" s="3">
-        <v>1793800</v>
+        <v>1875300</v>
       </c>
       <c r="I33" s="3">
-        <v>1694700</v>
+        <v>1771700</v>
       </c>
       <c r="J33" s="3">
-        <v>1458400</v>
+        <v>1524600</v>
       </c>
       <c r="K33" s="3">
         <v>1635900</v>
@@ -2225,25 +2227,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1796200</v>
+        <v>1877800</v>
       </c>
       <c r="E35" s="3">
-        <v>1383800</v>
+        <v>1446700</v>
       </c>
       <c r="F35" s="3">
-        <v>1056300</v>
+        <v>1104300</v>
       </c>
       <c r="G35" s="3">
-        <v>985700</v>
+        <v>1030500</v>
       </c>
       <c r="H35" s="3">
-        <v>1793800</v>
+        <v>1875300</v>
       </c>
       <c r="I35" s="3">
-        <v>1694700</v>
+        <v>1771700</v>
       </c>
       <c r="J35" s="3">
-        <v>1458400</v>
+        <v>1524600</v>
       </c>
       <c r="K35" s="3">
         <v>1635900</v>
@@ -2394,25 +2396,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7488500</v>
+        <v>7828700</v>
       </c>
       <c r="E41" s="3">
-        <v>8820800</v>
+        <v>9221500</v>
       </c>
       <c r="F41" s="3">
-        <v>8795400</v>
+        <v>9195000</v>
       </c>
       <c r="G41" s="3">
-        <v>9249000</v>
+        <v>9669200</v>
       </c>
       <c r="H41" s="3">
-        <v>8115000</v>
+        <v>8483700</v>
       </c>
       <c r="I41" s="3">
-        <v>8647100</v>
+        <v>9040000</v>
       </c>
       <c r="J41" s="3">
-        <v>8364800</v>
+        <v>8744800</v>
       </c>
       <c r="K41" s="3">
         <v>7436500</v>
@@ -2453,25 +2455,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>308491100</v>
+        <v>322507100</v>
       </c>
       <c r="E42" s="3">
-        <v>277867100</v>
+        <v>290491700</v>
       </c>
       <c r="F42" s="3">
-        <v>283649000</v>
+        <v>296536300</v>
       </c>
       <c r="G42" s="3">
-        <v>329606900</v>
+        <v>344582200</v>
       </c>
       <c r="H42" s="3">
-        <v>315947900</v>
+        <v>330302600</v>
       </c>
       <c r="I42" s="3">
-        <v>267331800</v>
+        <v>279477700</v>
       </c>
       <c r="J42" s="3">
-        <v>258216800</v>
+        <v>269948600</v>
       </c>
       <c r="K42" s="3">
         <v>245269300</v>
@@ -2748,25 +2750,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1995200</v>
+        <v>2085900</v>
       </c>
       <c r="E47" s="3">
-        <v>1962700</v>
+        <v>2051900</v>
       </c>
       <c r="F47" s="3">
-        <v>1902500</v>
+        <v>1988900</v>
       </c>
       <c r="G47" s="3">
-        <v>1928600</v>
+        <v>2016200</v>
       </c>
       <c r="H47" s="3">
-        <v>1845400</v>
+        <v>1929200</v>
       </c>
       <c r="I47" s="3">
-        <v>4452000</v>
+        <v>4654300</v>
       </c>
       <c r="J47" s="3">
-        <v>4358400</v>
+        <v>4556500</v>
       </c>
       <c r="K47" s="3">
         <v>4082400</v>
@@ -2807,25 +2809,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4544000</v>
+        <v>4750500</v>
       </c>
       <c r="E48" s="3">
-        <v>4676400</v>
+        <v>4888900</v>
       </c>
       <c r="F48" s="3">
-        <v>4777900</v>
+        <v>4995000</v>
       </c>
       <c r="G48" s="3">
-        <v>4856500</v>
+        <v>5077100</v>
       </c>
       <c r="H48" s="3">
-        <v>4839800</v>
+        <v>5059700</v>
       </c>
       <c r="I48" s="3">
-        <v>2116600</v>
+        <v>2212700</v>
       </c>
       <c r="J48" s="3">
-        <v>2088800</v>
+        <v>2183700</v>
       </c>
       <c r="K48" s="3">
         <v>2095500</v>
@@ -2866,25 +2868,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13463100</v>
+        <v>14074800</v>
       </c>
       <c r="E49" s="3">
-        <v>13493200</v>
+        <v>14106300</v>
       </c>
       <c r="F49" s="3">
-        <v>13589200</v>
+        <v>14206600</v>
       </c>
       <c r="G49" s="3">
-        <v>13570200</v>
+        <v>14186700</v>
       </c>
       <c r="H49" s="3">
-        <v>13632800</v>
+        <v>14252200</v>
       </c>
       <c r="I49" s="3">
-        <v>13850100</v>
+        <v>14479400</v>
       </c>
       <c r="J49" s="3">
-        <v>13966700</v>
+        <v>14601200</v>
       </c>
       <c r="K49" s="3">
         <v>13722000</v>
@@ -3043,25 +3045,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1678000</v>
+        <v>1754300</v>
       </c>
       <c r="E52" s="3">
-        <v>1732700</v>
+        <v>1811500</v>
       </c>
       <c r="F52" s="3">
-        <v>1716100</v>
+        <v>1794100</v>
       </c>
       <c r="G52" s="3">
-        <v>1324300</v>
+        <v>1384500</v>
       </c>
       <c r="H52" s="3">
-        <v>1362400</v>
+        <v>1424300</v>
       </c>
       <c r="I52" s="3">
-        <v>1245000</v>
+        <v>1301600</v>
       </c>
       <c r="J52" s="3">
-        <v>1352900</v>
+        <v>1414400</v>
       </c>
       <c r="K52" s="3">
         <v>1592800</v>
@@ -3161,25 +3163,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>923114900</v>
+        <v>965055700</v>
       </c>
       <c r="E54" s="3">
-        <v>901240300</v>
+        <v>942187100</v>
       </c>
       <c r="F54" s="3">
-        <v>927731900</v>
+        <v>969882400</v>
       </c>
       <c r="G54" s="3">
-        <v>988953800</v>
+        <v>1033885900</v>
       </c>
       <c r="H54" s="3">
-        <v>915162500</v>
+        <v>956741900</v>
       </c>
       <c r="I54" s="3">
-        <v>861347400</v>
+        <v>900481800</v>
       </c>
       <c r="J54" s="3">
-        <v>845946200</v>
+        <v>884380800</v>
       </c>
       <c r="K54" s="3">
         <v>814599700</v>
@@ -3502,25 +3504,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5233900</v>
+        <v>5471700</v>
       </c>
       <c r="E61" s="3">
-        <v>5872300</v>
+        <v>6139100</v>
       </c>
       <c r="F61" s="3">
-        <v>5817600</v>
+        <v>6081900</v>
       </c>
       <c r="G61" s="3">
-        <v>5935000</v>
+        <v>6204600</v>
       </c>
       <c r="H61" s="3">
-        <v>5785100</v>
+        <v>6047900</v>
       </c>
       <c r="I61" s="3">
-        <v>5751000</v>
+        <v>6012300</v>
       </c>
       <c r="J61" s="3">
-        <v>7153800</v>
+        <v>7478900</v>
       </c>
       <c r="K61" s="3">
         <v>5815200</v>
@@ -3797,25 +3799,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>868638400</v>
+        <v>908104100</v>
       </c>
       <c r="E66" s="3">
-        <v>847214200</v>
+        <v>885706400</v>
       </c>
       <c r="F66" s="3">
-        <v>873655100</v>
+        <v>913348600</v>
       </c>
       <c r="G66" s="3">
-        <v>935121300</v>
+        <v>977607500</v>
       </c>
       <c r="H66" s="3">
-        <v>861737600</v>
+        <v>900889700</v>
       </c>
       <c r="I66" s="3">
-        <v>807801100</v>
+        <v>844502700</v>
       </c>
       <c r="J66" s="3">
-        <v>792482300</v>
+        <v>828487900</v>
       </c>
       <c r="K66" s="3">
         <v>762671500</v>
@@ -3997,25 +3999,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4209400</v>
+        <v>4400600</v>
       </c>
       <c r="E70" s="3">
-        <v>4209400</v>
+        <v>4400600</v>
       </c>
       <c r="F70" s="3">
-        <v>4209400</v>
+        <v>4400600</v>
       </c>
       <c r="G70" s="3">
-        <v>2869900</v>
+        <v>3000300</v>
       </c>
       <c r="H70" s="3">
-        <v>3080100</v>
+        <v>3220000</v>
       </c>
       <c r="I70" s="3">
-        <v>3080100</v>
+        <v>3220000</v>
       </c>
       <c r="J70" s="3">
-        <v>3080100</v>
+        <v>3220000</v>
       </c>
       <c r="K70" s="3">
         <v>2990000</v>
@@ -4115,25 +4117,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>37965800</v>
+        <v>39690800</v>
       </c>
       <c r="E72" s="3">
-        <v>37038000</v>
+        <v>38720800</v>
       </c>
       <c r="F72" s="3">
-        <v>36517800</v>
+        <v>38176900</v>
       </c>
       <c r="G72" s="3">
-        <v>36332200</v>
+        <v>37982900</v>
       </c>
       <c r="H72" s="3">
-        <v>36304500</v>
+        <v>37953900</v>
       </c>
       <c r="I72" s="3">
-        <v>35530500</v>
+        <v>37144800</v>
       </c>
       <c r="J72" s="3">
-        <v>34934100</v>
+        <v>36521300</v>
       </c>
       <c r="K72" s="3">
         <v>33449400</v>
@@ -4351,25 +4353,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50267200</v>
+        <v>52551000</v>
       </c>
       <c r="E76" s="3">
-        <v>49816700</v>
+        <v>52080100</v>
       </c>
       <c r="F76" s="3">
-        <v>49867500</v>
+        <v>52133200</v>
       </c>
       <c r="G76" s="3">
-        <v>50962600</v>
+        <v>53278100</v>
       </c>
       <c r="H76" s="3">
-        <v>50344900</v>
+        <v>52632200</v>
       </c>
       <c r="I76" s="3">
-        <v>50466200</v>
+        <v>52759100</v>
       </c>
       <c r="J76" s="3">
-        <v>50383700</v>
+        <v>52672900</v>
       </c>
       <c r="K76" s="3">
         <v>48938200</v>
@@ -4533,25 +4535,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1796200</v>
+        <v>1877800</v>
       </c>
       <c r="E81" s="3">
-        <v>1383800</v>
+        <v>1446700</v>
       </c>
       <c r="F81" s="3">
-        <v>1056300</v>
+        <v>1104300</v>
       </c>
       <c r="G81" s="3">
-        <v>985700</v>
+        <v>1030500</v>
       </c>
       <c r="H81" s="3">
-        <v>1793800</v>
+        <v>1875300</v>
       </c>
       <c r="I81" s="3">
-        <v>1694700</v>
+        <v>1771700</v>
       </c>
       <c r="J81" s="3">
-        <v>1458400</v>
+        <v>1524600</v>
       </c>
       <c r="K81" s="3">
         <v>1635900</v>
@@ -4615,25 +4617,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>301300</v>
+        <v>315000</v>
       </c>
       <c r="E83" s="3">
-        <v>322800</v>
+        <v>337400</v>
       </c>
       <c r="F83" s="3">
-        <v>299000</v>
+        <v>312600</v>
       </c>
       <c r="G83" s="3">
-        <v>287900</v>
+        <v>300900</v>
       </c>
       <c r="H83" s="3">
-        <v>316400</v>
+        <v>330800</v>
       </c>
       <c r="I83" s="3">
-        <v>214900</v>
+        <v>224700</v>
       </c>
       <c r="J83" s="3">
-        <v>218900</v>
+        <v>228800</v>
       </c>
       <c r="K83" s="3">
         <v>198600</v>
@@ -4969,25 +4971,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5260100</v>
+        <v>5499100</v>
       </c>
       <c r="E89" s="3">
-        <v>7022200</v>
+        <v>7341200</v>
       </c>
       <c r="F89" s="3">
-        <v>-32391700</v>
+        <v>-33863400</v>
       </c>
       <c r="G89" s="3">
-        <v>56654900</v>
+        <v>59229000</v>
       </c>
       <c r="H89" s="3">
-        <v>13650300</v>
+        <v>14270400</v>
       </c>
       <c r="I89" s="3">
-        <v>3223600</v>
+        <v>3370100</v>
       </c>
       <c r="J89" s="3">
-        <v>-5580500</v>
+        <v>-5834000</v>
       </c>
       <c r="K89" s="3">
         <v>1967700</v>
@@ -5051,25 +5053,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-35700</v>
+        <v>-37300</v>
       </c>
       <c r="E91" s="3">
-        <v>-161000</v>
+        <v>-168300</v>
       </c>
       <c r="F91" s="3">
-        <v>-130800</v>
+        <v>-136800</v>
       </c>
       <c r="G91" s="3">
-        <v>-244300</v>
+        <v>-255300</v>
       </c>
       <c r="H91" s="3">
-        <v>-75300</v>
+        <v>-78800</v>
       </c>
       <c r="I91" s="3">
-        <v>-117400</v>
+        <v>-122700</v>
       </c>
       <c r="J91" s="3">
-        <v>52300</v>
+        <v>54700</v>
       </c>
       <c r="K91" s="3">
         <v>-67000</v>
@@ -5228,25 +5230,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4764500</v>
+        <v>-4980900</v>
       </c>
       <c r="E94" s="3">
-        <v>-5743100</v>
+        <v>-6004000</v>
       </c>
       <c r="F94" s="3">
-        <v>30178400</v>
+        <v>31549500</v>
       </c>
       <c r="G94" s="3">
-        <v>-55651800</v>
+        <v>-58180200</v>
       </c>
       <c r="H94" s="3">
-        <v>-13556700</v>
+        <v>-14172600</v>
       </c>
       <c r="I94" s="3">
-        <v>-804100</v>
+        <v>-840700</v>
       </c>
       <c r="J94" s="3">
-        <v>5292600</v>
+        <v>5533100</v>
       </c>
       <c r="K94" s="3">
         <v>-1522700</v>
@@ -5310,25 +5312,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-899300</v>
+        <v>-940100</v>
       </c>
       <c r="E96" s="3">
-        <v>-930200</v>
+        <v>-972500</v>
       </c>
       <c r="F96" s="3">
-        <v>-882600</v>
+        <v>-922700</v>
       </c>
       <c r="G96" s="3">
-        <v>-916700</v>
+        <v>-958400</v>
       </c>
       <c r="H96" s="3">
-        <v>-885800</v>
+        <v>-926000</v>
       </c>
       <c r="I96" s="3">
-        <v>-867600</v>
+        <v>-907000</v>
       </c>
       <c r="J96" s="3">
-        <v>-842200</v>
+        <v>-880500</v>
       </c>
       <c r="K96" s="3">
         <v>-818300</v>
@@ -5546,25 +5548,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1680400</v>
+        <v>-1756800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1177600</v>
+        <v>-1231100</v>
       </c>
       <c r="F100" s="3">
-        <v>1930200</v>
+        <v>2017900</v>
       </c>
       <c r="G100" s="3">
-        <v>-26200</v>
+        <v>-27400</v>
       </c>
       <c r="H100" s="3">
-        <v>-613000</v>
+        <v>-640900</v>
       </c>
       <c r="I100" s="3">
-        <v>-2088000</v>
+        <v>-2182900</v>
       </c>
       <c r="J100" s="3">
-        <v>1114200</v>
+        <v>1164800</v>
       </c>
       <c r="K100" s="3">
         <v>-665900</v>
@@ -5605,25 +5607,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-147500</v>
+        <v>-154200</v>
       </c>
       <c r="E101" s="3">
-        <v>-76100</v>
+        <v>-79600</v>
       </c>
       <c r="F101" s="3">
-        <v>-170500</v>
+        <v>-178200</v>
       </c>
       <c r="G101" s="3">
-        <v>157000</v>
+        <v>164200</v>
       </c>
       <c r="H101" s="3">
-        <v>-12700</v>
+        <v>-13300</v>
       </c>
       <c r="I101" s="3">
-        <v>-49200</v>
+        <v>-51400</v>
       </c>
       <c r="J101" s="3">
-        <v>-122100</v>
+        <v>-127700</v>
       </c>
       <c r="K101" s="3">
         <v>113900</v>
@@ -5664,25 +5666,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1332300</v>
+        <v>-1392800</v>
       </c>
       <c r="E102" s="3">
-        <v>25400</v>
+        <v>26500</v>
       </c>
       <c r="F102" s="3">
-        <v>-453600</v>
+        <v>-474200</v>
       </c>
       <c r="G102" s="3">
-        <v>1134000</v>
+        <v>1185500</v>
       </c>
       <c r="H102" s="3">
-        <v>-532100</v>
+        <v>-556300</v>
       </c>
       <c r="I102" s="3">
-        <v>282300</v>
+        <v>295100</v>
       </c>
       <c r="J102" s="3">
-        <v>704200</v>
+        <v>736200</v>
       </c>
       <c r="K102" s="3">
         <v>-107000</v>

--- a/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>BNS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,145 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5398800</v>
+        <v>4823800</v>
       </c>
       <c r="E8" s="3">
-        <v>5514800</v>
+        <v>5077200</v>
       </c>
       <c r="F8" s="3">
-        <v>5791700</v>
+        <v>5186400</v>
       </c>
       <c r="G8" s="3">
-        <v>6498100</v>
+        <v>5446800</v>
       </c>
       <c r="H8" s="3">
-        <v>6828100</v>
+        <v>6111100</v>
       </c>
       <c r="I8" s="3">
-        <v>6841300</v>
+        <v>6421400</v>
       </c>
       <c r="J8" s="3">
+        <v>6433800</v>
+      </c>
+      <c r="K8" s="3">
         <v>6997200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6236300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6151600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5610000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5368100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5070000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4823200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4649100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4553100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4481900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4400400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4378100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -857,8 +861,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -939,8 +949,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -998,8 +1009,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1057,8 +1071,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,67 +1133,73 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-338300</v>
+        <v>-312600</v>
       </c>
       <c r="E15" s="3">
-        <v>-359000</v>
+        <v>-318100</v>
       </c>
       <c r="F15" s="3">
-        <v>-334100</v>
+        <v>-337600</v>
       </c>
       <c r="G15" s="3">
-        <v>-323300</v>
+        <v>-314200</v>
       </c>
       <c r="H15" s="3">
-        <v>-353200</v>
+        <v>-304100</v>
       </c>
       <c r="I15" s="3">
-        <v>-247900</v>
+        <v>-332100</v>
       </c>
       <c r="J15" s="3">
+        <v>-233100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-253700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-220200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-214000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-188900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-176900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-167100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-148100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-145100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-142100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-144400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-143700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-140600</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1195,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2290700</v>
+        <v>1954600</v>
       </c>
       <c r="E17" s="3">
-        <v>2609000</v>
+        <v>2280500</v>
       </c>
       <c r="F17" s="3">
-        <v>2856900</v>
+        <v>2453600</v>
       </c>
       <c r="G17" s="3">
-        <v>3559900</v>
+        <v>2686700</v>
       </c>
       <c r="H17" s="3">
-        <v>3954600</v>
+        <v>3347900</v>
       </c>
       <c r="I17" s="3">
-        <v>3870800</v>
+        <v>3719000</v>
       </c>
       <c r="J17" s="3">
+        <v>3640300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3962000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3680500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3391100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2972200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3002900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2498500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2298900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2196900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2127000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2068800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2026600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1994300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3108100</v>
+        <v>2869200</v>
       </c>
       <c r="E18" s="3">
-        <v>2905800</v>
+        <v>2796700</v>
       </c>
       <c r="F18" s="3">
-        <v>2934800</v>
+        <v>2732700</v>
       </c>
       <c r="G18" s="3">
-        <v>2938200</v>
+        <v>2760000</v>
       </c>
       <c r="H18" s="3">
-        <v>2873500</v>
+        <v>2763200</v>
       </c>
       <c r="I18" s="3">
-        <v>2970500</v>
+        <v>2702300</v>
       </c>
       <c r="J18" s="3">
+        <v>2793600</v>
+      </c>
+      <c r="K18" s="3">
         <v>3035200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2555800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2760600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2637900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2365300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2571500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2524400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2452200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2426100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2413000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2373800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2383800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1336,126 +1366,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-538100</v>
+        <v>-375800</v>
       </c>
       <c r="E20" s="3">
-        <v>-984900</v>
+        <v>-379700</v>
       </c>
       <c r="F20" s="3">
-        <v>-1662200</v>
+        <v>-926200</v>
       </c>
       <c r="G20" s="3">
-        <v>-1489800</v>
+        <v>-1563200</v>
       </c>
       <c r="H20" s="3">
-        <v>-554600</v>
+        <v>-1401100</v>
       </c>
       <c r="I20" s="3">
-        <v>-562900</v>
+        <v>-521600</v>
       </c>
       <c r="J20" s="3">
+        <v>-529400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-766000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-335600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-647400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-607500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-507400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-465200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-257500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-511300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-454700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-574600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-356500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-424100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2885100</v>
+        <v>2785800</v>
       </c>
       <c r="E21" s="3">
-        <v>2258300</v>
+        <v>2713300</v>
       </c>
       <c r="F21" s="3">
-        <v>1585100</v>
+        <v>2123800</v>
       </c>
       <c r="G21" s="3">
-        <v>1749300</v>
+        <v>1490700</v>
       </c>
       <c r="H21" s="3">
-        <v>2649600</v>
+        <v>1645100</v>
       </c>
       <c r="I21" s="3">
-        <v>2632200</v>
+        <v>2491800</v>
       </c>
       <c r="J21" s="3">
+        <v>2475500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2497900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2418800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2304100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2199700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2017500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2259900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2415000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2086000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2113600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1982800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2161000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2100300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,126 +1550,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2570100</v>
+        <v>2493400</v>
       </c>
       <c r="E23" s="3">
-        <v>1920900</v>
+        <v>2417000</v>
       </c>
       <c r="F23" s="3">
-        <v>1272600</v>
+        <v>1806500</v>
       </c>
       <c r="G23" s="3">
-        <v>1448400</v>
+        <v>1196800</v>
       </c>
       <c r="H23" s="3">
-        <v>2318900</v>
+        <v>1362100</v>
       </c>
       <c r="I23" s="3">
-        <v>2407600</v>
+        <v>2180700</v>
       </c>
       <c r="J23" s="3">
+        <v>2264200</v>
+      </c>
+      <c r="K23" s="3">
         <v>2269100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2220200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2113200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2030400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1857900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2106300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2266900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1940900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1971400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1838400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2017400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1959800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>582000</v>
+        <v>578500</v>
       </c>
       <c r="E24" s="3">
-        <v>346500</v>
+        <v>547300</v>
       </c>
       <c r="F24" s="3">
-        <v>191500</v>
+        <v>325900</v>
       </c>
       <c r="G24" s="3">
-        <v>350700</v>
+        <v>180100</v>
       </c>
       <c r="H24" s="3">
-        <v>390500</v>
+        <v>329800</v>
       </c>
       <c r="I24" s="3">
-        <v>494100</v>
+        <v>367200</v>
       </c>
       <c r="J24" s="3">
+        <v>464700</v>
+      </c>
+      <c r="K24" s="3">
         <v>624300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>481100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>383400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>380100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>398200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>467500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>527600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>406300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>255100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>474000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>414800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1690,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1988100</v>
+        <v>1914900</v>
       </c>
       <c r="E26" s="3">
-        <v>1574400</v>
+        <v>1869600</v>
       </c>
       <c r="F26" s="3">
-        <v>1081100</v>
+        <v>1480600</v>
       </c>
       <c r="G26" s="3">
-        <v>1097700</v>
+        <v>1016700</v>
       </c>
       <c r="H26" s="3">
-        <v>1928400</v>
+        <v>1032300</v>
       </c>
       <c r="I26" s="3">
-        <v>1913400</v>
+        <v>1813500</v>
       </c>
       <c r="J26" s="3">
+        <v>1799500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1644800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1739000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1729800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1650300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1459700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1638800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1739200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1540500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1565100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1583300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1543400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1544900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1877800</v>
+        <v>1784700</v>
       </c>
       <c r="E27" s="3">
-        <v>1446700</v>
+        <v>1766000</v>
       </c>
       <c r="F27" s="3">
-        <v>1104300</v>
+        <v>1360500</v>
       </c>
       <c r="G27" s="3">
-        <v>1030500</v>
+        <v>1038500</v>
       </c>
       <c r="H27" s="3">
-        <v>1875300</v>
+        <v>969100</v>
       </c>
       <c r="I27" s="3">
-        <v>1771700</v>
+        <v>1763600</v>
       </c>
       <c r="J27" s="3">
+        <v>1666200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1524600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1635900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1622000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1536200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1472500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1537200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1673700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1478000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1500300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1509600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1466600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1867,8 +1922,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1926,8 +1984,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1985,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2044,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>538100</v>
+        <v>375800</v>
       </c>
       <c r="E32" s="3">
-        <v>984900</v>
+        <v>379700</v>
       </c>
       <c r="F32" s="3">
-        <v>1662200</v>
+        <v>926200</v>
       </c>
       <c r="G32" s="3">
-        <v>1489800</v>
+        <v>1563200</v>
       </c>
       <c r="H32" s="3">
-        <v>554600</v>
+        <v>1401100</v>
       </c>
       <c r="I32" s="3">
-        <v>562900</v>
+        <v>521600</v>
       </c>
       <c r="J32" s="3">
+        <v>529400</v>
+      </c>
+      <c r="K32" s="3">
         <v>766000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>335600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>647400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>607500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>507400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>465200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>257500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>511300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>454700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>574600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>356500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1877800</v>
+        <v>1784700</v>
       </c>
       <c r="E33" s="3">
-        <v>1446700</v>
+        <v>1766000</v>
       </c>
       <c r="F33" s="3">
-        <v>1104300</v>
+        <v>1360500</v>
       </c>
       <c r="G33" s="3">
-        <v>1030500</v>
+        <v>1038500</v>
       </c>
       <c r="H33" s="3">
-        <v>1875300</v>
+        <v>969100</v>
       </c>
       <c r="I33" s="3">
-        <v>1771700</v>
+        <v>1763600</v>
       </c>
       <c r="J33" s="3">
+        <v>1666200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1524600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1635900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1622000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1536200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1472500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1537200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1673700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1478000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1500300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1509600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1466600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2221,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1877800</v>
+        <v>1784700</v>
       </c>
       <c r="E35" s="3">
-        <v>1446700</v>
+        <v>1766000</v>
       </c>
       <c r="F35" s="3">
-        <v>1104300</v>
+        <v>1360500</v>
       </c>
       <c r="G35" s="3">
-        <v>1030500</v>
+        <v>1038500</v>
       </c>
       <c r="H35" s="3">
-        <v>1875300</v>
+        <v>969100</v>
       </c>
       <c r="I35" s="3">
-        <v>1771700</v>
+        <v>1763600</v>
       </c>
       <c r="J35" s="3">
+        <v>1666200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1524600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1635900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1622000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1536200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1472500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1537200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1673700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1478000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1500300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1509600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1466600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2367,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2390,126 +2473,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7828700</v>
+        <v>6190600</v>
       </c>
       <c r="E41" s="3">
-        <v>9221500</v>
+        <v>7362400</v>
       </c>
       <c r="F41" s="3">
-        <v>9195000</v>
+        <v>8672300</v>
       </c>
       <c r="G41" s="3">
-        <v>9669200</v>
+        <v>8647300</v>
       </c>
       <c r="H41" s="3">
-        <v>8483700</v>
+        <v>9093300</v>
       </c>
       <c r="I41" s="3">
-        <v>9040000</v>
+        <v>7978400</v>
       </c>
       <c r="J41" s="3">
+        <v>8501500</v>
+      </c>
+      <c r="K41" s="3">
         <v>8744800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7436500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7543500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6538000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6020800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5560100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5828700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5823400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5103800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6764300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6125100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5266200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>322507100</v>
+        <v>281906800</v>
       </c>
       <c r="E42" s="3">
-        <v>290491700</v>
+        <v>303297900</v>
       </c>
       <c r="F42" s="3">
-        <v>296536300</v>
+        <v>273189400</v>
       </c>
       <c r="G42" s="3">
-        <v>344582200</v>
+        <v>278873900</v>
       </c>
       <c r="H42" s="3">
-        <v>330302600</v>
+        <v>324058100</v>
       </c>
       <c r="I42" s="3">
-        <v>279477700</v>
+        <v>310629100</v>
       </c>
       <c r="J42" s="3">
+        <v>262831400</v>
+      </c>
+      <c r="K42" s="3">
         <v>269948600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>245269300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>241611900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>216781100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>195829300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>207922900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>208904200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>209121500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>207952400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>225427900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>214720300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>216684600</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2567,8 +2657,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2626,8 +2719,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2685,8 +2781,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2744,185 +2843,197 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2085900</v>
+        <v>1933600</v>
       </c>
       <c r="E47" s="3">
-        <v>2051900</v>
+        <v>1961600</v>
       </c>
       <c r="F47" s="3">
-        <v>1988900</v>
+        <v>1929700</v>
       </c>
       <c r="G47" s="3">
-        <v>2016200</v>
+        <v>1870400</v>
       </c>
       <c r="H47" s="3">
-        <v>1929200</v>
+        <v>1896200</v>
       </c>
       <c r="I47" s="3">
-        <v>4654300</v>
+        <v>1814300</v>
       </c>
       <c r="J47" s="3">
+        <v>4377100</v>
+      </c>
+      <c r="K47" s="3">
         <v>4556500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4082400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3990700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3524400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3540400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3617900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3362300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3412900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3261100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3474700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3274200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3302600</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4750500</v>
+        <v>4333400</v>
       </c>
       <c r="E48" s="3">
-        <v>4888900</v>
+        <v>4467500</v>
       </c>
       <c r="F48" s="3">
-        <v>4995000</v>
+        <v>4597700</v>
       </c>
       <c r="G48" s="3">
-        <v>5077100</v>
+        <v>4697500</v>
       </c>
       <c r="H48" s="3">
-        <v>5059700</v>
+        <v>4774700</v>
       </c>
       <c r="I48" s="3">
-        <v>2212700</v>
+        <v>4758300</v>
       </c>
       <c r="J48" s="3">
+        <v>2080900</v>
+      </c>
+      <c r="K48" s="3">
         <v>2183700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2095500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2063100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1950400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1955000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1799200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1722100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1772000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1658100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1809200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1747700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1935900</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14074800</v>
+        <v>13099200</v>
       </c>
       <c r="E49" s="3">
-        <v>14106300</v>
+        <v>13236500</v>
       </c>
       <c r="F49" s="3">
-        <v>14206600</v>
+        <v>13266100</v>
       </c>
       <c r="G49" s="3">
-        <v>14186700</v>
+        <v>13360400</v>
       </c>
       <c r="H49" s="3">
-        <v>14252200</v>
+        <v>13341700</v>
       </c>
       <c r="I49" s="3">
-        <v>14479400</v>
+        <v>13403300</v>
       </c>
       <c r="J49" s="3">
+        <v>13616900</v>
+      </c>
+      <c r="K49" s="3">
         <v>14601200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13722000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13752100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12876200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11209000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9239000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8967000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9009400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8879200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9437700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9261800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>9327100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2980,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3039,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1754300</v>
+        <v>1599900</v>
       </c>
       <c r="E52" s="3">
-        <v>1811500</v>
+        <v>1649800</v>
       </c>
       <c r="F52" s="3">
-        <v>1794100</v>
+        <v>1703600</v>
       </c>
       <c r="G52" s="3">
-        <v>1384500</v>
+        <v>1687200</v>
       </c>
       <c r="H52" s="3">
-        <v>1424300</v>
+        <v>1302000</v>
       </c>
       <c r="I52" s="3">
-        <v>1301600</v>
+        <v>1339500</v>
       </c>
       <c r="J52" s="3">
+        <v>1224100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1414400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1592800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1575800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1408300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1473200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1345200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1293400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1274800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1286000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1485000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1379000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1552600</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3157,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>965055700</v>
+        <v>877322100</v>
       </c>
       <c r="E54" s="3">
-        <v>942187100</v>
+        <v>907574900</v>
       </c>
       <c r="F54" s="3">
-        <v>969882400</v>
+        <v>886068400</v>
       </c>
       <c r="G54" s="3">
-        <v>1033885900</v>
+        <v>912114100</v>
       </c>
       <c r="H54" s="3">
-        <v>956741900</v>
+        <v>972305400</v>
       </c>
       <c r="I54" s="3">
-        <v>900481800</v>
+        <v>899756300</v>
       </c>
       <c r="J54" s="3">
+        <v>846847100</v>
+      </c>
+      <c r="K54" s="3">
         <v>884380800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>814599700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>796211700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>725594900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>712668600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>697316900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>687018900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>681155300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>674501300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>708036100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>681413900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>688538400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3239,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3262,8 +3389,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3321,8 +3449,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3380,8 +3511,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3439,8 +3573,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3498,67 +3635,73 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5471700</v>
+        <v>5020300</v>
       </c>
       <c r="E61" s="3">
-        <v>6139100</v>
+        <v>5145800</v>
       </c>
       <c r="F61" s="3">
-        <v>6081900</v>
+        <v>5773500</v>
       </c>
       <c r="G61" s="3">
-        <v>6204600</v>
+        <v>5719700</v>
       </c>
       <c r="H61" s="3">
-        <v>6047900</v>
+        <v>5835100</v>
       </c>
       <c r="I61" s="3">
-        <v>6012300</v>
+        <v>5687700</v>
       </c>
       <c r="J61" s="3">
+        <v>5654200</v>
+      </c>
+      <c r="K61" s="3">
         <v>7478900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5815200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5767500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4140700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4281100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4266100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4242700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4416900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5489300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5854700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5767100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5863900</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3616,8 +3759,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3675,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3734,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3793,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>908104100</v>
+        <v>824298300</v>
       </c>
       <c r="E66" s="3">
-        <v>885706400</v>
+        <v>854015400</v>
       </c>
       <c r="F66" s="3">
-        <v>913348600</v>
+        <v>832951900</v>
       </c>
       <c r="G66" s="3">
-        <v>977607500</v>
+        <v>858947600</v>
       </c>
       <c r="H66" s="3">
-        <v>900889700</v>
+        <v>919379100</v>
       </c>
       <c r="I66" s="3">
-        <v>844502700</v>
+        <v>847230700</v>
       </c>
       <c r="J66" s="3">
+        <v>794202300</v>
+      </c>
+      <c r="K66" s="3">
         <v>828487900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>762671500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>745088800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>678194300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>663747700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>651024100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>642619400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>636478200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>632539800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>663375800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>638197100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>645324700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3875,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3934,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3993,67 +4155,73 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4400600</v>
+        <v>3546700</v>
       </c>
       <c r="E70" s="3">
-        <v>4400600</v>
+        <v>4138500</v>
       </c>
       <c r="F70" s="3">
-        <v>4400600</v>
+        <v>4138500</v>
       </c>
       <c r="G70" s="3">
-        <v>3000300</v>
+        <v>4138500</v>
       </c>
       <c r="H70" s="3">
+        <v>2821600</v>
+      </c>
+      <c r="I70" s="3">
+        <v>3028200</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3028200</v>
+      </c>
+      <c r="K70" s="3">
         <v>3220000</v>
-      </c>
-      <c r="I70" s="3">
-        <v>3220000</v>
-      </c>
-      <c r="J70" s="3">
-        <v>3220000</v>
-      </c>
-      <c r="K70" s="3">
-        <v>2990000</v>
       </c>
       <c r="L70" s="3">
         <v>2990000</v>
       </c>
       <c r="M70" s="3">
+        <v>2990000</v>
+      </c>
+      <c r="N70" s="3">
         <v>3040500</v>
-      </c>
-      <c r="N70" s="3">
-        <v>3187300</v>
       </c>
       <c r="O70" s="3">
         <v>3187300</v>
       </c>
       <c r="P70" s="3">
-        <v>3407700</v>
+        <v>3187300</v>
       </c>
       <c r="Q70" s="3">
         <v>3407700</v>
       </c>
       <c r="R70" s="3">
+        <v>3407700</v>
+      </c>
+      <c r="S70" s="3">
         <v>2246800</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>2319300</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>2496000</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>2761000</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4111,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>39690800</v>
+        <v>38251400</v>
       </c>
       <c r="E72" s="3">
-        <v>38720800</v>
+        <v>37326700</v>
       </c>
       <c r="F72" s="3">
-        <v>38176900</v>
+        <v>36414500</v>
       </c>
       <c r="G72" s="3">
-        <v>37982900</v>
+        <v>35903000</v>
       </c>
       <c r="H72" s="3">
-        <v>37953900</v>
+        <v>35720600</v>
       </c>
       <c r="I72" s="3">
-        <v>37144800</v>
+        <v>35693300</v>
       </c>
       <c r="J72" s="3">
+        <v>34932300</v>
+      </c>
+      <c r="K72" s="3">
         <v>36521300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33449400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>32826700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>30388700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>30724400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>30016700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>28815800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>28453400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>27695800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>27932800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>27496500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>26814300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4229,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4288,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4347,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>52551000</v>
+        <v>49477100</v>
       </c>
       <c r="E76" s="3">
-        <v>52080100</v>
+        <v>49420900</v>
       </c>
       <c r="F76" s="3">
-        <v>52133200</v>
+        <v>48978100</v>
       </c>
       <c r="G76" s="3">
-        <v>53278100</v>
+        <v>49028000</v>
       </c>
       <c r="H76" s="3">
-        <v>52632200</v>
+        <v>50104700</v>
       </c>
       <c r="I76" s="3">
-        <v>52759100</v>
+        <v>49497300</v>
       </c>
       <c r="J76" s="3">
+        <v>49616600</v>
+      </c>
+      <c r="K76" s="3">
         <v>52672900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48938200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48133000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>44360100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>45733500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>43105500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>40991800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>41269400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>39714800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>42341000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>40720800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>40452700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4465,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1877800</v>
+        <v>1784700</v>
       </c>
       <c r="E81" s="3">
-        <v>1446700</v>
+        <v>1766000</v>
       </c>
       <c r="F81" s="3">
-        <v>1104300</v>
+        <v>1360500</v>
       </c>
       <c r="G81" s="3">
-        <v>1030500</v>
+        <v>1038500</v>
       </c>
       <c r="H81" s="3">
-        <v>1875300</v>
+        <v>969100</v>
       </c>
       <c r="I81" s="3">
-        <v>1771700</v>
+        <v>1763600</v>
       </c>
       <c r="J81" s="3">
+        <v>1666200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1524600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1635900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1622000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1536200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1472500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1537200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1673700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1478000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1500300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1509600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1466600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4611,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>315000</v>
+        <v>292400</v>
       </c>
       <c r="E83" s="3">
-        <v>337400</v>
+        <v>296300</v>
       </c>
       <c r="F83" s="3">
-        <v>312600</v>
+        <v>317300</v>
       </c>
       <c r="G83" s="3">
-        <v>300900</v>
+        <v>293900</v>
       </c>
       <c r="H83" s="3">
-        <v>330800</v>
+        <v>283000</v>
       </c>
       <c r="I83" s="3">
-        <v>224700</v>
+        <v>311100</v>
       </c>
       <c r="J83" s="3">
+        <v>211300</v>
+      </c>
+      <c r="K83" s="3">
         <v>228800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>198600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>190900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>169300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>159600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>153600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>148100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>145100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>142100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>144400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>143700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>140600</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4729,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4788,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4847,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4906,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4965,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5499100</v>
+        <v>-35477300</v>
       </c>
       <c r="E89" s="3">
-        <v>7341200</v>
+        <v>5171600</v>
       </c>
       <c r="F89" s="3">
-        <v>-33863400</v>
+        <v>6904000</v>
       </c>
       <c r="G89" s="3">
-        <v>59229000</v>
+        <v>-31846400</v>
       </c>
       <c r="H89" s="3">
-        <v>14270400</v>
+        <v>55701200</v>
       </c>
       <c r="I89" s="3">
-        <v>3370100</v>
+        <v>13420500</v>
       </c>
       <c r="J89" s="3">
+        <v>3169400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-5834000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1967700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8936800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13302100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8250600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1346000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6458300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-67700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10880400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4796100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6374800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-18996000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5047,53 +5264,54 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-37300</v>
+        <v>-106800</v>
       </c>
       <c r="E91" s="3">
-        <v>-168300</v>
+        <v>-35100</v>
       </c>
       <c r="F91" s="3">
-        <v>-136800</v>
+        <v>-158300</v>
       </c>
       <c r="G91" s="3">
-        <v>-255300</v>
+        <v>-128600</v>
       </c>
       <c r="H91" s="3">
-        <v>-78800</v>
+        <v>-240100</v>
       </c>
       <c r="I91" s="3">
-        <v>-122700</v>
+        <v>-74100</v>
       </c>
       <c r="J91" s="3">
+        <v>-115400</v>
+      </c>
+      <c r="K91" s="3">
         <v>54700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-67000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-141700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-79800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-68500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
@@ -5103,11 +5321,14 @@
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-83000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5165,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5224,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4980900</v>
+        <v>35703400</v>
       </c>
       <c r="E94" s="3">
-        <v>-6004000</v>
+        <v>-4684300</v>
       </c>
       <c r="F94" s="3">
-        <v>31549500</v>
+        <v>-5646400</v>
       </c>
       <c r="G94" s="3">
-        <v>-58180200</v>
+        <v>29670300</v>
       </c>
       <c r="H94" s="3">
-        <v>-14172600</v>
+        <v>-54714900</v>
       </c>
       <c r="I94" s="3">
-        <v>-840700</v>
+        <v>-13328500</v>
       </c>
       <c r="J94" s="3">
+        <v>-790600</v>
+      </c>
+      <c r="K94" s="3">
         <v>5533100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1522700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>8880600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11479500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>8039800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-811500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5603900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>498600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11229400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>4276700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2833200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>16361800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5306,67 +5536,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-940100</v>
+        <v>-911400</v>
       </c>
       <c r="E96" s="3">
-        <v>-972500</v>
+        <v>-884100</v>
       </c>
       <c r="F96" s="3">
-        <v>-922700</v>
+        <v>-914600</v>
       </c>
       <c r="G96" s="3">
-        <v>-958400</v>
+        <v>-867800</v>
       </c>
       <c r="H96" s="3">
-        <v>-926000</v>
+        <v>-901300</v>
       </c>
       <c r="I96" s="3">
-        <v>-907000</v>
+        <v>-870900</v>
       </c>
       <c r="J96" s="3">
+        <v>-853000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-880500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-818300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-801400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-757900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-761100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-739200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-728600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-630300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-699600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-727500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-717500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-709800</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5424,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5483,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5542,181 +5782,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1756800</v>
+        <v>-1168700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1231100</v>
+        <v>-1652100</v>
       </c>
       <c r="F100" s="3">
-        <v>2017900</v>
+        <v>-1157800</v>
       </c>
       <c r="G100" s="3">
-        <v>-27400</v>
+        <v>1897700</v>
       </c>
       <c r="H100" s="3">
-        <v>-640900</v>
+        <v>-25700</v>
       </c>
       <c r="I100" s="3">
-        <v>-2182900</v>
+        <v>-602700</v>
       </c>
       <c r="J100" s="3">
+        <v>-2052900</v>
+      </c>
+      <c r="K100" s="3">
         <v>1164800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-665900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>619700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6303300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6132200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1036600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-718200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>174100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-746400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>872700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2534400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>469400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-154200</v>
+        <v>-229200</v>
       </c>
       <c r="E101" s="3">
-        <v>-79600</v>
+        <v>-145000</v>
       </c>
       <c r="F101" s="3">
-        <v>-178200</v>
+        <v>-74800</v>
       </c>
       <c r="G101" s="3">
-        <v>164200</v>
+        <v>-167600</v>
       </c>
       <c r="H101" s="3">
-        <v>-13300</v>
+        <v>154400</v>
       </c>
       <c r="I101" s="3">
-        <v>-51400</v>
+        <v>-12500</v>
       </c>
       <c r="J101" s="3">
+        <v>-48300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-127700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>113900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>53900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-77800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>166400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-131000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>114600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-353500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>285800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-148300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>93000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1392800</v>
+        <v>-1171800</v>
       </c>
       <c r="E102" s="3">
-        <v>26500</v>
+        <v>-1309800</v>
       </c>
       <c r="F102" s="3">
-        <v>-474200</v>
+        <v>24900</v>
       </c>
       <c r="G102" s="3">
-        <v>1185500</v>
+        <v>-446000</v>
       </c>
       <c r="H102" s="3">
-        <v>-556300</v>
+        <v>1114900</v>
       </c>
       <c r="I102" s="3">
-        <v>295100</v>
+        <v>-523200</v>
       </c>
       <c r="J102" s="3">
+        <v>277600</v>
+      </c>
+      <c r="K102" s="3">
         <v>736200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-107000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>617400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>726000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>460700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-335700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>719700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>639200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>858900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-460900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>BNS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,157 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4823800</v>
+        <v>4856300</v>
       </c>
       <c r="E8" s="3">
-        <v>5077200</v>
+        <v>4789600</v>
       </c>
       <c r="F8" s="3">
-        <v>5186400</v>
+        <v>4857100</v>
       </c>
       <c r="G8" s="3">
-        <v>5446800</v>
+        <v>5112200</v>
       </c>
       <c r="H8" s="3">
-        <v>6111100</v>
+        <v>5222200</v>
       </c>
       <c r="I8" s="3">
+        <v>5484400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6153200</v>
+      </c>
+      <c r="K8" s="3">
         <v>6421400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6433800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6997200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6236300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6151600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5610000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5368100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5070000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4823200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4649100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4553100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4481900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>4400400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>4378100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,8 +876,14 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +944,14 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +974,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,8 +1038,14 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,8 +1106,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,70 +1174,82 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-312600</v>
+        <v>-320300</v>
       </c>
       <c r="E15" s="3">
-        <v>-318100</v>
+        <v>-311700</v>
       </c>
       <c r="F15" s="3">
-        <v>-337600</v>
+        <v>-314800</v>
       </c>
       <c r="G15" s="3">
-        <v>-314200</v>
+        <v>-320300</v>
       </c>
       <c r="H15" s="3">
-        <v>-304100</v>
+        <v>-339900</v>
       </c>
       <c r="I15" s="3">
+        <v>-316400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-306200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-332100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-233100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-253700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-220200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-214000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-188900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-176900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-167100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-148100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-145100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-142100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>-144400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>-143700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>-140600</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1269,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1954600</v>
+        <v>-78500</v>
       </c>
       <c r="E17" s="3">
-        <v>2280500</v>
+        <v>1777400</v>
       </c>
       <c r="F17" s="3">
-        <v>2453600</v>
+        <v>1968100</v>
       </c>
       <c r="G17" s="3">
-        <v>2686700</v>
+        <v>2296300</v>
       </c>
       <c r="H17" s="3">
-        <v>3347900</v>
+        <v>2470600</v>
       </c>
       <c r="I17" s="3">
+        <v>2705300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3371000</v>
+      </c>
+      <c r="K17" s="3">
         <v>3719000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3640300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3962000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3680500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3391100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2972200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3002900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2498500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2298900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2196900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2127000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2068800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2026600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1994300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2869200</v>
+        <v>4934800</v>
       </c>
       <c r="E18" s="3">
-        <v>2796700</v>
+        <v>3012200</v>
       </c>
       <c r="F18" s="3">
-        <v>2732700</v>
+        <v>2889000</v>
       </c>
       <c r="G18" s="3">
-        <v>2760000</v>
+        <v>2816000</v>
       </c>
       <c r="H18" s="3">
-        <v>2763200</v>
+        <v>2751600</v>
       </c>
       <c r="I18" s="3">
+        <v>2779100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2782200</v>
+      </c>
+      <c r="K18" s="3">
         <v>2702300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2793600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3035200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2555800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2760600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2637900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2365300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2571500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2524400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>2452200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2426100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>2413000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>2373800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>2383800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,132 +1431,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-375800</v>
+        <v>-2385000</v>
       </c>
       <c r="E20" s="3">
-        <v>-379700</v>
+        <v>-437300</v>
       </c>
       <c r="F20" s="3">
-        <v>-926200</v>
+        <v>-378400</v>
       </c>
       <c r="G20" s="3">
-        <v>-1563200</v>
+        <v>-382300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1401100</v>
+        <v>-932600</v>
       </c>
       <c r="I20" s="3">
+        <v>-1574000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1410700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-521600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-529400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-766000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-335600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-647400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-607500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-507400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-465200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-257500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-511300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-454700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-574600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-356500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-424100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2785800</v>
+        <v>2850500</v>
       </c>
       <c r="E21" s="3">
-        <v>2713300</v>
+        <v>2867800</v>
       </c>
       <c r="F21" s="3">
-        <v>2123800</v>
+        <v>2805000</v>
       </c>
       <c r="G21" s="3">
-        <v>1490700</v>
+        <v>2732000</v>
       </c>
       <c r="H21" s="3">
-        <v>1645100</v>
+        <v>2138500</v>
       </c>
       <c r="I21" s="3">
+        <v>1501000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1656500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2491800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2475500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2497900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2418800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2304100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2199700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2017500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2259900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2415000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>2086000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2113600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1982800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>2161000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>2100300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,132 +1631,150 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2493400</v>
+        <v>2549800</v>
       </c>
       <c r="E23" s="3">
-        <v>2417000</v>
+        <v>2575000</v>
       </c>
       <c r="F23" s="3">
-        <v>1806500</v>
+        <v>2510600</v>
       </c>
       <c r="G23" s="3">
-        <v>1196800</v>
+        <v>2433700</v>
       </c>
       <c r="H23" s="3">
-        <v>1362100</v>
+        <v>1819000</v>
       </c>
       <c r="I23" s="3">
+        <v>1205100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1371500</v>
+      </c>
+      <c r="K23" s="3">
         <v>2180700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2264200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2269100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2220200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2113200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2030400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1857900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2106300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2266900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1940900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1971400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1838400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>2017400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1959800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>578500</v>
+        <v>540900</v>
       </c>
       <c r="E24" s="3">
-        <v>547300</v>
+        <v>579400</v>
       </c>
       <c r="F24" s="3">
-        <v>325900</v>
+        <v>582500</v>
       </c>
       <c r="G24" s="3">
-        <v>180100</v>
+        <v>551100</v>
       </c>
       <c r="H24" s="3">
-        <v>329800</v>
+        <v>328200</v>
       </c>
       <c r="I24" s="3">
+        <v>181300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>332100</v>
+      </c>
+      <c r="K24" s="3">
         <v>367200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>464700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>624300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>481100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>383400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>380100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>398200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>467500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>527600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>400400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>406300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>255100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>474000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>414800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1835,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1914900</v>
+        <v>2008900</v>
       </c>
       <c r="E26" s="3">
-        <v>1869600</v>
+        <v>1995600</v>
       </c>
       <c r="F26" s="3">
-        <v>1480600</v>
+        <v>1928100</v>
       </c>
       <c r="G26" s="3">
-        <v>1016700</v>
+        <v>1882500</v>
       </c>
       <c r="H26" s="3">
-        <v>1032300</v>
+        <v>1490800</v>
       </c>
       <c r="I26" s="3">
+        <v>1023700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1039400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1813500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1799500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1644800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1739000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1729800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1650300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1459700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1638800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1739200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1540500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1565100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1583300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1543400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1544900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1784700</v>
+        <v>1892800</v>
       </c>
       <c r="E27" s="3">
-        <v>1766000</v>
+        <v>1904500</v>
       </c>
       <c r="F27" s="3">
-        <v>1360500</v>
+        <v>1797000</v>
       </c>
       <c r="G27" s="3">
-        <v>1038500</v>
+        <v>1778100</v>
       </c>
       <c r="H27" s="3">
-        <v>969100</v>
+        <v>1369900</v>
       </c>
       <c r="I27" s="3">
+        <v>1045700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>975800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1763600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1666200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1524600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1635900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1622000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1536200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1472500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1537200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1673700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1478000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1500300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1509600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1466600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,8 +2039,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1987,8 +2107,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2175,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2243,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>375800</v>
+        <v>2385000</v>
       </c>
       <c r="E32" s="3">
-        <v>379700</v>
+        <v>437300</v>
       </c>
       <c r="F32" s="3">
-        <v>926200</v>
+        <v>378400</v>
       </c>
       <c r="G32" s="3">
-        <v>1563200</v>
+        <v>382300</v>
       </c>
       <c r="H32" s="3">
-        <v>1401100</v>
+        <v>932600</v>
       </c>
       <c r="I32" s="3">
+        <v>1574000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1410700</v>
+      </c>
+      <c r="K32" s="3">
         <v>521600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>529400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>766000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>335600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>647400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>607500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>507400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>465200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>257500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>511300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>454700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>574600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>356500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1784700</v>
+        <v>1892800</v>
       </c>
       <c r="E33" s="3">
-        <v>1766000</v>
+        <v>1904500</v>
       </c>
       <c r="F33" s="3">
-        <v>1360500</v>
+        <v>1797000</v>
       </c>
       <c r="G33" s="3">
-        <v>1038500</v>
+        <v>1778100</v>
       </c>
       <c r="H33" s="3">
-        <v>969100</v>
+        <v>1369900</v>
       </c>
       <c r="I33" s="3">
+        <v>1045700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>975800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1763600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1666200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1524600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1635900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1622000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1536200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1472500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1537200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1673700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1478000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1500300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1509600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1466600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2447,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1784700</v>
+        <v>1892800</v>
       </c>
       <c r="E35" s="3">
-        <v>1766000</v>
+        <v>1904500</v>
       </c>
       <c r="F35" s="3">
-        <v>1360500</v>
+        <v>1797000</v>
       </c>
       <c r="G35" s="3">
-        <v>1038500</v>
+        <v>1778100</v>
       </c>
       <c r="H35" s="3">
-        <v>969100</v>
+        <v>1369900</v>
       </c>
       <c r="I35" s="3">
+        <v>1045700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>975800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1763600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1666200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1524600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1635900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1622000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1536200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1472500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1537200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1673700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1478000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1500300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1509600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1466600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2618,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,132 +2644,146 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6190600</v>
+        <v>7609500</v>
       </c>
       <c r="E41" s="3">
-        <v>7362400</v>
+        <v>6714500</v>
       </c>
       <c r="F41" s="3">
-        <v>8672300</v>
+        <v>6233300</v>
       </c>
       <c r="G41" s="3">
-        <v>8647300</v>
+        <v>7413200</v>
       </c>
       <c r="H41" s="3">
-        <v>9093300</v>
+        <v>8732100</v>
       </c>
       <c r="I41" s="3">
+        <v>8707000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>9156000</v>
+      </c>
+      <c r="K41" s="3">
         <v>7978400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8501500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>8744800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7436500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>7543500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6538000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>6020800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5560100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>5828700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>5823400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5103800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>6764300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>6125100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>5266200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>281906800</v>
+        <v>310087700</v>
       </c>
       <c r="E42" s="3">
-        <v>303297900</v>
+        <v>299330900</v>
       </c>
       <c r="F42" s="3">
-        <v>273189400</v>
+        <v>283852100</v>
       </c>
       <c r="G42" s="3">
-        <v>278873900</v>
+        <v>305390700</v>
       </c>
       <c r="H42" s="3">
-        <v>324058100</v>
+        <v>275074500</v>
       </c>
       <c r="I42" s="3">
+        <v>280798300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>326294300</v>
+      </c>
+      <c r="K42" s="3">
         <v>310629100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>262831400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>269948600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>245269300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>241611900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>216781100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>195829300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>207922900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>208904200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>209121500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>207952400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>225427900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>214720300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>216684600</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2660,8 +2844,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2722,8 +2912,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2784,8 +2980,14 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2846,194 +3048,218 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1933600</v>
+        <v>2044300</v>
       </c>
       <c r="E47" s="3">
-        <v>1961600</v>
+        <v>1965800</v>
       </c>
       <c r="F47" s="3">
-        <v>1929700</v>
+        <v>1946900</v>
       </c>
       <c r="G47" s="3">
-        <v>1870400</v>
+        <v>1975200</v>
       </c>
       <c r="H47" s="3">
-        <v>1896200</v>
+        <v>1943000</v>
       </c>
       <c r="I47" s="3">
+        <v>1883300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1909200</v>
+      </c>
+      <c r="K47" s="3">
         <v>1814300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>4377100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>4556500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>4082400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>3990700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>3524400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>3540400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>3617900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>3362300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>3412900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>3261100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>3474700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>3274200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>3302600</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4333400</v>
+        <v>4412800</v>
       </c>
       <c r="E48" s="3">
-        <v>4467500</v>
+        <v>4347600</v>
       </c>
       <c r="F48" s="3">
-        <v>4597700</v>
+        <v>4363300</v>
       </c>
       <c r="G48" s="3">
-        <v>4697500</v>
+        <v>4498300</v>
       </c>
       <c r="H48" s="3">
-        <v>4774700</v>
+        <v>4629400</v>
       </c>
       <c r="I48" s="3">
+        <v>4729900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4807600</v>
+      </c>
+      <c r="K48" s="3">
         <v>4758300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2080900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2183700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2095500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2063100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1950400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1955000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1799200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1722100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1772000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1658100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1809200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1747700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1935900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13099200</v>
+        <v>13035000</v>
       </c>
       <c r="E49" s="3">
-        <v>13236500</v>
+        <v>13112700</v>
       </c>
       <c r="F49" s="3">
-        <v>13266100</v>
+        <v>13189600</v>
       </c>
       <c r="G49" s="3">
-        <v>13360400</v>
+        <v>13327800</v>
       </c>
       <c r="H49" s="3">
-        <v>13341700</v>
+        <v>13357600</v>
       </c>
       <c r="I49" s="3">
+        <v>13452600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>13433800</v>
+      </c>
+      <c r="K49" s="3">
         <v>13403300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>13616900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>14601200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>13722000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>13752100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>12876200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>11209000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>9239000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>8967000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>9009400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>8879200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>9437700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>9261800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>9327100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3320,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3388,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1599900</v>
+        <v>1610100</v>
       </c>
       <c r="E52" s="3">
-        <v>1649800</v>
+        <v>1654900</v>
       </c>
       <c r="F52" s="3">
-        <v>1703600</v>
+        <v>1610900</v>
       </c>
       <c r="G52" s="3">
-        <v>1687200</v>
+        <v>1661200</v>
       </c>
       <c r="H52" s="3">
-        <v>1302000</v>
+        <v>1715300</v>
       </c>
       <c r="I52" s="3">
+        <v>1698800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1311000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1339500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1224100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1414400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1592800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1575800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1408300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1473200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1345200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1293400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1274800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1286000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1485000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1379000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1552600</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3524,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>877322100</v>
+        <v>930161800</v>
       </c>
       <c r="E54" s="3">
-        <v>907574900</v>
+        <v>913349900</v>
       </c>
       <c r="F54" s="3">
-        <v>886068400</v>
+        <v>883375900</v>
       </c>
       <c r="G54" s="3">
-        <v>912114100</v>
+        <v>913837500</v>
       </c>
       <c r="H54" s="3">
-        <v>972305400</v>
+        <v>892182600</v>
       </c>
       <c r="I54" s="3">
+        <v>918408000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>979014700</v>
+      </c>
+      <c r="K54" s="3">
         <v>899756300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>846847100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>884380800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>814599700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>796211700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>725594900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>712668600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>697316900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>687018900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>681155300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>674501300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>708036100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>681413900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>688538400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3622,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,8 +3648,10 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3452,8 +3712,14 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3514,8 +3780,14 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3576,8 +3848,14 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3638,70 +3916,82 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5020300</v>
+        <v>4972500</v>
       </c>
       <c r="E61" s="3">
-        <v>5145800</v>
+        <v>5038500</v>
       </c>
       <c r="F61" s="3">
-        <v>5773500</v>
+        <v>5054900</v>
       </c>
       <c r="G61" s="3">
-        <v>5719700</v>
+        <v>5181300</v>
       </c>
       <c r="H61" s="3">
-        <v>5835100</v>
+        <v>5813300</v>
       </c>
       <c r="I61" s="3">
+        <v>5759100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>5875300</v>
+      </c>
+      <c r="K61" s="3">
         <v>5687700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5654200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>7478900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5815200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5767500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4140700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4281100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4266100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4242700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>4416900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5489300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>5854700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>5767100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>5863900</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3762,8 +4052,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +4120,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4188,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4256,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>824298300</v>
+        <v>874578700</v>
       </c>
       <c r="E66" s="3">
-        <v>854015400</v>
+        <v>858381500</v>
       </c>
       <c r="F66" s="3">
-        <v>832951900</v>
+        <v>829986300</v>
       </c>
       <c r="G66" s="3">
-        <v>858947600</v>
+        <v>859908400</v>
       </c>
       <c r="H66" s="3">
-        <v>919379100</v>
+        <v>838699500</v>
       </c>
       <c r="I66" s="3">
+        <v>864874700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>925723100</v>
+      </c>
+      <c r="K66" s="3">
         <v>847230700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>794202300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>828487900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>762671500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>745088800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>678194300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>663747700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>651024100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>642619400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>636478200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>632539800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>663375800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>638197100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>645324700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4354,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4418,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,70 +4486,82 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3546700</v>
+        <v>4751100</v>
       </c>
       <c r="E70" s="3">
-        <v>4138500</v>
+        <v>4160000</v>
       </c>
       <c r="F70" s="3">
-        <v>4138500</v>
+        <v>3571200</v>
       </c>
       <c r="G70" s="3">
-        <v>4138500</v>
+        <v>4167000</v>
       </c>
       <c r="H70" s="3">
-        <v>2821600</v>
+        <v>4167000</v>
       </c>
       <c r="I70" s="3">
+        <v>4167000</v>
+      </c>
+      <c r="J70" s="3">
+        <v>2841100</v>
+      </c>
+      <c r="K70" s="3">
         <v>3028200</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>3028200</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>3220000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>2990000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>2990000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>3040500</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>3187300</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>3187300</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>3407700</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>3407700</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>2246800</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>2319300</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>2496000</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>2761000</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4622,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>38251400</v>
+        <v>40489700</v>
       </c>
       <c r="E72" s="3">
-        <v>37326700</v>
+        <v>39419700</v>
       </c>
       <c r="F72" s="3">
-        <v>36414500</v>
+        <v>38515300</v>
       </c>
       <c r="G72" s="3">
-        <v>35903000</v>
+        <v>37584300</v>
       </c>
       <c r="H72" s="3">
-        <v>35720600</v>
+        <v>36665800</v>
       </c>
       <c r="I72" s="3">
+        <v>36150800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>35967100</v>
+      </c>
+      <c r="K72" s="3">
         <v>35693300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>34932300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>36521300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>33449400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>32826700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>30388700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>30724400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>30016700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>28815800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>28453400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>27695800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>27932800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>27496500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>26814300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4758,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4826,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4894,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>49477100</v>
+        <v>50832000</v>
       </c>
       <c r="E76" s="3">
-        <v>49420900</v>
+        <v>50808400</v>
       </c>
       <c r="F76" s="3">
-        <v>48978100</v>
+        <v>49818500</v>
       </c>
       <c r="G76" s="3">
-        <v>49028000</v>
+        <v>49762000</v>
       </c>
       <c r="H76" s="3">
-        <v>50104700</v>
+        <v>49316100</v>
       </c>
       <c r="I76" s="3">
+        <v>49366300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>50450500</v>
+      </c>
+      <c r="K76" s="3">
         <v>49497300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>49616600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>52672900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>48938200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>48133000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>44360100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>45733500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>43105500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>40991800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>41269400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>39714800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>42341000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>40720800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>40452700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +5030,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1784700</v>
+        <v>1892800</v>
       </c>
       <c r="E81" s="3">
-        <v>1766000</v>
+        <v>1904500</v>
       </c>
       <c r="F81" s="3">
-        <v>1360500</v>
+        <v>1797000</v>
       </c>
       <c r="G81" s="3">
-        <v>1038500</v>
+        <v>1778100</v>
       </c>
       <c r="H81" s="3">
-        <v>969100</v>
+        <v>1369900</v>
       </c>
       <c r="I81" s="3">
+        <v>1045700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>975800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1763600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1666200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1524600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1635900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1622000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1536200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1472500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1537200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1673700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1478000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1500300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1509600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1466600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5201,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>292400</v>
+        <v>300700</v>
       </c>
       <c r="E83" s="3">
-        <v>296300</v>
+        <v>292800</v>
       </c>
       <c r="F83" s="3">
-        <v>317300</v>
+        <v>294400</v>
       </c>
       <c r="G83" s="3">
-        <v>293900</v>
+        <v>298300</v>
       </c>
       <c r="H83" s="3">
-        <v>283000</v>
+        <v>319500</v>
       </c>
       <c r="I83" s="3">
+        <v>296000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>285000</v>
+      </c>
+      <c r="K83" s="3">
         <v>311100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>211300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>228800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>198600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>190900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>169300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>159600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>153600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>148100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>145100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>142100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>144400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>143700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>140600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5333,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5401,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5469,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5537,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5605,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-35477300</v>
+        <v>4707900</v>
       </c>
       <c r="E89" s="3">
-        <v>5171600</v>
+        <v>15752800</v>
       </c>
       <c r="F89" s="3">
-        <v>6904000</v>
+        <v>-35722100</v>
       </c>
       <c r="G89" s="3">
-        <v>-31846400</v>
+        <v>5207200</v>
       </c>
       <c r="H89" s="3">
-        <v>55701200</v>
+        <v>6951600</v>
       </c>
       <c r="I89" s="3">
+        <v>-32066200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>56085500</v>
+      </c>
+      <c r="K89" s="3">
         <v>13420500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3169400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5834000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1967700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-8936800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>13302100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-8250600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1346000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>6458300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-67700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>10880400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-4796100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>6374800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-18996000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5703,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-106800</v>
+        <v>-149900</v>
       </c>
       <c r="E91" s="3">
-        <v>-35100</v>
+        <v>-69900</v>
       </c>
       <c r="F91" s="3">
-        <v>-158300</v>
+        <v>-107600</v>
       </c>
       <c r="G91" s="3">
-        <v>-128600</v>
+        <v>-35300</v>
       </c>
       <c r="H91" s="3">
-        <v>-240100</v>
+        <v>-159400</v>
       </c>
       <c r="I91" s="3">
+        <v>-129500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-241800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-74100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-115400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>54700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-67000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-13100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-141700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-79800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-68500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-17900</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-83000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5835,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5903,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>35703400</v>
+        <v>-4291100</v>
       </c>
       <c r="E94" s="3">
-        <v>-4684300</v>
+        <v>-15404300</v>
       </c>
       <c r="F94" s="3">
-        <v>-5646400</v>
+        <v>35949800</v>
       </c>
       <c r="G94" s="3">
-        <v>29670300</v>
+        <v>-4716600</v>
       </c>
       <c r="H94" s="3">
-        <v>-54714900</v>
+        <v>-5685300</v>
       </c>
       <c r="I94" s="3">
+        <v>29875100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-55092500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-13328500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-790600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>5533100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1522700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>8880600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-11479500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>8039800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-811500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-5603900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>498600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-11229400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>4276700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-2833200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>16361800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,70 +6001,78 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-911400</v>
+        <v>-920900</v>
       </c>
       <c r="E96" s="3">
-        <v>-884100</v>
+        <v>-885500</v>
       </c>
       <c r="F96" s="3">
-        <v>-914600</v>
+        <v>-917700</v>
       </c>
       <c r="G96" s="3">
-        <v>-867800</v>
+        <v>-890200</v>
       </c>
       <c r="H96" s="3">
-        <v>-901300</v>
+        <v>-920900</v>
       </c>
       <c r="I96" s="3">
+        <v>-873800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-907500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-870900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-853000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-880500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-818300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-801400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-757900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-761100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-739200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-728600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-630300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-699600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-727500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-717500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-709800</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +6133,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +6201,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,190 +6269,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1168700</v>
+        <v>553500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1652100</v>
+        <v>106800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1157800</v>
+        <v>-1176800</v>
       </c>
       <c r="G100" s="3">
-        <v>1897700</v>
+        <v>-1663500</v>
       </c>
       <c r="H100" s="3">
-        <v>-25700</v>
+        <v>-1165800</v>
       </c>
       <c r="I100" s="3">
+        <v>1910800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-602700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2052900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1164800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-665900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>619700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-6303300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>6132200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1036600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-718200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>174100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-746400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>872700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-2534400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>469400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-229200</v>
+        <v>-75400</v>
       </c>
       <c r="E101" s="3">
-        <v>-145000</v>
+        <v>25900</v>
       </c>
       <c r="F101" s="3">
-        <v>-74800</v>
+        <v>-230800</v>
       </c>
       <c r="G101" s="3">
-        <v>-167600</v>
+        <v>-146000</v>
       </c>
       <c r="H101" s="3">
-        <v>154400</v>
+        <v>-75400</v>
       </c>
       <c r="I101" s="3">
+        <v>-168800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>155400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-12500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-48300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-127700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>113900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>53900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-77800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>13600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>166400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-131000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>114600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-353500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>285800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-148300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>93000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1171800</v>
+        <v>895000</v>
       </c>
       <c r="E102" s="3">
-        <v>-1309800</v>
+        <v>481200</v>
       </c>
       <c r="F102" s="3">
-        <v>24900</v>
+        <v>-1179900</v>
       </c>
       <c r="G102" s="3">
-        <v>-446000</v>
+        <v>-1318900</v>
       </c>
       <c r="H102" s="3">
-        <v>1114900</v>
+        <v>25100</v>
       </c>
       <c r="I102" s="3">
+        <v>-449000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1122600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-523200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>277600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>736200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-107000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>617400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>726000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>460700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-335700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>5200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>719700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>639200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>858900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-460900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>BNS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,163 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4856300</v>
+        <v>5071800</v>
       </c>
       <c r="E8" s="3">
-        <v>4789600</v>
+        <v>4854400</v>
       </c>
       <c r="F8" s="3">
-        <v>4857100</v>
+        <v>4787700</v>
       </c>
       <c r="G8" s="3">
-        <v>5112200</v>
+        <v>4855200</v>
       </c>
       <c r="H8" s="3">
-        <v>5222200</v>
+        <v>5110200</v>
       </c>
       <c r="I8" s="3">
-        <v>5484400</v>
+        <v>5220100</v>
       </c>
       <c r="J8" s="3">
+        <v>5482200</v>
+      </c>
+      <c r="K8" s="3">
         <v>6153200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6421400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6433800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6997200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6236300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6151600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5610000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5368100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5070000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4823200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4649100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4553100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4481900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4400400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4378100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -882,8 +888,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +959,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1044,8 +1057,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,8 +1128,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1180,76 +1199,82 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-320300</v>
+        <v>-313900</v>
       </c>
       <c r="E15" s="3">
-        <v>-311700</v>
+        <v>-320200</v>
       </c>
       <c r="F15" s="3">
-        <v>-314800</v>
+        <v>-311500</v>
       </c>
       <c r="G15" s="3">
-        <v>-320300</v>
+        <v>-314700</v>
       </c>
       <c r="H15" s="3">
-        <v>-339900</v>
+        <v>-320200</v>
       </c>
       <c r="I15" s="3">
-        <v>-316400</v>
+        <v>-339800</v>
       </c>
       <c r="J15" s="3">
+        <v>-316300</v>
+      </c>
+      <c r="K15" s="3">
         <v>-306200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-332100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-233100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-253700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-220200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-214000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-188900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-176900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-167100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-148100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-145100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-142100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-144400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-143700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-140600</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-78500</v>
+        <v>1837100</v>
       </c>
       <c r="E17" s="3">
-        <v>1777400</v>
+        <v>1677000</v>
       </c>
       <c r="F17" s="3">
-        <v>1968100</v>
+        <v>1776700</v>
       </c>
       <c r="G17" s="3">
-        <v>2296300</v>
+        <v>1967300</v>
       </c>
       <c r="H17" s="3">
-        <v>2470600</v>
+        <v>2295400</v>
       </c>
       <c r="I17" s="3">
-        <v>2705300</v>
+        <v>2469600</v>
       </c>
       <c r="J17" s="3">
+        <v>2704200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3371000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3719000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3640300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3962000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3680500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3391100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2972200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3002900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2498500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2298900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2196900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2127000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2068800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2026600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1994300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4934800</v>
+        <v>3234700</v>
       </c>
       <c r="E18" s="3">
-        <v>3012200</v>
+        <v>3177400</v>
       </c>
       <c r="F18" s="3">
-        <v>2889000</v>
+        <v>3011000</v>
       </c>
       <c r="G18" s="3">
-        <v>2816000</v>
+        <v>2887800</v>
       </c>
       <c r="H18" s="3">
-        <v>2751600</v>
+        <v>2814900</v>
       </c>
       <c r="I18" s="3">
-        <v>2779100</v>
+        <v>2750500</v>
       </c>
       <c r="J18" s="3">
+        <v>2778000</v>
+      </c>
+      <c r="K18" s="3">
         <v>2782200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2702300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2793600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3035200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2555800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2760600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2637900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2365300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2571500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2524400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2452200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2426100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2413000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2373800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2383800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,144 +1465,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2385000</v>
+        <v>-406500</v>
       </c>
       <c r="E20" s="3">
-        <v>-437300</v>
+        <v>-628600</v>
       </c>
       <c r="F20" s="3">
-        <v>-378400</v>
+        <v>-437100</v>
       </c>
       <c r="G20" s="3">
-        <v>-382300</v>
+        <v>-378200</v>
       </c>
       <c r="H20" s="3">
-        <v>-932600</v>
+        <v>-382200</v>
       </c>
       <c r="I20" s="3">
-        <v>-1574000</v>
+        <v>-932300</v>
       </c>
       <c r="J20" s="3">
+        <v>-1573400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1410700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-521600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-529400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-766000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-335600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-647400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-607500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-507400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-465200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-257500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-511300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-454700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-574600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-356500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-424100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2850500</v>
+        <v>3122500</v>
       </c>
       <c r="E21" s="3">
-        <v>2867800</v>
+        <v>2849400</v>
       </c>
       <c r="F21" s="3">
-        <v>2805000</v>
+        <v>2866700</v>
       </c>
       <c r="G21" s="3">
-        <v>2732000</v>
+        <v>2803900</v>
       </c>
       <c r="H21" s="3">
-        <v>2138500</v>
+        <v>2730900</v>
       </c>
       <c r="I21" s="3">
-        <v>1501000</v>
+        <v>2137600</v>
       </c>
       <c r="J21" s="3">
+        <v>1500400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1656500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2491800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2475500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2497900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2418800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2304100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2199700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2017500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2259900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2415000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2086000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2113600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1982800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2161000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2100300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1637,144 +1676,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2549800</v>
+        <v>2828200</v>
       </c>
       <c r="E23" s="3">
-        <v>2575000</v>
+        <v>2548800</v>
       </c>
       <c r="F23" s="3">
-        <v>2510600</v>
+        <v>2573900</v>
       </c>
       <c r="G23" s="3">
-        <v>2433700</v>
+        <v>2509600</v>
       </c>
       <c r="H23" s="3">
-        <v>1819000</v>
+        <v>2432700</v>
       </c>
       <c r="I23" s="3">
-        <v>1205100</v>
+        <v>1818200</v>
       </c>
       <c r="J23" s="3">
+        <v>1204600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1371500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2180700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2264200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2269100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2220200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2113200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2030400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1857900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2106300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2266900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1940900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1971400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1838400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2017400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1959800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>540900</v>
+        <v>678000</v>
       </c>
       <c r="E24" s="3">
-        <v>579400</v>
+        <v>540700</v>
       </c>
       <c r="F24" s="3">
-        <v>582500</v>
+        <v>579100</v>
       </c>
       <c r="G24" s="3">
-        <v>551100</v>
+        <v>582300</v>
       </c>
       <c r="H24" s="3">
-        <v>328200</v>
+        <v>550900</v>
       </c>
       <c r="I24" s="3">
+        <v>328000</v>
+      </c>
+      <c r="J24" s="3">
         <v>181300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>332100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>367200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>464700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>624300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>481100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>383400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>380100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>398200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>467500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>527600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>406300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>255100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>474000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>414800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2008900</v>
+        <v>2150200</v>
       </c>
       <c r="E26" s="3">
-        <v>1995600</v>
+        <v>2008100</v>
       </c>
       <c r="F26" s="3">
-        <v>1928100</v>
+        <v>1994800</v>
       </c>
       <c r="G26" s="3">
-        <v>1882500</v>
+        <v>1927300</v>
       </c>
       <c r="H26" s="3">
-        <v>1490800</v>
+        <v>1881800</v>
       </c>
       <c r="I26" s="3">
-        <v>1023700</v>
+        <v>1490200</v>
       </c>
       <c r="J26" s="3">
+        <v>1023300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1039400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1813500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1799500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1644800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1739000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1729800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1650300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1459700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1638800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1739200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1540500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1565100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1583300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1543400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1544900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1892800</v>
+        <v>2046600</v>
       </c>
       <c r="E27" s="3">
-        <v>1904500</v>
+        <v>1892000</v>
       </c>
       <c r="F27" s="3">
-        <v>1797000</v>
+        <v>1903800</v>
       </c>
       <c r="G27" s="3">
-        <v>1778100</v>
+        <v>1796300</v>
       </c>
       <c r="H27" s="3">
-        <v>1369900</v>
+        <v>1777400</v>
       </c>
       <c r="I27" s="3">
-        <v>1045700</v>
+        <v>1369400</v>
       </c>
       <c r="J27" s="3">
+        <v>1045300</v>
+      </c>
+      <c r="K27" s="3">
         <v>975800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1763600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1666200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1524600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1635900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1622000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1536200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1472500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1537200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1673700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1478000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1500300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1509600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1466600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,8 +2102,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2113,8 +2173,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,144 +2315,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2385000</v>
+        <v>406500</v>
       </c>
       <c r="E32" s="3">
-        <v>437300</v>
+        <v>628600</v>
       </c>
       <c r="F32" s="3">
-        <v>378400</v>
+        <v>437100</v>
       </c>
       <c r="G32" s="3">
-        <v>382300</v>
+        <v>378200</v>
       </c>
       <c r="H32" s="3">
-        <v>932600</v>
+        <v>382200</v>
       </c>
       <c r="I32" s="3">
-        <v>1574000</v>
+        <v>932300</v>
       </c>
       <c r="J32" s="3">
+        <v>1573400</v>
+      </c>
+      <c r="K32" s="3">
         <v>1410700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>521600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>529400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>766000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>335600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>647400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>607500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>507400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>465200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>257500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>511300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>454700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>574600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>356500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1892800</v>
+        <v>2046600</v>
       </c>
       <c r="E33" s="3">
-        <v>1904500</v>
+        <v>1892000</v>
       </c>
       <c r="F33" s="3">
-        <v>1797000</v>
+        <v>1903800</v>
       </c>
       <c r="G33" s="3">
-        <v>1778100</v>
+        <v>1796300</v>
       </c>
       <c r="H33" s="3">
-        <v>1369900</v>
+        <v>1777400</v>
       </c>
       <c r="I33" s="3">
-        <v>1045700</v>
+        <v>1369400</v>
       </c>
       <c r="J33" s="3">
+        <v>1045300</v>
+      </c>
+      <c r="K33" s="3">
         <v>975800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1763600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1666200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1524600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1635900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1622000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1536200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1472500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1537200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1673700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1478000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1500300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1509600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1466600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1892800</v>
+        <v>2046600</v>
       </c>
       <c r="E35" s="3">
-        <v>1904500</v>
+        <v>1892000</v>
       </c>
       <c r="F35" s="3">
-        <v>1797000</v>
+        <v>1903800</v>
       </c>
       <c r="G35" s="3">
-        <v>1778100</v>
+        <v>1796300</v>
       </c>
       <c r="H35" s="3">
-        <v>1369900</v>
+        <v>1777400</v>
       </c>
       <c r="I35" s="3">
-        <v>1045700</v>
+        <v>1369400</v>
       </c>
       <c r="J35" s="3">
+        <v>1045300</v>
+      </c>
+      <c r="K35" s="3">
         <v>975800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1763600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1666200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1524600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1635900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1622000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1536200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1472500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1537200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1673700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1478000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1500300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1509600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1466600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,144 +2731,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7609500</v>
+        <v>8289200</v>
       </c>
       <c r="E41" s="3">
-        <v>6714500</v>
+        <v>7606500</v>
       </c>
       <c r="F41" s="3">
-        <v>6233300</v>
+        <v>6711900</v>
       </c>
       <c r="G41" s="3">
-        <v>7413200</v>
+        <v>6230800</v>
       </c>
       <c r="H41" s="3">
-        <v>8732100</v>
+        <v>7410300</v>
       </c>
       <c r="I41" s="3">
-        <v>8707000</v>
+        <v>8728700</v>
       </c>
       <c r="J41" s="3">
+        <v>8703600</v>
+      </c>
+      <c r="K41" s="3">
         <v>9156000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7978400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8501500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8744800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7436500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7543500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6538000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6020800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5560100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5828700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5823400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5103800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6764300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6125100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5266200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>310087700</v>
+        <v>326973700</v>
       </c>
       <c r="E42" s="3">
-        <v>299330900</v>
+        <v>309965200</v>
       </c>
       <c r="F42" s="3">
-        <v>283852100</v>
+        <v>299212700</v>
       </c>
       <c r="G42" s="3">
-        <v>305390700</v>
+        <v>283740000</v>
       </c>
       <c r="H42" s="3">
-        <v>275074500</v>
+        <v>305270100</v>
       </c>
       <c r="I42" s="3">
-        <v>280798300</v>
+        <v>274965800</v>
       </c>
       <c r="J42" s="3">
+        <v>280687400</v>
+      </c>
+      <c r="K42" s="3">
         <v>326294300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>310629100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>262831400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>269948600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>245269300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>241611900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>216781100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>195829300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>207922900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>208904200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>209121500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>207952400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>225427900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>214720300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>216684600</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2850,8 +2942,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2918,8 +3013,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2986,8 +3084,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3054,212 +3155,224 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2044300</v>
+        <v>2150200</v>
       </c>
       <c r="E47" s="3">
-        <v>1965800</v>
+        <v>2043500</v>
       </c>
       <c r="F47" s="3">
-        <v>1946900</v>
+        <v>1965000</v>
       </c>
       <c r="G47" s="3">
-        <v>1975200</v>
+        <v>1946200</v>
       </c>
       <c r="H47" s="3">
-        <v>1943000</v>
+        <v>1974400</v>
       </c>
       <c r="I47" s="3">
-        <v>1883300</v>
+        <v>1942200</v>
       </c>
       <c r="J47" s="3">
+        <v>1882600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1909200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1814300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4377100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4556500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4082400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3990700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3524400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3540400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3617900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3362300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3412900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3261100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3474700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3274200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3302600</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4412800</v>
+        <v>4380400</v>
       </c>
       <c r="E48" s="3">
-        <v>4347600</v>
+        <v>4411000</v>
       </c>
       <c r="F48" s="3">
-        <v>4363300</v>
+        <v>4345900</v>
       </c>
       <c r="G48" s="3">
-        <v>4498300</v>
+        <v>4361600</v>
       </c>
       <c r="H48" s="3">
-        <v>4629400</v>
+        <v>4496600</v>
       </c>
       <c r="I48" s="3">
-        <v>4729900</v>
+        <v>4627600</v>
       </c>
       <c r="J48" s="3">
+        <v>4728100</v>
+      </c>
+      <c r="K48" s="3">
         <v>4807600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4758300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2080900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2183700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2095500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2063100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1950400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1955000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1799200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1722100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1772000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1658100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1809200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1747700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1935900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13035000</v>
+        <v>13146000</v>
       </c>
       <c r="E49" s="3">
-        <v>13112700</v>
+        <v>13029800</v>
       </c>
       <c r="F49" s="3">
-        <v>13189600</v>
+        <v>13107500</v>
       </c>
       <c r="G49" s="3">
-        <v>13327800</v>
+        <v>13184400</v>
       </c>
       <c r="H49" s="3">
-        <v>13357600</v>
+        <v>13322500</v>
       </c>
       <c r="I49" s="3">
-        <v>13452600</v>
+        <v>13352400</v>
       </c>
       <c r="J49" s="3">
+        <v>13447300</v>
+      </c>
+      <c r="K49" s="3">
         <v>13433800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13403300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13616900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14601200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13722000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>13752100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12876200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11209000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9239000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8967000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9009400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8879200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>9437700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>9261800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>9327100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,76 +3510,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1610100</v>
+        <v>1545200</v>
       </c>
       <c r="E52" s="3">
-        <v>1654900</v>
+        <v>1609500</v>
       </c>
       <c r="F52" s="3">
-        <v>1610900</v>
+        <v>1654200</v>
       </c>
       <c r="G52" s="3">
-        <v>1661200</v>
+        <v>1610300</v>
       </c>
       <c r="H52" s="3">
-        <v>1715300</v>
+        <v>1660500</v>
       </c>
       <c r="I52" s="3">
-        <v>1698800</v>
+        <v>1714700</v>
       </c>
       <c r="J52" s="3">
+        <v>1698200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1311000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1339500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1224100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1414400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1592800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1575800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1408300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1473200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1345200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1293400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1274800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1286000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1485000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1379000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1552600</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>930161800</v>
+        <v>977373300</v>
       </c>
       <c r="E54" s="3">
-        <v>913349900</v>
+        <v>929794500</v>
       </c>
       <c r="F54" s="3">
-        <v>883375900</v>
+        <v>912989300</v>
       </c>
       <c r="G54" s="3">
-        <v>913837500</v>
+        <v>883027100</v>
       </c>
       <c r="H54" s="3">
-        <v>892182600</v>
+        <v>913476600</v>
       </c>
       <c r="I54" s="3">
-        <v>918408000</v>
+        <v>891830300</v>
       </c>
       <c r="J54" s="3">
+        <v>918045400</v>
+      </c>
+      <c r="K54" s="3">
         <v>979014700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>899756300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>846847100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>884380800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>814599700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>796211700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>725594900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>712668600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>697316900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>687018900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>681155300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>674501300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>708036100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>681413900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>688538400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,8 +3779,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3718,8 +3848,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3786,8 +3919,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3854,8 +3990,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3922,76 +4061,82 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4972500</v>
+        <v>4973700</v>
       </c>
       <c r="E61" s="3">
-        <v>5038500</v>
+        <v>4970500</v>
       </c>
       <c r="F61" s="3">
-        <v>5054900</v>
+        <v>5036500</v>
       </c>
       <c r="G61" s="3">
-        <v>5181300</v>
+        <v>5052900</v>
       </c>
       <c r="H61" s="3">
-        <v>5813300</v>
+        <v>5179300</v>
       </c>
       <c r="I61" s="3">
-        <v>5759100</v>
+        <v>5811000</v>
       </c>
       <c r="J61" s="3">
+        <v>5756900</v>
+      </c>
+      <c r="K61" s="3">
         <v>5875300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5687700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5654200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7478900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5815200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5767500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4140700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4281100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4266100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4242700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4416900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5489300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5854700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5767100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5863900</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4058,8 +4203,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>874578700</v>
+        <v>921088600</v>
       </c>
       <c r="E66" s="3">
-        <v>858381500</v>
+        <v>874233300</v>
       </c>
       <c r="F66" s="3">
-        <v>829986300</v>
+        <v>858042600</v>
       </c>
       <c r="G66" s="3">
-        <v>859908400</v>
+        <v>829658500</v>
       </c>
       <c r="H66" s="3">
-        <v>838699500</v>
+        <v>859568900</v>
       </c>
       <c r="I66" s="3">
-        <v>864874700</v>
+        <v>838368300</v>
       </c>
       <c r="J66" s="3">
+        <v>864533100</v>
+      </c>
+      <c r="K66" s="3">
         <v>925723100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>847230700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>794202300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>828487900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>762671500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>745088800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>678194300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>663747700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>651024100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>642619400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>636478200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>632539800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>663375800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>638197100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>645324700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,76 +4656,82 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4751100</v>
+        <v>4356900</v>
       </c>
       <c r="E70" s="3">
-        <v>4160000</v>
+        <v>4749200</v>
       </c>
       <c r="F70" s="3">
-        <v>3571200</v>
+        <v>4158300</v>
       </c>
       <c r="G70" s="3">
-        <v>4167000</v>
+        <v>3569800</v>
       </c>
       <c r="H70" s="3">
-        <v>4167000</v>
+        <v>4165400</v>
       </c>
       <c r="I70" s="3">
-        <v>4167000</v>
+        <v>4165400</v>
       </c>
       <c r="J70" s="3">
+        <v>4165400</v>
+      </c>
+      <c r="K70" s="3">
         <v>2841100</v>
-      </c>
-      <c r="K70" s="3">
-        <v>3028200</v>
       </c>
       <c r="L70" s="3">
         <v>3028200</v>
       </c>
       <c r="M70" s="3">
+        <v>3028200</v>
+      </c>
+      <c r="N70" s="3">
         <v>3220000</v>
-      </c>
-      <c r="N70" s="3">
-        <v>2990000</v>
       </c>
       <c r="O70" s="3">
         <v>2990000</v>
       </c>
       <c r="P70" s="3">
+        <v>2990000</v>
+      </c>
+      <c r="Q70" s="3">
         <v>3040500</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>3187300</v>
       </c>
       <c r="R70" s="3">
         <v>3187300</v>
       </c>
       <c r="S70" s="3">
-        <v>3407700</v>
+        <v>3187300</v>
       </c>
       <c r="T70" s="3">
         <v>3407700</v>
       </c>
       <c r="U70" s="3">
+        <v>3407700</v>
+      </c>
+      <c r="V70" s="3">
         <v>2246800</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>2319300</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>2496000</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>2761000</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4798,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>40489700</v>
+        <v>40865300</v>
       </c>
       <c r="E72" s="3">
-        <v>39419700</v>
+        <v>40473800</v>
       </c>
       <c r="F72" s="3">
-        <v>38515300</v>
+        <v>39404100</v>
       </c>
       <c r="G72" s="3">
-        <v>37584300</v>
+        <v>38500100</v>
       </c>
       <c r="H72" s="3">
-        <v>36665800</v>
+        <v>37569400</v>
       </c>
       <c r="I72" s="3">
-        <v>36150800</v>
+        <v>36651300</v>
       </c>
       <c r="J72" s="3">
+        <v>36136500</v>
+      </c>
+      <c r="K72" s="3">
         <v>35967100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>35693300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>34932300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>36521300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>33449400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>32826700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>30388700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>30724400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>30016700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>28815800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>28453400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>27695800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>27932800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>27496500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>26814300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50832000</v>
+        <v>51927800</v>
       </c>
       <c r="E76" s="3">
-        <v>50808400</v>
+        <v>50811900</v>
       </c>
       <c r="F76" s="3">
-        <v>49818500</v>
+        <v>50788400</v>
       </c>
       <c r="G76" s="3">
-        <v>49762000</v>
+        <v>49798800</v>
       </c>
       <c r="H76" s="3">
-        <v>49316100</v>
+        <v>49742300</v>
       </c>
       <c r="I76" s="3">
-        <v>49366300</v>
+        <v>49296600</v>
       </c>
       <c r="J76" s="3">
+        <v>49346800</v>
+      </c>
+      <c r="K76" s="3">
         <v>50450500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>49497300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>49616600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52672900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>48938200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>48133000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>44360100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>45733500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>43105500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>40991800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>41269400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>39714800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>42341000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>40720800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>40452700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1892800</v>
+        <v>2046600</v>
       </c>
       <c r="E81" s="3">
-        <v>1904500</v>
+        <v>1892000</v>
       </c>
       <c r="F81" s="3">
-        <v>1797000</v>
+        <v>1903800</v>
       </c>
       <c r="G81" s="3">
-        <v>1778100</v>
+        <v>1796300</v>
       </c>
       <c r="H81" s="3">
-        <v>1369900</v>
+        <v>1777400</v>
       </c>
       <c r="I81" s="3">
-        <v>1045700</v>
+        <v>1369400</v>
       </c>
       <c r="J81" s="3">
+        <v>1045300</v>
+      </c>
+      <c r="K81" s="3">
         <v>975800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1763600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1666200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1524600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1635900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1622000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1536200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1472500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1537200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1673700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1478000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1500300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1509600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1466600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,76 +5400,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300700</v>
+        <v>294300</v>
       </c>
       <c r="E83" s="3">
-        <v>292800</v>
+        <v>300600</v>
       </c>
       <c r="F83" s="3">
-        <v>294400</v>
+        <v>292700</v>
       </c>
       <c r="G83" s="3">
-        <v>298300</v>
+        <v>294300</v>
       </c>
       <c r="H83" s="3">
-        <v>319500</v>
+        <v>298200</v>
       </c>
       <c r="I83" s="3">
-        <v>296000</v>
+        <v>319400</v>
       </c>
       <c r="J83" s="3">
+        <v>295800</v>
+      </c>
+      <c r="K83" s="3">
         <v>285000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>311100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>211300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>228800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>198600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>190900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>169300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>159600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>153600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>148100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>145100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>142100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>144400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>143700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>140600</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4707900</v>
+        <v>15661100</v>
       </c>
       <c r="E89" s="3">
-        <v>15752800</v>
+        <v>4706100</v>
       </c>
       <c r="F89" s="3">
-        <v>-35722100</v>
+        <v>15746600</v>
       </c>
       <c r="G89" s="3">
-        <v>5207200</v>
+        <v>-35708000</v>
       </c>
       <c r="H89" s="3">
-        <v>6951600</v>
+        <v>5205200</v>
       </c>
       <c r="I89" s="3">
-        <v>-32066200</v>
+        <v>6948900</v>
       </c>
       <c r="J89" s="3">
+        <v>-32053500</v>
+      </c>
+      <c r="K89" s="3">
         <v>56085500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13420500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3169400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5834000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1967700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8936800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13302100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8250600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1346000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6458300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-67700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>10880400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4796100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6374800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-18996000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,62 +5924,63 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-149900</v>
       </c>
-      <c r="E91" s="3">
-        <v>-69900</v>
-      </c>
       <c r="F91" s="3">
-        <v>-107600</v>
+        <v>-69800</v>
       </c>
       <c r="G91" s="3">
+        <v>-107500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-35300</v>
       </c>
-      <c r="H91" s="3">
-        <v>-159400</v>
-      </c>
       <c r="I91" s="3">
+        <v>-159300</v>
+      </c>
+      <c r="J91" s="3">
         <v>-129500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-241800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-74100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-115400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>54700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-67000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-141700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-79800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-68500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17900</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
@@ -5770,11 +5990,14 @@
       <c r="W91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-83000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4291100</v>
+        <v>-12689200</v>
       </c>
       <c r="E94" s="3">
-        <v>-15404300</v>
+        <v>-4289400</v>
       </c>
       <c r="F94" s="3">
-        <v>35949800</v>
+        <v>-15398200</v>
       </c>
       <c r="G94" s="3">
-        <v>-4716600</v>
+        <v>35935600</v>
       </c>
       <c r="H94" s="3">
-        <v>-5685300</v>
+        <v>-4714700</v>
       </c>
       <c r="I94" s="3">
-        <v>29875100</v>
+        <v>-5683100</v>
       </c>
       <c r="J94" s="3">
+        <v>29863300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-55092500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13328500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-790600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>5533100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1522700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>8880600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11479500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>8039800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-811500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5603900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>498600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11229400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>4276700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2833200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>16361800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,76 +6235,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-920900</v>
+        <v>-981700</v>
       </c>
       <c r="E96" s="3">
-        <v>-885500</v>
+        <v>-920500</v>
       </c>
       <c r="F96" s="3">
-        <v>-917700</v>
+        <v>-885200</v>
       </c>
       <c r="G96" s="3">
-        <v>-890200</v>
+        <v>-917400</v>
       </c>
       <c r="H96" s="3">
-        <v>-920900</v>
+        <v>-889900</v>
       </c>
       <c r="I96" s="3">
-        <v>-873800</v>
+        <v>-920500</v>
       </c>
       <c r="J96" s="3">
+        <v>-873400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-907500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-870900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-853000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-880500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-818300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-801400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-757900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-761100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-739200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-728600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-630300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-699600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-727500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-717500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-709800</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,208 +6517,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>553500</v>
+        <v>-2403700</v>
       </c>
       <c r="E100" s="3">
-        <v>106800</v>
+        <v>553200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1176800</v>
+        <v>106700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1663500</v>
+        <v>-1176300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1165800</v>
+        <v>-1662900</v>
       </c>
       <c r="I100" s="3">
-        <v>1910800</v>
+        <v>-1165300</v>
       </c>
       <c r="J100" s="3">
+        <v>1910100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-25900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-602700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2052900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1164800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-665900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>619700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6303300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6132200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1036600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-718200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>174100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-746400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>872700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2534400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>469400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-75400</v>
+        <v>114600</v>
       </c>
       <c r="E101" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="F101" s="3">
         <v>25900</v>
       </c>
-      <c r="F101" s="3">
-        <v>-230800</v>
-      </c>
       <c r="G101" s="3">
+        <v>-230700</v>
+      </c>
+      <c r="H101" s="3">
         <v>-146000</v>
       </c>
-      <c r="H101" s="3">
-        <v>-75400</v>
-      </c>
       <c r="I101" s="3">
-        <v>-168800</v>
+        <v>-75300</v>
       </c>
       <c r="J101" s="3">
+        <v>-168700</v>
+      </c>
+      <c r="K101" s="3">
         <v>155400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-48300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-127700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>113900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>53900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-77800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>13600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>166400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-131000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>114600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-353500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>285800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-148300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>93000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>895000</v>
+        <v>682700</v>
       </c>
       <c r="E102" s="3">
-        <v>481200</v>
+        <v>894600</v>
       </c>
       <c r="F102" s="3">
-        <v>-1179900</v>
+        <v>481000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1318900</v>
+        <v>-1179500</v>
       </c>
       <c r="H102" s="3">
+        <v>-1318400</v>
+      </c>
+      <c r="I102" s="3">
         <v>25100</v>
       </c>
-      <c r="I102" s="3">
-        <v>-449000</v>
-      </c>
       <c r="J102" s="3">
+        <v>-448900</v>
+      </c>
+      <c r="K102" s="3">
         <v>1122600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-523200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>277600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>736200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-107000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>617400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>726000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>460700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-335700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>719700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>639200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>858900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-460900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
@@ -755,25 +755,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5071800</v>
+        <v>4954800</v>
       </c>
       <c r="E8" s="3">
-        <v>4854400</v>
+        <v>4742400</v>
       </c>
       <c r="F8" s="3">
-        <v>4787700</v>
+        <v>4677300</v>
       </c>
       <c r="G8" s="3">
-        <v>4855200</v>
+        <v>4743200</v>
       </c>
       <c r="H8" s="3">
-        <v>5110200</v>
+        <v>4992400</v>
       </c>
       <c r="I8" s="3">
-        <v>5220100</v>
+        <v>5099700</v>
       </c>
       <c r="J8" s="3">
-        <v>5482200</v>
+        <v>5355700</v>
       </c>
       <c r="K8" s="3">
         <v>6153200</v>
@@ -1208,25 +1208,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-313900</v>
+        <v>-306700</v>
       </c>
       <c r="E15" s="3">
-        <v>-320200</v>
+        <v>-312800</v>
       </c>
       <c r="F15" s="3">
-        <v>-311500</v>
+        <v>-304400</v>
       </c>
       <c r="G15" s="3">
-        <v>-314700</v>
+        <v>-307400</v>
       </c>
       <c r="H15" s="3">
-        <v>-320200</v>
+        <v>-312800</v>
       </c>
       <c r="I15" s="3">
-        <v>-339800</v>
+        <v>-332000</v>
       </c>
       <c r="J15" s="3">
-        <v>-316300</v>
+        <v>-309000</v>
       </c>
       <c r="K15" s="3">
         <v>-306200</v>
@@ -1303,25 +1303,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1837100</v>
+        <v>1794700</v>
       </c>
       <c r="E17" s="3">
-        <v>1677000</v>
+        <v>1638300</v>
       </c>
       <c r="F17" s="3">
-        <v>1776700</v>
+        <v>1735700</v>
       </c>
       <c r="G17" s="3">
-        <v>1967300</v>
+        <v>1922000</v>
       </c>
       <c r="H17" s="3">
-        <v>2295400</v>
+        <v>2242400</v>
       </c>
       <c r="I17" s="3">
-        <v>2469600</v>
+        <v>2412600</v>
       </c>
       <c r="J17" s="3">
-        <v>2704200</v>
+        <v>2641800</v>
       </c>
       <c r="K17" s="3">
         <v>3371000</v>
@@ -1374,25 +1374,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3234700</v>
+        <v>3160100</v>
       </c>
       <c r="E18" s="3">
-        <v>3177400</v>
+        <v>3104100</v>
       </c>
       <c r="F18" s="3">
-        <v>3011000</v>
+        <v>2941600</v>
       </c>
       <c r="G18" s="3">
-        <v>2887800</v>
+        <v>2821200</v>
       </c>
       <c r="H18" s="3">
-        <v>2814900</v>
+        <v>2749900</v>
       </c>
       <c r="I18" s="3">
-        <v>2750500</v>
+        <v>2687100</v>
       </c>
       <c r="J18" s="3">
-        <v>2778000</v>
+        <v>2713900</v>
       </c>
       <c r="K18" s="3">
         <v>2782200</v>
@@ -1472,25 +1472,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-406500</v>
+        <v>-397100</v>
       </c>
       <c r="E20" s="3">
-        <v>-628600</v>
+        <v>-614100</v>
       </c>
       <c r="F20" s="3">
-        <v>-437100</v>
+        <v>-427000</v>
       </c>
       <c r="G20" s="3">
-        <v>-378200</v>
+        <v>-369500</v>
       </c>
       <c r="H20" s="3">
-        <v>-382200</v>
+        <v>-373400</v>
       </c>
       <c r="I20" s="3">
-        <v>-932300</v>
+        <v>-910800</v>
       </c>
       <c r="J20" s="3">
-        <v>-1573400</v>
+        <v>-1537100</v>
       </c>
       <c r="K20" s="3">
         <v>-1410700</v>
@@ -1543,25 +1543,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3122500</v>
+        <v>3050500</v>
       </c>
       <c r="E21" s="3">
-        <v>2849400</v>
+        <v>2783700</v>
       </c>
       <c r="F21" s="3">
-        <v>2866700</v>
+        <v>2800500</v>
       </c>
       <c r="G21" s="3">
-        <v>2803900</v>
+        <v>2739200</v>
       </c>
       <c r="H21" s="3">
-        <v>2730900</v>
+        <v>2667900</v>
       </c>
       <c r="I21" s="3">
-        <v>2137600</v>
+        <v>2088300</v>
       </c>
       <c r="J21" s="3">
-        <v>1500400</v>
+        <v>1465800</v>
       </c>
       <c r="K21" s="3">
         <v>1656500</v>
@@ -1685,25 +1685,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2828200</v>
+        <v>2763000</v>
       </c>
       <c r="E23" s="3">
-        <v>2548800</v>
+        <v>2490000</v>
       </c>
       <c r="F23" s="3">
-        <v>2573900</v>
+        <v>2514600</v>
       </c>
       <c r="G23" s="3">
-        <v>2509600</v>
+        <v>2451700</v>
       </c>
       <c r="H23" s="3">
-        <v>2432700</v>
+        <v>2376600</v>
       </c>
       <c r="I23" s="3">
-        <v>1818200</v>
+        <v>1776300</v>
       </c>
       <c r="J23" s="3">
-        <v>1204600</v>
+        <v>1176800</v>
       </c>
       <c r="K23" s="3">
         <v>1371500</v>
@@ -1756,25 +1756,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>678000</v>
+        <v>662400</v>
       </c>
       <c r="E24" s="3">
-        <v>540700</v>
+        <v>528200</v>
       </c>
       <c r="F24" s="3">
-        <v>579100</v>
+        <v>565800</v>
       </c>
       <c r="G24" s="3">
-        <v>582300</v>
+        <v>568800</v>
       </c>
       <c r="H24" s="3">
-        <v>550900</v>
+        <v>538200</v>
       </c>
       <c r="I24" s="3">
-        <v>328000</v>
+        <v>320500</v>
       </c>
       <c r="J24" s="3">
-        <v>181300</v>
+        <v>177100</v>
       </c>
       <c r="K24" s="3">
         <v>332100</v>
@@ -1898,25 +1898,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2150200</v>
+        <v>2100600</v>
       </c>
       <c r="E26" s="3">
-        <v>2008100</v>
+        <v>1961800</v>
       </c>
       <c r="F26" s="3">
-        <v>1994800</v>
+        <v>1948800</v>
       </c>
       <c r="G26" s="3">
-        <v>1927300</v>
+        <v>1882900</v>
       </c>
       <c r="H26" s="3">
-        <v>1881800</v>
+        <v>1838400</v>
       </c>
       <c r="I26" s="3">
-        <v>1490200</v>
+        <v>1455800</v>
       </c>
       <c r="J26" s="3">
-        <v>1023300</v>
+        <v>999700</v>
       </c>
       <c r="K26" s="3">
         <v>1039400</v>
@@ -1969,25 +1969,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2046600</v>
+        <v>1999400</v>
       </c>
       <c r="E27" s="3">
-        <v>1892000</v>
+        <v>1848400</v>
       </c>
       <c r="F27" s="3">
-        <v>1903800</v>
+        <v>1859900</v>
       </c>
       <c r="G27" s="3">
-        <v>1796300</v>
+        <v>1754800</v>
       </c>
       <c r="H27" s="3">
-        <v>1777400</v>
+        <v>1736400</v>
       </c>
       <c r="I27" s="3">
-        <v>1369400</v>
+        <v>1337800</v>
       </c>
       <c r="J27" s="3">
-        <v>1045300</v>
+        <v>1021200</v>
       </c>
       <c r="K27" s="3">
         <v>975800</v>
@@ -2324,25 +2324,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>406500</v>
+        <v>397100</v>
       </c>
       <c r="E32" s="3">
-        <v>628600</v>
+        <v>614100</v>
       </c>
       <c r="F32" s="3">
-        <v>437100</v>
+        <v>427000</v>
       </c>
       <c r="G32" s="3">
-        <v>378200</v>
+        <v>369500</v>
       </c>
       <c r="H32" s="3">
-        <v>382200</v>
+        <v>373400</v>
       </c>
       <c r="I32" s="3">
-        <v>932300</v>
+        <v>910800</v>
       </c>
       <c r="J32" s="3">
-        <v>1573400</v>
+        <v>1537100</v>
       </c>
       <c r="K32" s="3">
         <v>1410700</v>
@@ -2395,25 +2395,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2046600</v>
+        <v>1999400</v>
       </c>
       <c r="E33" s="3">
-        <v>1892000</v>
+        <v>1848400</v>
       </c>
       <c r="F33" s="3">
-        <v>1903800</v>
+        <v>1859900</v>
       </c>
       <c r="G33" s="3">
-        <v>1796300</v>
+        <v>1754800</v>
       </c>
       <c r="H33" s="3">
-        <v>1777400</v>
+        <v>1736400</v>
       </c>
       <c r="I33" s="3">
-        <v>1369400</v>
+        <v>1337800</v>
       </c>
       <c r="J33" s="3">
-        <v>1045300</v>
+        <v>1021200</v>
       </c>
       <c r="K33" s="3">
         <v>975800</v>
@@ -2537,25 +2537,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2046600</v>
+        <v>1999400</v>
       </c>
       <c r="E35" s="3">
-        <v>1892000</v>
+        <v>1848400</v>
       </c>
       <c r="F35" s="3">
-        <v>1903800</v>
+        <v>1859900</v>
       </c>
       <c r="G35" s="3">
-        <v>1796300</v>
+        <v>1754800</v>
       </c>
       <c r="H35" s="3">
-        <v>1777400</v>
+        <v>1736400</v>
       </c>
       <c r="I35" s="3">
-        <v>1369400</v>
+        <v>1337800</v>
       </c>
       <c r="J35" s="3">
-        <v>1045300</v>
+        <v>1021200</v>
       </c>
       <c r="K35" s="3">
         <v>975800</v>
@@ -2738,25 +2738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8289200</v>
+        <v>8098000</v>
       </c>
       <c r="E41" s="3">
-        <v>7606500</v>
+        <v>7431000</v>
       </c>
       <c r="F41" s="3">
-        <v>6711900</v>
+        <v>6557100</v>
       </c>
       <c r="G41" s="3">
-        <v>6230800</v>
+        <v>6087100</v>
       </c>
       <c r="H41" s="3">
-        <v>7410300</v>
+        <v>7239400</v>
       </c>
       <c r="I41" s="3">
-        <v>8728700</v>
+        <v>8527300</v>
       </c>
       <c r="J41" s="3">
-        <v>8703600</v>
+        <v>8502800</v>
       </c>
       <c r="K41" s="3">
         <v>9156000</v>
@@ -2809,25 +2809,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>326973700</v>
+        <v>319432100</v>
       </c>
       <c r="E42" s="3">
-        <v>309965200</v>
+        <v>302815900</v>
       </c>
       <c r="F42" s="3">
-        <v>299212700</v>
+        <v>292311400</v>
       </c>
       <c r="G42" s="3">
-        <v>283740000</v>
+        <v>277195600</v>
       </c>
       <c r="H42" s="3">
-        <v>305270100</v>
+        <v>298229100</v>
       </c>
       <c r="I42" s="3">
-        <v>274965800</v>
+        <v>268623800</v>
       </c>
       <c r="J42" s="3">
-        <v>280687400</v>
+        <v>274213300</v>
       </c>
       <c r="K42" s="3">
         <v>326294300</v>
@@ -3164,25 +3164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2150200</v>
+        <v>2100600</v>
       </c>
       <c r="E47" s="3">
-        <v>2043500</v>
+        <v>1996300</v>
       </c>
       <c r="F47" s="3">
-        <v>1965000</v>
+        <v>1919700</v>
       </c>
       <c r="G47" s="3">
-        <v>1946200</v>
+        <v>1901300</v>
       </c>
       <c r="H47" s="3">
-        <v>1974400</v>
+        <v>1928900</v>
       </c>
       <c r="I47" s="3">
-        <v>1942200</v>
+        <v>1897400</v>
       </c>
       <c r="J47" s="3">
-        <v>1882600</v>
+        <v>1839200</v>
       </c>
       <c r="K47" s="3">
         <v>1909200</v>
@@ -3235,25 +3235,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4380400</v>
+        <v>4279400</v>
       </c>
       <c r="E48" s="3">
-        <v>4411000</v>
+        <v>4309300</v>
       </c>
       <c r="F48" s="3">
-        <v>4345900</v>
+        <v>4245700</v>
       </c>
       <c r="G48" s="3">
-        <v>4361600</v>
+        <v>4261000</v>
       </c>
       <c r="H48" s="3">
-        <v>4496600</v>
+        <v>4392800</v>
       </c>
       <c r="I48" s="3">
-        <v>4627600</v>
+        <v>4520900</v>
       </c>
       <c r="J48" s="3">
-        <v>4728100</v>
+        <v>4619000</v>
       </c>
       <c r="K48" s="3">
         <v>4807600</v>
@@ -3306,25 +3306,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13146000</v>
+        <v>12842800</v>
       </c>
       <c r="E49" s="3">
-        <v>13029800</v>
+        <v>12729300</v>
       </c>
       <c r="F49" s="3">
-        <v>13107500</v>
+        <v>12805200</v>
       </c>
       <c r="G49" s="3">
-        <v>13184400</v>
+        <v>12880300</v>
       </c>
       <c r="H49" s="3">
-        <v>13322500</v>
+        <v>13015200</v>
       </c>
       <c r="I49" s="3">
-        <v>13352400</v>
+        <v>13044400</v>
       </c>
       <c r="J49" s="3">
-        <v>13447300</v>
+        <v>13137100</v>
       </c>
       <c r="K49" s="3">
         <v>13433800</v>
@@ -3519,25 +3519,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1545200</v>
+        <v>1509500</v>
       </c>
       <c r="E52" s="3">
-        <v>1609500</v>
+        <v>1572400</v>
       </c>
       <c r="F52" s="3">
-        <v>1654200</v>
+        <v>1616100</v>
       </c>
       <c r="G52" s="3">
-        <v>1610300</v>
+        <v>1573100</v>
       </c>
       <c r="H52" s="3">
-        <v>1660500</v>
+        <v>1622200</v>
       </c>
       <c r="I52" s="3">
-        <v>1714700</v>
+        <v>1675100</v>
       </c>
       <c r="J52" s="3">
-        <v>1698200</v>
+        <v>1659000</v>
       </c>
       <c r="K52" s="3">
         <v>1311000</v>
@@ -3661,25 +3661,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>977373300</v>
+        <v>954830200</v>
       </c>
       <c r="E54" s="3">
-        <v>929794500</v>
+        <v>908348800</v>
       </c>
       <c r="F54" s="3">
-        <v>912989300</v>
+        <v>891931200</v>
       </c>
       <c r="G54" s="3">
-        <v>883027100</v>
+        <v>862660100</v>
       </c>
       <c r="H54" s="3">
-        <v>913476600</v>
+        <v>892407300</v>
       </c>
       <c r="I54" s="3">
-        <v>891830300</v>
+        <v>871260300</v>
       </c>
       <c r="J54" s="3">
-        <v>918045400</v>
+        <v>896870700</v>
       </c>
       <c r="K54" s="3">
         <v>979014700</v>
@@ -4070,25 +4070,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4973700</v>
+        <v>4859000</v>
       </c>
       <c r="E61" s="3">
-        <v>4970500</v>
+        <v>4855900</v>
       </c>
       <c r="F61" s="3">
-        <v>5036500</v>
+        <v>4920300</v>
       </c>
       <c r="G61" s="3">
-        <v>5052900</v>
+        <v>4936400</v>
       </c>
       <c r="H61" s="3">
-        <v>5179300</v>
+        <v>5059800</v>
       </c>
       <c r="I61" s="3">
-        <v>5811000</v>
+        <v>5677000</v>
       </c>
       <c r="J61" s="3">
-        <v>5756900</v>
+        <v>5624100</v>
       </c>
       <c r="K61" s="3">
         <v>5875300</v>
@@ -4425,25 +4425,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>921088600</v>
+        <v>899843700</v>
       </c>
       <c r="E66" s="3">
-        <v>874233300</v>
+        <v>854069200</v>
       </c>
       <c r="F66" s="3">
-        <v>858042600</v>
+        <v>838251800</v>
       </c>
       <c r="G66" s="3">
-        <v>829658500</v>
+        <v>810522500</v>
       </c>
       <c r="H66" s="3">
-        <v>859568900</v>
+        <v>839743000</v>
       </c>
       <c r="I66" s="3">
-        <v>838368300</v>
+        <v>819031400</v>
       </c>
       <c r="J66" s="3">
-        <v>864533100</v>
+        <v>844592700</v>
       </c>
       <c r="K66" s="3">
         <v>925723100</v>
@@ -4665,25 +4665,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4356900</v>
+        <v>4256400</v>
       </c>
       <c r="E70" s="3">
-        <v>4749200</v>
+        <v>4639700</v>
       </c>
       <c r="F70" s="3">
-        <v>4158300</v>
+        <v>4062400</v>
       </c>
       <c r="G70" s="3">
-        <v>3569800</v>
+        <v>3487400</v>
       </c>
       <c r="H70" s="3">
-        <v>4165400</v>
+        <v>4069300</v>
       </c>
       <c r="I70" s="3">
-        <v>4165400</v>
+        <v>4069300</v>
       </c>
       <c r="J70" s="3">
-        <v>4165400</v>
+        <v>4069300</v>
       </c>
       <c r="K70" s="3">
         <v>2841100</v>
@@ -4807,25 +4807,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>40865300</v>
+        <v>39922800</v>
       </c>
       <c r="E72" s="3">
-        <v>40473800</v>
+        <v>39540200</v>
       </c>
       <c r="F72" s="3">
-        <v>39404100</v>
+        <v>38495300</v>
       </c>
       <c r="G72" s="3">
-        <v>38500100</v>
+        <v>37612100</v>
       </c>
       <c r="H72" s="3">
-        <v>37569400</v>
+        <v>36702900</v>
       </c>
       <c r="I72" s="3">
-        <v>36651300</v>
+        <v>35805900</v>
       </c>
       <c r="J72" s="3">
-        <v>36136500</v>
+        <v>35303000</v>
       </c>
       <c r="K72" s="3">
         <v>35967100</v>
@@ -5091,25 +5091,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>51927800</v>
+        <v>50730100</v>
       </c>
       <c r="E76" s="3">
-        <v>50811900</v>
+        <v>49639900</v>
       </c>
       <c r="F76" s="3">
-        <v>50788400</v>
+        <v>49616900</v>
       </c>
       <c r="G76" s="3">
-        <v>49798800</v>
+        <v>48650200</v>
       </c>
       <c r="H76" s="3">
-        <v>49742300</v>
+        <v>48595000</v>
       </c>
       <c r="I76" s="3">
-        <v>49296600</v>
+        <v>48159600</v>
       </c>
       <c r="J76" s="3">
-        <v>49346800</v>
+        <v>48208600</v>
       </c>
       <c r="K76" s="3">
         <v>50450500</v>
@@ -5309,25 +5309,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2046600</v>
+        <v>1999400</v>
       </c>
       <c r="E81" s="3">
-        <v>1892000</v>
+        <v>1848400</v>
       </c>
       <c r="F81" s="3">
-        <v>1903800</v>
+        <v>1859900</v>
       </c>
       <c r="G81" s="3">
-        <v>1796300</v>
+        <v>1754800</v>
       </c>
       <c r="H81" s="3">
-        <v>1777400</v>
+        <v>1736400</v>
       </c>
       <c r="I81" s="3">
-        <v>1369400</v>
+        <v>1337800</v>
       </c>
       <c r="J81" s="3">
-        <v>1045300</v>
+        <v>1021200</v>
       </c>
       <c r="K81" s="3">
         <v>975800</v>
@@ -5407,25 +5407,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>294300</v>
+        <v>287500</v>
       </c>
       <c r="E83" s="3">
-        <v>300600</v>
+        <v>293600</v>
       </c>
       <c r="F83" s="3">
-        <v>292700</v>
+        <v>286000</v>
       </c>
       <c r="G83" s="3">
-        <v>294300</v>
+        <v>287500</v>
       </c>
       <c r="H83" s="3">
-        <v>298200</v>
+        <v>291300</v>
       </c>
       <c r="I83" s="3">
-        <v>319400</v>
+        <v>312000</v>
       </c>
       <c r="J83" s="3">
-        <v>295800</v>
+        <v>289000</v>
       </c>
       <c r="K83" s="3">
         <v>285000</v>
@@ -5833,25 +5833,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15661100</v>
+        <v>15299800</v>
       </c>
       <c r="E89" s="3">
-        <v>4706100</v>
+        <v>4597500</v>
       </c>
       <c r="F89" s="3">
-        <v>15746600</v>
+        <v>15383400</v>
       </c>
       <c r="G89" s="3">
-        <v>-35708000</v>
+        <v>-34884400</v>
       </c>
       <c r="H89" s="3">
-        <v>5205200</v>
+        <v>5085100</v>
       </c>
       <c r="I89" s="3">
-        <v>6948900</v>
+        <v>6788600</v>
       </c>
       <c r="J89" s="3">
-        <v>-32053500</v>
+        <v>-31314200</v>
       </c>
       <c r="K89" s="3">
         <v>56085500</v>
@@ -5931,25 +5931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-35300</v>
+        <v>-34500</v>
       </c>
       <c r="E91" s="3">
-        <v>-149900</v>
+        <v>-146400</v>
       </c>
       <c r="F91" s="3">
-        <v>-69800</v>
+        <v>-68200</v>
       </c>
       <c r="G91" s="3">
-        <v>-107500</v>
+        <v>-105000</v>
       </c>
       <c r="H91" s="3">
-        <v>-35300</v>
+        <v>-34500</v>
       </c>
       <c r="I91" s="3">
-        <v>-159300</v>
+        <v>-155600</v>
       </c>
       <c r="J91" s="3">
-        <v>-129500</v>
+        <v>-126500</v>
       </c>
       <c r="K91" s="3">
         <v>-241800</v>
@@ -6144,25 +6144,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12689200</v>
+        <v>-12396600</v>
       </c>
       <c r="E94" s="3">
-        <v>-4289400</v>
+        <v>-4190500</v>
       </c>
       <c r="F94" s="3">
-        <v>-15398200</v>
+        <v>-15043000</v>
       </c>
       <c r="G94" s="3">
-        <v>35935600</v>
+        <v>35106700</v>
       </c>
       <c r="H94" s="3">
-        <v>-4714700</v>
+        <v>-4606000</v>
       </c>
       <c r="I94" s="3">
-        <v>-5683100</v>
+        <v>-5552000</v>
       </c>
       <c r="J94" s="3">
-        <v>29863300</v>
+        <v>29174500</v>
       </c>
       <c r="K94" s="3">
         <v>-55092500</v>
@@ -6242,25 +6242,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-981700</v>
+        <v>-959100</v>
       </c>
       <c r="E96" s="3">
-        <v>-920500</v>
+        <v>-899300</v>
       </c>
       <c r="F96" s="3">
-        <v>-885200</v>
+        <v>-864800</v>
       </c>
       <c r="G96" s="3">
-        <v>-917400</v>
+        <v>-896200</v>
       </c>
       <c r="H96" s="3">
-        <v>-889900</v>
+        <v>-869400</v>
       </c>
       <c r="I96" s="3">
-        <v>-920500</v>
+        <v>-899300</v>
       </c>
       <c r="J96" s="3">
-        <v>-873400</v>
+        <v>-853300</v>
       </c>
       <c r="K96" s="3">
         <v>-907500</v>
@@ -6526,25 +6526,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2403700</v>
+        <v>-2348200</v>
       </c>
       <c r="E100" s="3">
-        <v>553200</v>
+        <v>540500</v>
       </c>
       <c r="F100" s="3">
-        <v>106700</v>
+        <v>104300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1176300</v>
+        <v>-1149200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1662900</v>
+        <v>-1624500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1165300</v>
+        <v>-1138500</v>
       </c>
       <c r="J100" s="3">
-        <v>1910100</v>
+        <v>1866000</v>
       </c>
       <c r="K100" s="3">
         <v>-25900</v>
@@ -6597,25 +6597,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>114600</v>
+        <v>111900</v>
       </c>
       <c r="E101" s="3">
-        <v>-75300</v>
+        <v>-73600</v>
       </c>
       <c r="F101" s="3">
-        <v>25900</v>
+        <v>25300</v>
       </c>
       <c r="G101" s="3">
-        <v>-230700</v>
+        <v>-225400</v>
       </c>
       <c r="H101" s="3">
-        <v>-146000</v>
+        <v>-142600</v>
       </c>
       <c r="I101" s="3">
-        <v>-75300</v>
+        <v>-73600</v>
       </c>
       <c r="J101" s="3">
-        <v>-168700</v>
+        <v>-164800</v>
       </c>
       <c r="K101" s="3">
         <v>155400</v>
@@ -6668,25 +6668,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>682700</v>
+        <v>667000</v>
       </c>
       <c r="E102" s="3">
-        <v>894600</v>
+        <v>874000</v>
       </c>
       <c r="F102" s="3">
-        <v>481000</v>
+        <v>470000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1179500</v>
+        <v>-1152300</v>
       </c>
       <c r="H102" s="3">
-        <v>-1318400</v>
+        <v>-1288000</v>
       </c>
       <c r="I102" s="3">
-        <v>25100</v>
+        <v>24500</v>
       </c>
       <c r="J102" s="3">
-        <v>-448900</v>
+        <v>-438500</v>
       </c>
       <c r="K102" s="3">
         <v>1122600</v>

--- a/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>BNS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,175 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4954800</v>
+        <v>6874800</v>
       </c>
       <c r="E8" s="3">
-        <v>4742400</v>
+        <v>5487400</v>
       </c>
       <c r="F8" s="3">
-        <v>4677300</v>
+        <v>5000700</v>
       </c>
       <c r="G8" s="3">
-        <v>4743200</v>
+        <v>4786400</v>
       </c>
       <c r="H8" s="3">
-        <v>4992400</v>
+        <v>4720600</v>
       </c>
       <c r="I8" s="3">
+        <v>4787200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5038700</v>
+      </c>
+      <c r="K8" s="3">
         <v>5099700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5355700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6153200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6421400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6433800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6997200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>6236300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6151600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5610000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>5368100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>5070000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4823200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>4649100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>4553100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>4481900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>4400400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>4378100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -891,8 +903,14 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,8 +980,14 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,8 +1013,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1086,14 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,8 +1163,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1202,79 +1240,91 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-306700</v>
+        <v>-313400</v>
       </c>
       <c r="E15" s="3">
-        <v>-312800</v>
+        <v>-313400</v>
       </c>
       <c r="F15" s="3">
-        <v>-304400</v>
+        <v>-309500</v>
       </c>
       <c r="G15" s="3">
-        <v>-307400</v>
+        <v>-315700</v>
       </c>
       <c r="H15" s="3">
-        <v>-312800</v>
+        <v>-307200</v>
       </c>
       <c r="I15" s="3">
+        <v>-310300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-315700</v>
+      </c>
+      <c r="K15" s="3">
         <v>-332000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-309000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-306200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-332100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-233100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-253700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-220200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-214000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-188900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-176900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-167100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>-148100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>-145100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>-142100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>-144400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>-143700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>-140600</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1347,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1794700</v>
+        <v>3575500</v>
       </c>
       <c r="E17" s="3">
-        <v>1638300</v>
+        <v>2195900</v>
       </c>
       <c r="F17" s="3">
-        <v>1735700</v>
+        <v>1811300</v>
       </c>
       <c r="G17" s="3">
-        <v>1922000</v>
+        <v>1653500</v>
       </c>
       <c r="H17" s="3">
-        <v>2242400</v>
+        <v>1751800</v>
       </c>
       <c r="I17" s="3">
+        <v>1939800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2263200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2412600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2641800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3371000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3719000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3640300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3962000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3680500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3391100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2972200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3002900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2498500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2298900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2196900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2127000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2068800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2026600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1994300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3160100</v>
+        <v>3299300</v>
       </c>
       <c r="E18" s="3">
-        <v>3104100</v>
+        <v>3291500</v>
       </c>
       <c r="F18" s="3">
-        <v>2941600</v>
+        <v>3189400</v>
       </c>
       <c r="G18" s="3">
-        <v>2821200</v>
+        <v>3132900</v>
       </c>
       <c r="H18" s="3">
-        <v>2749900</v>
+        <v>2968900</v>
       </c>
       <c r="I18" s="3">
+        <v>2847400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2775400</v>
+      </c>
+      <c r="K18" s="3">
         <v>2687100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2713900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2782200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2702300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2793600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3035200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2555800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2760600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2637900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>2365300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2571500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>2524400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>2452200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>2426100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2413000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>2373800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>2383800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,150 +1530,164 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-397100</v>
+        <v>-826400</v>
       </c>
       <c r="E20" s="3">
-        <v>-614100</v>
+        <v>-533900</v>
       </c>
       <c r="F20" s="3">
-        <v>-427000</v>
+        <v>-400800</v>
       </c>
       <c r="G20" s="3">
-        <v>-369500</v>
+        <v>-619800</v>
       </c>
       <c r="H20" s="3">
-        <v>-373400</v>
+        <v>-431000</v>
       </c>
       <c r="I20" s="3">
+        <v>-372900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-376800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-910800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1537100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1410700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-521600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-529400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-766000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-335600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-647400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-607500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-507400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-465200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-257500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-511300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-454700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-574600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-356500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-424100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3050500</v>
+        <v>2767700</v>
       </c>
       <c r="E21" s="3">
-        <v>2783700</v>
+        <v>3052400</v>
       </c>
       <c r="F21" s="3">
-        <v>2800500</v>
+        <v>3078800</v>
       </c>
       <c r="G21" s="3">
-        <v>2739200</v>
+        <v>2809500</v>
       </c>
       <c r="H21" s="3">
-        <v>2667900</v>
+        <v>2826500</v>
       </c>
       <c r="I21" s="3">
+        <v>2764600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2692700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2088300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1465800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1656500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2491800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2475500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2497900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2418800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2304100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2199700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>2017500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2259900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>2415000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>2086000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>2113600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1982800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>2161000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>2100300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1679,150 +1757,168 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2763000</v>
+        <v>2472900</v>
       </c>
       <c r="E23" s="3">
-        <v>2490000</v>
+        <v>2757600</v>
       </c>
       <c r="F23" s="3">
-        <v>2514600</v>
+        <v>2788600</v>
       </c>
       <c r="G23" s="3">
-        <v>2451700</v>
+        <v>2513100</v>
       </c>
       <c r="H23" s="3">
-        <v>2376600</v>
+        <v>2537900</v>
       </c>
       <c r="I23" s="3">
+        <v>2474500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2398600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1776300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1176800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1371500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2180700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2264200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2269100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2220200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2113200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2030400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1857900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2106300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2266900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1940900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1971400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1838400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>2017400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>1959800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>662400</v>
+        <v>465800</v>
       </c>
       <c r="E24" s="3">
-        <v>528200</v>
+        <v>632200</v>
       </c>
       <c r="F24" s="3">
-        <v>565800</v>
+        <v>668500</v>
       </c>
       <c r="G24" s="3">
-        <v>568800</v>
+        <v>533100</v>
       </c>
       <c r="H24" s="3">
-        <v>538200</v>
+        <v>571000</v>
       </c>
       <c r="I24" s="3">
+        <v>574100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>543200</v>
+      </c>
+      <c r="K24" s="3">
         <v>320500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>177100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>332100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>367200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>464700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>624300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>481100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>383400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>380100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>398200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>467500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>527600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>400400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>406300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>255100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>474000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>414800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,150 +1988,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2100600</v>
+        <v>2007100</v>
       </c>
       <c r="E26" s="3">
-        <v>1961800</v>
+        <v>2125500</v>
       </c>
       <c r="F26" s="3">
-        <v>1948800</v>
+        <v>2120100</v>
       </c>
       <c r="G26" s="3">
-        <v>1882900</v>
+        <v>1980000</v>
       </c>
       <c r="H26" s="3">
-        <v>1838400</v>
+        <v>1966900</v>
       </c>
       <c r="I26" s="3">
+        <v>1900300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1855500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1455800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>999700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1039400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1813500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1799500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1644800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1739000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1729800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1650300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1459700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1638800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1739200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1540500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1565100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1583300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>1543400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>1544900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1999400</v>
+        <v>1937500</v>
       </c>
       <c r="E27" s="3">
-        <v>1848400</v>
+        <v>2007900</v>
       </c>
       <c r="F27" s="3">
-        <v>1859900</v>
+        <v>2017900</v>
       </c>
       <c r="G27" s="3">
-        <v>1754800</v>
+        <v>1865500</v>
       </c>
       <c r="H27" s="3">
-        <v>1736400</v>
+        <v>1877100</v>
       </c>
       <c r="I27" s="3">
+        <v>1771100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1752500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1337800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1021200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>975800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1763600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1666200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1524600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1635900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1622000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1536200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1472500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1537200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1673700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1478000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1500300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1509600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>1466600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2105,8 +2219,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2176,8 +2296,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2373,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,150 +2450,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>397100</v>
+        <v>826400</v>
       </c>
       <c r="E32" s="3">
-        <v>614100</v>
+        <v>533900</v>
       </c>
       <c r="F32" s="3">
-        <v>427000</v>
+        <v>400800</v>
       </c>
       <c r="G32" s="3">
-        <v>369500</v>
+        <v>619800</v>
       </c>
       <c r="H32" s="3">
-        <v>373400</v>
+        <v>431000</v>
       </c>
       <c r="I32" s="3">
+        <v>372900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>376800</v>
+      </c>
+      <c r="K32" s="3">
         <v>910800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1537100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1410700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>521600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>529400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>766000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>335600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>647400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>607500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>507400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>465200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>257500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>511300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>454700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>574600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>356500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1999400</v>
+        <v>1937500</v>
       </c>
       <c r="E33" s="3">
-        <v>1848400</v>
+        <v>2007900</v>
       </c>
       <c r="F33" s="3">
-        <v>1859900</v>
+        <v>2017900</v>
       </c>
       <c r="G33" s="3">
-        <v>1754800</v>
+        <v>1865500</v>
       </c>
       <c r="H33" s="3">
-        <v>1736400</v>
+        <v>1877100</v>
       </c>
       <c r="I33" s="3">
+        <v>1771100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1752500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1337800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1021200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>975800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1763600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1666200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1524600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1635900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1622000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1536200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1472500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1537200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1673700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1478000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1500300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1509600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>1466600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2681,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1999400</v>
+        <v>1937500</v>
       </c>
       <c r="E35" s="3">
-        <v>1848400</v>
+        <v>2007900</v>
       </c>
       <c r="F35" s="3">
-        <v>1859900</v>
+        <v>2017900</v>
       </c>
       <c r="G35" s="3">
-        <v>1754800</v>
+        <v>1865500</v>
       </c>
       <c r="H35" s="3">
-        <v>1736400</v>
+        <v>1877100</v>
       </c>
       <c r="I35" s="3">
+        <v>1771100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1752500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1337800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1021200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>975800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1763600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1666200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1524600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1635900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1622000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1536200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1472500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1537200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1673700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1478000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1500300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1509600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>1466600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2873,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,150 +2902,164 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8098000</v>
+        <v>7283300</v>
       </c>
       <c r="E41" s="3">
-        <v>7431000</v>
+        <v>8235000</v>
       </c>
       <c r="F41" s="3">
-        <v>6557100</v>
+        <v>8173100</v>
       </c>
       <c r="G41" s="3">
-        <v>6087100</v>
+        <v>7500000</v>
       </c>
       <c r="H41" s="3">
-        <v>7239400</v>
+        <v>6617900</v>
       </c>
       <c r="I41" s="3">
+        <v>6143600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>7306500</v>
+      </c>
+      <c r="K41" s="3">
         <v>8527300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8502800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9156000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7978400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8501500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>8744800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7436500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>7543500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>6538000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6020800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5560100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>5828700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>5823400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>5103800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>6764300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>6125100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>5266200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>319432100</v>
+        <v>295434800</v>
       </c>
       <c r="E42" s="3">
-        <v>302815900</v>
+        <v>321051300</v>
       </c>
       <c r="F42" s="3">
-        <v>292311400</v>
+        <v>322394500</v>
       </c>
       <c r="G42" s="3">
-        <v>277195600</v>
+        <v>305624300</v>
       </c>
       <c r="H42" s="3">
-        <v>298229100</v>
+        <v>295022400</v>
       </c>
       <c r="I42" s="3">
+        <v>279766300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>300994900</v>
+      </c>
+      <c r="K42" s="3">
         <v>268623800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>274213300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>326294300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>310629100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>262831400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>269948600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>245269300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>241611900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>216781100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>195829300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>207922900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>208904200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>209121500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>207952400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>225427900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>214720300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>216684600</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2945,8 +3129,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3016,8 +3206,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3087,8 +3283,14 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3158,221 +3360,245 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2100600</v>
+        <v>2114700</v>
       </c>
       <c r="E47" s="3">
-        <v>1996300</v>
+        <v>2135600</v>
       </c>
       <c r="F47" s="3">
-        <v>1919700</v>
+        <v>2120100</v>
       </c>
       <c r="G47" s="3">
-        <v>1901300</v>
+        <v>2014800</v>
       </c>
       <c r="H47" s="3">
-        <v>1928900</v>
+        <v>1937500</v>
       </c>
       <c r="I47" s="3">
+        <v>1918900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1946800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1897400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1839200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1909200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1814300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>4377100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>4556500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>4082400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>3990700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>3524400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>3540400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>3617900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>3362300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>3412900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>3261100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>3474700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>3274200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>3302600</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4279400</v>
+        <v>4278100</v>
       </c>
       <c r="E48" s="3">
-        <v>4309300</v>
+        <v>4310600</v>
       </c>
       <c r="F48" s="3">
-        <v>4245700</v>
+        <v>4319100</v>
       </c>
       <c r="G48" s="3">
-        <v>4261000</v>
+        <v>4349200</v>
       </c>
       <c r="H48" s="3">
-        <v>4392800</v>
+        <v>4285000</v>
       </c>
       <c r="I48" s="3">
+        <v>4300500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4433600</v>
+      </c>
+      <c r="K48" s="3">
         <v>4520900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4619000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4807600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4758300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2080900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2183700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2095500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2063100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1950400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1955000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1799200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1722100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1772000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1658100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1809200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1747700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1935900</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12842800</v>
+        <v>12828800</v>
       </c>
       <c r="E49" s="3">
-        <v>12729300</v>
+        <v>12930900</v>
       </c>
       <c r="F49" s="3">
-        <v>12805200</v>
+        <v>12961900</v>
       </c>
       <c r="G49" s="3">
-        <v>12880300</v>
+        <v>12847300</v>
       </c>
       <c r="H49" s="3">
-        <v>13015200</v>
+        <v>12923900</v>
       </c>
       <c r="I49" s="3">
+        <v>12999800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>13136000</v>
+      </c>
+      <c r="K49" s="3">
         <v>13044400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>13137100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>13433800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>13403300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>13616900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>14601200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>13722000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>13752100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>12876200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>11209000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>9239000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>8967000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>9009400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>8879200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>9437700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>9261800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>9327100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3668,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,79 +3745,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1509500</v>
+        <v>700200</v>
       </c>
       <c r="E52" s="3">
-        <v>1572400</v>
+        <v>879800</v>
       </c>
       <c r="F52" s="3">
-        <v>1616100</v>
+        <v>1523500</v>
       </c>
       <c r="G52" s="3">
-        <v>1573100</v>
+        <v>1587000</v>
       </c>
       <c r="H52" s="3">
-        <v>1622200</v>
+        <v>1631100</v>
       </c>
       <c r="I52" s="3">
+        <v>1587700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1637300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1675100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1659000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1311000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1339500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1224100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1414400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1592800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1575800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1408300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1473200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1345200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1293400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1274800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1286000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1485000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1379000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>1552600</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3899,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>954830200</v>
+        <v>999763900</v>
       </c>
       <c r="E54" s="3">
-        <v>908348800</v>
+        <v>996981500</v>
       </c>
       <c r="F54" s="3">
-        <v>891931200</v>
+        <v>963685500</v>
       </c>
       <c r="G54" s="3">
-        <v>862660100</v>
+        <v>916773000</v>
       </c>
       <c r="H54" s="3">
-        <v>892407300</v>
+        <v>900203200</v>
       </c>
       <c r="I54" s="3">
+        <v>870660600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>900683700</v>
+      </c>
+      <c r="K54" s="3">
         <v>871260300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>896870700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>979014700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>899756300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>846847100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>884380800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>814599700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>796211700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>725594900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>712668600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>697316900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>687018900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>681155300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>674501300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>708036100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>681413900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>688538400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +4009,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,8 +4038,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3851,8 +4111,14 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3922,8 +4188,14 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3993,8 +4265,14 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4064,79 +4342,91 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4859000</v>
+        <v>6509600</v>
       </c>
       <c r="E61" s="3">
-        <v>4855900</v>
+        <v>6535900</v>
       </c>
       <c r="F61" s="3">
-        <v>4920300</v>
+        <v>4904000</v>
       </c>
       <c r="G61" s="3">
-        <v>4936400</v>
+        <v>4900900</v>
       </c>
       <c r="H61" s="3">
-        <v>5059800</v>
+        <v>4965900</v>
       </c>
       <c r="I61" s="3">
+        <v>4982200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>5106800</v>
+      </c>
+      <c r="K61" s="3">
         <v>5677000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5624100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5875300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5687700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5654200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>7478900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5815200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5767500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4140700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>4281100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>4266100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>4242700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>4416900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>5489300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>5854700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>5767100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>5863900</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4206,8 +4496,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4573,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,8 +4650,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4727,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>899843700</v>
+        <v>943980400</v>
       </c>
       <c r="E66" s="3">
-        <v>854069200</v>
+        <v>942521100</v>
       </c>
       <c r="F66" s="3">
-        <v>838251800</v>
+        <v>908189100</v>
       </c>
       <c r="G66" s="3">
-        <v>810522500</v>
+        <v>861990000</v>
       </c>
       <c r="H66" s="3">
-        <v>839743000</v>
+        <v>846026000</v>
       </c>
       <c r="I66" s="3">
+        <v>818039500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>847530900</v>
+      </c>
+      <c r="K66" s="3">
         <v>819031400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>844592700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>925723100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>847230700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>794202300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>828487900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>762671500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>745088800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>678194300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>663747700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>651024100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>642619400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>636478200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>632539800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>663375800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>638197100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>645324700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4837,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4910,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,79 +4987,91 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4256400</v>
+        <v>5456500</v>
       </c>
       <c r="E70" s="3">
-        <v>4639700</v>
+        <v>4295900</v>
       </c>
       <c r="F70" s="3">
-        <v>4062400</v>
+        <v>4295900</v>
       </c>
       <c r="G70" s="3">
-        <v>3487400</v>
+        <v>4682700</v>
       </c>
       <c r="H70" s="3">
+        <v>4100100</v>
+      </c>
+      <c r="I70" s="3">
+        <v>3519800</v>
+      </c>
+      <c r="J70" s="3">
+        <v>4107100</v>
+      </c>
+      <c r="K70" s="3">
         <v>4069300</v>
       </c>
-      <c r="I70" s="3">
+      <c r="L70" s="3">
         <v>4069300</v>
       </c>
-      <c r="J70" s="3">
-        <v>4069300</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>2841100</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>3028200</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>3028200</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>3220000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>2990000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>2990000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>3040500</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>3187300</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>3187300</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>3407700</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>3407700</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>2246800</v>
       </c>
-      <c r="W70" s="3">
+      <c r="Y70" s="3">
         <v>2319300</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Z70" s="3">
         <v>2496000</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="AA70" s="3">
         <v>2761000</v>
       </c>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +5141,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>39922800</v>
+        <v>42164700</v>
       </c>
       <c r="E72" s="3">
-        <v>39540200</v>
+        <v>40287600</v>
       </c>
       <c r="F72" s="3">
-        <v>38495300</v>
+        <v>40293000</v>
       </c>
       <c r="G72" s="3">
-        <v>37612100</v>
+        <v>39906900</v>
       </c>
       <c r="H72" s="3">
-        <v>36702900</v>
+        <v>38852300</v>
       </c>
       <c r="I72" s="3">
+        <v>37960900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>37043300</v>
+      </c>
+      <c r="K72" s="3">
         <v>35805900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>35303000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>35967100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>35693300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>34932300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>36521300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>33449400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>32826700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>30388700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>30724400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>30016700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>28815800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>28453400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>27695800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>27932800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>27496500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>26814300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5295,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5372,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5449,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50730100</v>
+        <v>50327000</v>
       </c>
       <c r="E76" s="3">
-        <v>49639900</v>
+        <v>50164500</v>
       </c>
       <c r="F76" s="3">
-        <v>49616900</v>
+        <v>51200600</v>
       </c>
       <c r="G76" s="3">
-        <v>48650200</v>
+        <v>50100300</v>
       </c>
       <c r="H76" s="3">
-        <v>48595000</v>
+        <v>50077100</v>
       </c>
       <c r="I76" s="3">
+        <v>49101400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>49045700</v>
+      </c>
+      <c r="K76" s="3">
         <v>48159600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>48208600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>50450500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>49497300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>49616600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>52672900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>48938200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>48133000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>44360100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>45733500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>43105500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>40991800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>41269400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>39714800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>42341000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>40720800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>40452700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5603,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1999400</v>
+        <v>1937500</v>
       </c>
       <c r="E81" s="3">
-        <v>1848400</v>
+        <v>2007900</v>
       </c>
       <c r="F81" s="3">
-        <v>1859900</v>
+        <v>2017900</v>
       </c>
       <c r="G81" s="3">
-        <v>1754800</v>
+        <v>1865500</v>
       </c>
       <c r="H81" s="3">
-        <v>1736400</v>
+        <v>1877100</v>
       </c>
       <c r="I81" s="3">
+        <v>1771100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1752500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1337800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1021200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>975800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1763600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1666200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1524600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1635900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1622000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1536200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1472500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1537200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1673700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1478000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1500300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1509600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>1466600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,79 +5795,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>287500</v>
+        <v>294800</v>
       </c>
       <c r="E83" s="3">
-        <v>293600</v>
+        <v>294800</v>
       </c>
       <c r="F83" s="3">
-        <v>286000</v>
+        <v>290200</v>
       </c>
       <c r="G83" s="3">
-        <v>287500</v>
+        <v>296300</v>
       </c>
       <c r="H83" s="3">
-        <v>291300</v>
+        <v>288600</v>
       </c>
       <c r="I83" s="3">
+        <v>290200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>294000</v>
+      </c>
+      <c r="K83" s="3">
         <v>312000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>289000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>285000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>311100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>211300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>228800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>198600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>190900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>169300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>159600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>153600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>148100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>145100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>142100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>144400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>143700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>140600</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5945,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +6022,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +6099,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +6176,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6253,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15299800</v>
+        <v>-7676400</v>
       </c>
       <c r="E89" s="3">
-        <v>4597500</v>
+        <v>7175800</v>
       </c>
       <c r="F89" s="3">
-        <v>15383400</v>
+        <v>15441700</v>
       </c>
       <c r="G89" s="3">
-        <v>-34884400</v>
+        <v>4640200</v>
       </c>
       <c r="H89" s="3">
-        <v>5085100</v>
+        <v>15526100</v>
       </c>
       <c r="I89" s="3">
+        <v>-35207900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>5132300</v>
+      </c>
+      <c r="K89" s="3">
         <v>6788600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-31314200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>56085500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>13420500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3169400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-5834000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1967700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-8936800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>13302100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-8250600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1346000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>6458300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-67700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>10880400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-4796100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>6374800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-18996000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,79 +6363,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34500</v>
+        <v>-151700</v>
       </c>
       <c r="E91" s="3">
-        <v>-146400</v>
+        <v>-118400</v>
       </c>
       <c r="F91" s="3">
-        <v>-68200</v>
+        <v>-34800</v>
       </c>
       <c r="G91" s="3">
-        <v>-105000</v>
+        <v>-147800</v>
       </c>
       <c r="H91" s="3">
-        <v>-34500</v>
+        <v>-68900</v>
       </c>
       <c r="I91" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-155600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-126500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-241800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-74100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-115400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>54700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-67000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-141700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-79800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-68500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-17900</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-83000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6513,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6590,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12396600</v>
+        <v>6027500</v>
       </c>
       <c r="E94" s="3">
-        <v>-4190500</v>
+        <v>-6156700</v>
       </c>
       <c r="F94" s="3">
-        <v>-15043000</v>
+        <v>-12511500</v>
       </c>
       <c r="G94" s="3">
-        <v>35106700</v>
+        <v>-4229300</v>
       </c>
       <c r="H94" s="3">
-        <v>-4606000</v>
+        <v>-15182500</v>
       </c>
       <c r="I94" s="3">
+        <v>35432300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-4648700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5552000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>29174500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-55092500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-13328500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-790600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>5533100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1522700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>8880600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-11479500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>8039800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-811500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-5603900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>498600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-11229400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>4276700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-2833200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>16361800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,79 +6700,87 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-959100</v>
+        <v>-978800</v>
       </c>
       <c r="E96" s="3">
+        <v>-981900</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-968000</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-907600</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-872800</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-904500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-877400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-899300</v>
       </c>
-      <c r="F96" s="3">
-        <v>-864800</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-896200</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-869400</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-899300</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-853300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-907500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-870900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-853000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-880500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-818300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-801400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-757900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-761100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-739200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-728600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-630300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-699600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-727500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-717500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-709800</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6850,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6927,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,217 +7004,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2348200</v>
+        <v>814000</v>
       </c>
       <c r="E100" s="3">
-        <v>540500</v>
+        <v>-957900</v>
       </c>
       <c r="F100" s="3">
-        <v>104300</v>
+        <v>-2370000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1149200</v>
+        <v>545500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1624500</v>
+        <v>105200</v>
       </c>
       <c r="I100" s="3">
+        <v>-1159900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1639600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1138500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1866000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-25900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-602700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-2052900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1164800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-665900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>619700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-6303300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>6132200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1036600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-718200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>174100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-746400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>872700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-2534400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>469400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>111900</v>
+        <v>-116800</v>
       </c>
       <c r="E101" s="3">
+        <v>800</v>
+      </c>
+      <c r="F101" s="3">
+        <v>113000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>25500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-227500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-143900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-73600</v>
       </c>
-      <c r="F101" s="3">
-        <v>25300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-225400</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-142600</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-73600</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-164800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>155400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-12500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-48300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-127700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>113900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>53900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-77800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>13600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>166400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-131000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>114600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-353500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>285800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-148300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>93000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>667000</v>
+        <v>-951700</v>
       </c>
       <c r="E102" s="3">
-        <v>874000</v>
+        <v>61900</v>
       </c>
       <c r="F102" s="3">
-        <v>470000</v>
+        <v>673200</v>
       </c>
       <c r="G102" s="3">
-        <v>-1152300</v>
+        <v>882100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1288000</v>
+        <v>474300</v>
       </c>
       <c r="I102" s="3">
+        <v>-1162900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1299900</v>
+      </c>
+      <c r="K102" s="3">
         <v>24500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-438500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1122600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-523200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>277600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>736200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-107000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>617400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>726000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>460700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-335700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>5200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>719700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>639200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>858900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-460900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
@@ -761,25 +761,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6874800</v>
+        <v>6671400</v>
       </c>
       <c r="E8" s="3">
-        <v>5487400</v>
+        <v>5325100</v>
       </c>
       <c r="F8" s="3">
-        <v>5000700</v>
+        <v>4852800</v>
       </c>
       <c r="G8" s="3">
-        <v>4786400</v>
+        <v>4644800</v>
       </c>
       <c r="H8" s="3">
-        <v>4720600</v>
+        <v>4581000</v>
       </c>
       <c r="I8" s="3">
-        <v>4787200</v>
+        <v>4645600</v>
       </c>
       <c r="J8" s="3">
-        <v>5038700</v>
+        <v>4889600</v>
       </c>
       <c r="K8" s="3">
         <v>5099700</v>
@@ -1252,25 +1252,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-313400</v>
+        <v>-304100</v>
       </c>
       <c r="E15" s="3">
-        <v>-313400</v>
+        <v>-304100</v>
       </c>
       <c r="F15" s="3">
-        <v>-309500</v>
+        <v>-300300</v>
       </c>
       <c r="G15" s="3">
-        <v>-315700</v>
+        <v>-306400</v>
       </c>
       <c r="H15" s="3">
-        <v>-307200</v>
+        <v>-298100</v>
       </c>
       <c r="I15" s="3">
-        <v>-310300</v>
+        <v>-301100</v>
       </c>
       <c r="J15" s="3">
-        <v>-315700</v>
+        <v>-306400</v>
       </c>
       <c r="K15" s="3">
         <v>-332000</v>
@@ -1355,25 +1355,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3575500</v>
+        <v>3469700</v>
       </c>
       <c r="E17" s="3">
-        <v>2195900</v>
+        <v>2130900</v>
       </c>
       <c r="F17" s="3">
-        <v>1811300</v>
+        <v>1757800</v>
       </c>
       <c r="G17" s="3">
-        <v>1653500</v>
+        <v>1604600</v>
       </c>
       <c r="H17" s="3">
-        <v>1751800</v>
+        <v>1699900</v>
       </c>
       <c r="I17" s="3">
-        <v>1939800</v>
+        <v>1882400</v>
       </c>
       <c r="J17" s="3">
-        <v>2263200</v>
+        <v>2196300</v>
       </c>
       <c r="K17" s="3">
         <v>2412600</v>
@@ -1432,25 +1432,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3299300</v>
+        <v>3201700</v>
       </c>
       <c r="E18" s="3">
-        <v>3291500</v>
+        <v>3194200</v>
       </c>
       <c r="F18" s="3">
-        <v>3189400</v>
+        <v>3095000</v>
       </c>
       <c r="G18" s="3">
-        <v>3132900</v>
+        <v>3040200</v>
       </c>
       <c r="H18" s="3">
-        <v>2968900</v>
+        <v>2881000</v>
       </c>
       <c r="I18" s="3">
-        <v>2847400</v>
+        <v>2763200</v>
       </c>
       <c r="J18" s="3">
-        <v>2775400</v>
+        <v>2693300</v>
       </c>
       <c r="K18" s="3">
         <v>2687100</v>
@@ -1538,25 +1538,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-826400</v>
+        <v>-801900</v>
       </c>
       <c r="E20" s="3">
-        <v>-533900</v>
+        <v>-518100</v>
       </c>
       <c r="F20" s="3">
-        <v>-400800</v>
+        <v>-388900</v>
       </c>
       <c r="G20" s="3">
-        <v>-619800</v>
+        <v>-601400</v>
       </c>
       <c r="H20" s="3">
-        <v>-431000</v>
+        <v>-418200</v>
       </c>
       <c r="I20" s="3">
-        <v>-372900</v>
+        <v>-361900</v>
       </c>
       <c r="J20" s="3">
-        <v>-376800</v>
+        <v>-365700</v>
       </c>
       <c r="K20" s="3">
         <v>-910800</v>
@@ -1615,25 +1615,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2767700</v>
+        <v>2685800</v>
       </c>
       <c r="E21" s="3">
-        <v>3052400</v>
+        <v>2962100</v>
       </c>
       <c r="F21" s="3">
-        <v>3078800</v>
+        <v>2987700</v>
       </c>
       <c r="G21" s="3">
-        <v>2809500</v>
+        <v>2726400</v>
       </c>
       <c r="H21" s="3">
-        <v>2826500</v>
+        <v>2742900</v>
       </c>
       <c r="I21" s="3">
-        <v>2764600</v>
+        <v>2682800</v>
       </c>
       <c r="J21" s="3">
-        <v>2692700</v>
+        <v>2613000</v>
       </c>
       <c r="K21" s="3">
         <v>2088300</v>
@@ -1769,25 +1769,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2472900</v>
+        <v>2399700</v>
       </c>
       <c r="E23" s="3">
-        <v>2757600</v>
+        <v>2676100</v>
       </c>
       <c r="F23" s="3">
-        <v>2788600</v>
+        <v>2706100</v>
       </c>
       <c r="G23" s="3">
-        <v>2513100</v>
+        <v>2438800</v>
       </c>
       <c r="H23" s="3">
-        <v>2537900</v>
+        <v>2462800</v>
       </c>
       <c r="I23" s="3">
-        <v>2474500</v>
+        <v>2401300</v>
       </c>
       <c r="J23" s="3">
-        <v>2398600</v>
+        <v>2327700</v>
       </c>
       <c r="K23" s="3">
         <v>1776300</v>
@@ -1846,25 +1846,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>465800</v>
+        <v>452000</v>
       </c>
       <c r="E24" s="3">
-        <v>632200</v>
+        <v>613500</v>
       </c>
       <c r="F24" s="3">
-        <v>668500</v>
+        <v>648700</v>
       </c>
       <c r="G24" s="3">
-        <v>533100</v>
+        <v>517300</v>
       </c>
       <c r="H24" s="3">
-        <v>571000</v>
+        <v>554100</v>
       </c>
       <c r="I24" s="3">
-        <v>574100</v>
+        <v>557100</v>
       </c>
       <c r="J24" s="3">
-        <v>543200</v>
+        <v>527100</v>
       </c>
       <c r="K24" s="3">
         <v>320500</v>
@@ -2000,25 +2000,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2007100</v>
+        <v>1947700</v>
       </c>
       <c r="E26" s="3">
-        <v>2125500</v>
+        <v>2062600</v>
       </c>
       <c r="F26" s="3">
-        <v>2120100</v>
+        <v>2057400</v>
       </c>
       <c r="G26" s="3">
-        <v>1980000</v>
+        <v>1921500</v>
       </c>
       <c r="H26" s="3">
-        <v>1966900</v>
+        <v>1908700</v>
       </c>
       <c r="I26" s="3">
-        <v>1900300</v>
+        <v>1844100</v>
       </c>
       <c r="J26" s="3">
-        <v>1855500</v>
+        <v>1800600</v>
       </c>
       <c r="K26" s="3">
         <v>1455800</v>
@@ -2077,25 +2077,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1937500</v>
+        <v>1880200</v>
       </c>
       <c r="E27" s="3">
-        <v>2007900</v>
+        <v>1948500</v>
       </c>
       <c r="F27" s="3">
-        <v>2017900</v>
+        <v>1958200</v>
       </c>
       <c r="G27" s="3">
-        <v>1865500</v>
+        <v>1810300</v>
       </c>
       <c r="H27" s="3">
-        <v>1877100</v>
+        <v>1821600</v>
       </c>
       <c r="I27" s="3">
-        <v>1771100</v>
+        <v>1718700</v>
       </c>
       <c r="J27" s="3">
-        <v>1752500</v>
+        <v>1700700</v>
       </c>
       <c r="K27" s="3">
         <v>1337800</v>
@@ -2462,25 +2462,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>826400</v>
+        <v>801900</v>
       </c>
       <c r="E32" s="3">
-        <v>533900</v>
+        <v>518100</v>
       </c>
       <c r="F32" s="3">
-        <v>400800</v>
+        <v>388900</v>
       </c>
       <c r="G32" s="3">
-        <v>619800</v>
+        <v>601400</v>
       </c>
       <c r="H32" s="3">
-        <v>431000</v>
+        <v>418200</v>
       </c>
       <c r="I32" s="3">
-        <v>372900</v>
+        <v>361900</v>
       </c>
       <c r="J32" s="3">
-        <v>376800</v>
+        <v>365700</v>
       </c>
       <c r="K32" s="3">
         <v>910800</v>
@@ -2539,25 +2539,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1937500</v>
+        <v>1880200</v>
       </c>
       <c r="E33" s="3">
-        <v>2007900</v>
+        <v>1948500</v>
       </c>
       <c r="F33" s="3">
-        <v>2017900</v>
+        <v>1958200</v>
       </c>
       <c r="G33" s="3">
-        <v>1865500</v>
+        <v>1810300</v>
       </c>
       <c r="H33" s="3">
-        <v>1877100</v>
+        <v>1821600</v>
       </c>
       <c r="I33" s="3">
-        <v>1771100</v>
+        <v>1718700</v>
       </c>
       <c r="J33" s="3">
-        <v>1752500</v>
+        <v>1700700</v>
       </c>
       <c r="K33" s="3">
         <v>1337800</v>
@@ -2693,25 +2693,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1937500</v>
+        <v>1880200</v>
       </c>
       <c r="E35" s="3">
-        <v>2007900</v>
+        <v>1948500</v>
       </c>
       <c r="F35" s="3">
-        <v>2017900</v>
+        <v>1958200</v>
       </c>
       <c r="G35" s="3">
-        <v>1865500</v>
+        <v>1810300</v>
       </c>
       <c r="H35" s="3">
-        <v>1877100</v>
+        <v>1821600</v>
       </c>
       <c r="I35" s="3">
-        <v>1771100</v>
+        <v>1718700</v>
       </c>
       <c r="J35" s="3">
-        <v>1752500</v>
+        <v>1700700</v>
       </c>
       <c r="K35" s="3">
         <v>1337800</v>
@@ -2910,25 +2910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7283300</v>
+        <v>7067800</v>
       </c>
       <c r="E41" s="3">
-        <v>8235000</v>
+        <v>7991400</v>
       </c>
       <c r="F41" s="3">
-        <v>8173100</v>
+        <v>7931300</v>
       </c>
       <c r="G41" s="3">
-        <v>7500000</v>
+        <v>7278100</v>
       </c>
       <c r="H41" s="3">
-        <v>6617900</v>
+        <v>6422100</v>
       </c>
       <c r="I41" s="3">
-        <v>6143600</v>
+        <v>5961800</v>
       </c>
       <c r="J41" s="3">
-        <v>7306500</v>
+        <v>7090400</v>
       </c>
       <c r="K41" s="3">
         <v>8527300</v>
@@ -2987,25 +2987,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>295434800</v>
+        <v>286694900</v>
       </c>
       <c r="E42" s="3">
-        <v>321051300</v>
+        <v>311553600</v>
       </c>
       <c r="F42" s="3">
-        <v>322394500</v>
+        <v>312857100</v>
       </c>
       <c r="G42" s="3">
-        <v>305624300</v>
+        <v>296582900</v>
       </c>
       <c r="H42" s="3">
-        <v>295022400</v>
+        <v>286294700</v>
       </c>
       <c r="I42" s="3">
-        <v>279766300</v>
+        <v>271490000</v>
       </c>
       <c r="J42" s="3">
-        <v>300994900</v>
+        <v>292090500</v>
       </c>
       <c r="K42" s="3">
         <v>268623800</v>
@@ -3372,25 +3372,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2114700</v>
+        <v>2052100</v>
       </c>
       <c r="E47" s="3">
-        <v>2135600</v>
+        <v>2072400</v>
       </c>
       <c r="F47" s="3">
-        <v>2120100</v>
+        <v>2057400</v>
       </c>
       <c r="G47" s="3">
-        <v>2014800</v>
+        <v>1955200</v>
       </c>
       <c r="H47" s="3">
-        <v>1937500</v>
+        <v>1880200</v>
       </c>
       <c r="I47" s="3">
-        <v>1918900</v>
+        <v>1862100</v>
       </c>
       <c r="J47" s="3">
-        <v>1946800</v>
+        <v>1889200</v>
       </c>
       <c r="K47" s="3">
         <v>1897400</v>
@@ -3449,25 +3449,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4278100</v>
+        <v>4151500</v>
       </c>
       <c r="E48" s="3">
-        <v>4310600</v>
+        <v>4183000</v>
       </c>
       <c r="F48" s="3">
-        <v>4319100</v>
+        <v>4191300</v>
       </c>
       <c r="G48" s="3">
-        <v>4349200</v>
+        <v>4220600</v>
       </c>
       <c r="H48" s="3">
-        <v>4285000</v>
+        <v>4158300</v>
       </c>
       <c r="I48" s="3">
-        <v>4300500</v>
+        <v>4173300</v>
       </c>
       <c r="J48" s="3">
-        <v>4433600</v>
+        <v>4302400</v>
       </c>
       <c r="K48" s="3">
         <v>4520900</v>
@@ -3526,25 +3526,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12828800</v>
+        <v>12449300</v>
       </c>
       <c r="E49" s="3">
-        <v>12930900</v>
+        <v>12548400</v>
       </c>
       <c r="F49" s="3">
-        <v>12961900</v>
+        <v>12578400</v>
       </c>
       <c r="G49" s="3">
-        <v>12847300</v>
+        <v>12467300</v>
       </c>
       <c r="H49" s="3">
-        <v>12923900</v>
+        <v>12541600</v>
       </c>
       <c r="I49" s="3">
-        <v>12999800</v>
+        <v>12615200</v>
       </c>
       <c r="J49" s="3">
-        <v>13136000</v>
+        <v>12747400</v>
       </c>
       <c r="K49" s="3">
         <v>13044400</v>
@@ -3757,25 +3757,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>700200</v>
+        <v>679500</v>
       </c>
       <c r="E52" s="3">
-        <v>879800</v>
+        <v>853700</v>
       </c>
       <c r="F52" s="3">
-        <v>1523500</v>
+        <v>1478400</v>
       </c>
       <c r="G52" s="3">
-        <v>1587000</v>
+        <v>1540000</v>
       </c>
       <c r="H52" s="3">
-        <v>1631100</v>
+        <v>1582800</v>
       </c>
       <c r="I52" s="3">
-        <v>1587700</v>
+        <v>1540800</v>
       </c>
       <c r="J52" s="3">
-        <v>1637300</v>
+        <v>1588800</v>
       </c>
       <c r="K52" s="3">
         <v>1675100</v>
@@ -3911,25 +3911,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>999763900</v>
+        <v>970187700</v>
       </c>
       <c r="E54" s="3">
-        <v>996981500</v>
+        <v>967487600</v>
       </c>
       <c r="F54" s="3">
-        <v>963685500</v>
+        <v>935176600</v>
       </c>
       <c r="G54" s="3">
-        <v>916773000</v>
+        <v>889652000</v>
       </c>
       <c r="H54" s="3">
-        <v>900203200</v>
+        <v>873572300</v>
       </c>
       <c r="I54" s="3">
-        <v>870660600</v>
+        <v>844903700</v>
       </c>
       <c r="J54" s="3">
-        <v>900683700</v>
+        <v>874038600</v>
       </c>
       <c r="K54" s="3">
         <v>871260300</v>
@@ -4354,25 +4354,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6509600</v>
+        <v>6317000</v>
       </c>
       <c r="E61" s="3">
-        <v>6535900</v>
+        <v>6342500</v>
       </c>
       <c r="F61" s="3">
-        <v>4904000</v>
+        <v>4759000</v>
       </c>
       <c r="G61" s="3">
-        <v>4900900</v>
+        <v>4755900</v>
       </c>
       <c r="H61" s="3">
-        <v>4965900</v>
+        <v>4819000</v>
       </c>
       <c r="I61" s="3">
-        <v>4982200</v>
+        <v>4834800</v>
       </c>
       <c r="J61" s="3">
-        <v>5106800</v>
+        <v>4955700</v>
       </c>
       <c r="K61" s="3">
         <v>5677000</v>
@@ -4739,25 +4739,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>943980400</v>
+        <v>916054500</v>
       </c>
       <c r="E66" s="3">
-        <v>942521100</v>
+        <v>914638300</v>
       </c>
       <c r="F66" s="3">
-        <v>908189100</v>
+        <v>881321900</v>
       </c>
       <c r="G66" s="3">
-        <v>861990000</v>
+        <v>836489600</v>
       </c>
       <c r="H66" s="3">
-        <v>846026000</v>
+        <v>820997800</v>
       </c>
       <c r="I66" s="3">
-        <v>818039500</v>
+        <v>793839200</v>
       </c>
       <c r="J66" s="3">
-        <v>847530900</v>
+        <v>822458300</v>
       </c>
       <c r="K66" s="3">
         <v>819031400</v>
@@ -4999,25 +4999,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>5456500</v>
+        <v>5295100</v>
       </c>
       <c r="E70" s="3">
-        <v>4295900</v>
+        <v>4168800</v>
       </c>
       <c r="F70" s="3">
-        <v>4295900</v>
+        <v>4168800</v>
       </c>
       <c r="G70" s="3">
-        <v>4682700</v>
+        <v>4544200</v>
       </c>
       <c r="H70" s="3">
-        <v>4100100</v>
+        <v>3978800</v>
       </c>
       <c r="I70" s="3">
-        <v>3519800</v>
+        <v>3415700</v>
       </c>
       <c r="J70" s="3">
-        <v>4107100</v>
+        <v>3985600</v>
       </c>
       <c r="K70" s="3">
         <v>4069300</v>
@@ -5153,25 +5153,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>42164700</v>
+        <v>40917400</v>
       </c>
       <c r="E72" s="3">
-        <v>40287600</v>
+        <v>39095800</v>
       </c>
       <c r="F72" s="3">
-        <v>40293000</v>
+        <v>39101000</v>
       </c>
       <c r="G72" s="3">
-        <v>39906900</v>
+        <v>38726400</v>
       </c>
       <c r="H72" s="3">
-        <v>38852300</v>
+        <v>37702900</v>
       </c>
       <c r="I72" s="3">
-        <v>37960900</v>
+        <v>36837900</v>
       </c>
       <c r="J72" s="3">
-        <v>37043300</v>
+        <v>35947400</v>
       </c>
       <c r="K72" s="3">
         <v>35805900</v>
@@ -5461,25 +5461,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50327000</v>
+        <v>48838200</v>
       </c>
       <c r="E76" s="3">
-        <v>50164500</v>
+        <v>48680500</v>
       </c>
       <c r="F76" s="3">
-        <v>51200600</v>
+        <v>49685900</v>
       </c>
       <c r="G76" s="3">
-        <v>50100300</v>
+        <v>48618200</v>
       </c>
       <c r="H76" s="3">
-        <v>50077100</v>
+        <v>48595700</v>
       </c>
       <c r="I76" s="3">
-        <v>49101400</v>
+        <v>47648800</v>
       </c>
       <c r="J76" s="3">
-        <v>49045700</v>
+        <v>47594800</v>
       </c>
       <c r="K76" s="3">
         <v>48159600</v>
@@ -5697,25 +5697,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1937500</v>
+        <v>1880200</v>
       </c>
       <c r="E81" s="3">
-        <v>2007900</v>
+        <v>1948500</v>
       </c>
       <c r="F81" s="3">
-        <v>2017900</v>
+        <v>1958200</v>
       </c>
       <c r="G81" s="3">
-        <v>1865500</v>
+        <v>1810300</v>
       </c>
       <c r="H81" s="3">
-        <v>1877100</v>
+        <v>1821600</v>
       </c>
       <c r="I81" s="3">
-        <v>1771100</v>
+        <v>1718700</v>
       </c>
       <c r="J81" s="3">
-        <v>1752500</v>
+        <v>1700700</v>
       </c>
       <c r="K81" s="3">
         <v>1337800</v>
@@ -5803,25 +5803,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>294800</v>
+        <v>286100</v>
       </c>
       <c r="E83" s="3">
-        <v>294800</v>
+        <v>286100</v>
       </c>
       <c r="F83" s="3">
-        <v>290200</v>
+        <v>281600</v>
       </c>
       <c r="G83" s="3">
-        <v>296300</v>
+        <v>287600</v>
       </c>
       <c r="H83" s="3">
-        <v>288600</v>
+        <v>280100</v>
       </c>
       <c r="I83" s="3">
-        <v>290200</v>
+        <v>281600</v>
       </c>
       <c r="J83" s="3">
-        <v>294000</v>
+        <v>285300</v>
       </c>
       <c r="K83" s="3">
         <v>312000</v>
@@ -6265,25 +6265,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7676400</v>
+        <v>-7449300</v>
       </c>
       <c r="E89" s="3">
-        <v>7175800</v>
+        <v>6963500</v>
       </c>
       <c r="F89" s="3">
-        <v>15441700</v>
+        <v>14984900</v>
       </c>
       <c r="G89" s="3">
-        <v>4640200</v>
+        <v>4502900</v>
       </c>
       <c r="H89" s="3">
-        <v>15526100</v>
+        <v>15066800</v>
       </c>
       <c r="I89" s="3">
-        <v>-35207900</v>
+        <v>-34166400</v>
       </c>
       <c r="J89" s="3">
-        <v>5132300</v>
+        <v>4980500</v>
       </c>
       <c r="K89" s="3">
         <v>6788600</v>
@@ -6371,25 +6371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-151700</v>
+        <v>-147200</v>
       </c>
       <c r="E91" s="3">
-        <v>-118400</v>
+        <v>-114900</v>
       </c>
       <c r="F91" s="3">
-        <v>-34800</v>
+        <v>-33800</v>
       </c>
       <c r="G91" s="3">
-        <v>-147800</v>
+        <v>-143400</v>
       </c>
       <c r="H91" s="3">
-        <v>-68900</v>
+        <v>-66800</v>
       </c>
       <c r="I91" s="3">
-        <v>-106000</v>
+        <v>-102900</v>
       </c>
       <c r="J91" s="3">
-        <v>-34800</v>
+        <v>-33800</v>
       </c>
       <c r="K91" s="3">
         <v>-155600</v>
@@ -6602,25 +6602,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>6027500</v>
+        <v>5849200</v>
       </c>
       <c r="E94" s="3">
-        <v>-6156700</v>
+        <v>-5974600</v>
       </c>
       <c r="F94" s="3">
-        <v>-12511500</v>
+        <v>-12141400</v>
       </c>
       <c r="G94" s="3">
-        <v>-4229300</v>
+        <v>-4104200</v>
       </c>
       <c r="H94" s="3">
-        <v>-15182500</v>
+        <v>-14733400</v>
       </c>
       <c r="I94" s="3">
-        <v>35432300</v>
+        <v>34384100</v>
       </c>
       <c r="J94" s="3">
-        <v>-4648700</v>
+        <v>-4511200</v>
       </c>
       <c r="K94" s="3">
         <v>-5552000</v>
@@ -6708,25 +6708,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-978800</v>
+        <v>-949800</v>
       </c>
       <c r="E96" s="3">
-        <v>-981900</v>
+        <v>-952800</v>
       </c>
       <c r="F96" s="3">
-        <v>-968000</v>
+        <v>-939300</v>
       </c>
       <c r="G96" s="3">
-        <v>-907600</v>
+        <v>-880800</v>
       </c>
       <c r="H96" s="3">
-        <v>-872800</v>
+        <v>-847000</v>
       </c>
       <c r="I96" s="3">
-        <v>-904500</v>
+        <v>-877800</v>
       </c>
       <c r="J96" s="3">
-        <v>-877400</v>
+        <v>-851500</v>
       </c>
       <c r="K96" s="3">
         <v>-899300</v>
@@ -7016,25 +7016,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>814000</v>
+        <v>789900</v>
       </c>
       <c r="E100" s="3">
-        <v>-957900</v>
+        <v>-929600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2370000</v>
+        <v>-2299900</v>
       </c>
       <c r="G100" s="3">
-        <v>545500</v>
+        <v>529400</v>
       </c>
       <c r="H100" s="3">
-        <v>105200</v>
+        <v>102100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1159900</v>
+        <v>-1125500</v>
       </c>
       <c r="J100" s="3">
-        <v>-1639600</v>
+        <v>-1591100</v>
       </c>
       <c r="K100" s="3">
         <v>-1138500</v>
@@ -7093,25 +7093,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-116800</v>
+        <v>-113400</v>
       </c>
       <c r="E101" s="3">
         <v>800</v>
       </c>
       <c r="F101" s="3">
-        <v>113000</v>
+        <v>109600</v>
       </c>
       <c r="G101" s="3">
-        <v>-74300</v>
+        <v>-72100</v>
       </c>
       <c r="H101" s="3">
-        <v>25500</v>
+        <v>24800</v>
       </c>
       <c r="I101" s="3">
-        <v>-227500</v>
+        <v>-220800</v>
       </c>
       <c r="J101" s="3">
-        <v>-143900</v>
+        <v>-139700</v>
       </c>
       <c r="K101" s="3">
         <v>-73600</v>
@@ -7170,25 +7170,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-951700</v>
+        <v>-923600</v>
       </c>
       <c r="E102" s="3">
-        <v>61900</v>
+        <v>60100</v>
       </c>
       <c r="F102" s="3">
-        <v>673200</v>
+        <v>653200</v>
       </c>
       <c r="G102" s="3">
-        <v>882100</v>
+        <v>856000</v>
       </c>
       <c r="H102" s="3">
-        <v>474300</v>
+        <v>460300</v>
       </c>
       <c r="I102" s="3">
-        <v>-1162900</v>
+        <v>-1128500</v>
       </c>
       <c r="J102" s="3">
-        <v>-1299900</v>
+        <v>-1261400</v>
       </c>
       <c r="K102" s="3">
         <v>24500</v>

--- a/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>BNS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,175 +665,187 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6671400</v>
+        <v>9514700</v>
       </c>
       <c r="E8" s="3">
-        <v>5325100</v>
+        <v>8040800</v>
       </c>
       <c r="F8" s="3">
-        <v>4852800</v>
+        <v>6425800</v>
       </c>
       <c r="G8" s="3">
-        <v>4644800</v>
+        <v>5129100</v>
       </c>
       <c r="H8" s="3">
-        <v>4581000</v>
+        <v>4674200</v>
       </c>
       <c r="I8" s="3">
+        <v>4473800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4412400</v>
+      </c>
+      <c r="K8" s="3">
         <v>4645600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4889600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5099700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5355700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6153200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6421400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>6433800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6997200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>6236300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>6151600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>5610000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>5368100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>5070000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>4823200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>4649100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>4553100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>4481900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>4400400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>4378100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -909,8 +921,14 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,8 +1004,14 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1015,8 +1039,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1118,14 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,8 +1201,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1246,85 +1284,97 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-304100</v>
+        <v>-308800</v>
       </c>
       <c r="E15" s="3">
-        <v>-304100</v>
+        <v>-302300</v>
       </c>
       <c r="F15" s="3">
-        <v>-300300</v>
+        <v>-292900</v>
       </c>
       <c r="G15" s="3">
+        <v>-292900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-289300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-295100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-287100</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-301100</v>
+      </c>
+      <c r="L15" s="3">
         <v>-306400</v>
       </c>
-      <c r="H15" s="3">
-        <v>-298100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-301100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-306400</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-332000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-309000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-306200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-332100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-233100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-253700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-220200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-214000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-188900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>-176900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>-167100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>-148100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>-145100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>-142100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>-144400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>-143700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>-140600</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1399,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3469700</v>
+        <v>6671700</v>
       </c>
       <c r="E17" s="3">
-        <v>2130900</v>
+        <v>5080600</v>
       </c>
       <c r="F17" s="3">
-        <v>1757800</v>
+        <v>3342000</v>
       </c>
       <c r="G17" s="3">
-        <v>1604600</v>
+        <v>2052500</v>
       </c>
       <c r="H17" s="3">
-        <v>1699900</v>
+        <v>1693100</v>
       </c>
       <c r="I17" s="3">
+        <v>1545500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1637400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1882400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2196300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2412600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2641800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3371000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3719000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3640300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3962000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3680500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3391100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2972200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3002900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2498500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2298900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2196900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2127000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2068800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2026600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1994300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3201700</v>
+        <v>2843000</v>
       </c>
       <c r="E18" s="3">
-        <v>3194200</v>
+        <v>2960100</v>
       </c>
       <c r="F18" s="3">
-        <v>3095000</v>
+        <v>3083800</v>
       </c>
       <c r="G18" s="3">
-        <v>3040200</v>
+        <v>3076600</v>
       </c>
       <c r="H18" s="3">
-        <v>2881000</v>
+        <v>2981100</v>
       </c>
       <c r="I18" s="3">
+        <v>2928300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2775000</v>
+      </c>
+      <c r="K18" s="3">
         <v>2763200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2693300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2687100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2713900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2782200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2702300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2793600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>3035200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2555800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>2760600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2637900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>2365300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>2571500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>2524400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2452200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>2426100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>2413000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>2373800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>2383800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,162 +1596,176 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-801900</v>
+        <v>-761600</v>
       </c>
       <c r="E20" s="3">
-        <v>-518100</v>
+        <v>-1102900</v>
       </c>
       <c r="F20" s="3">
-        <v>-388900</v>
+        <v>-772400</v>
       </c>
       <c r="G20" s="3">
-        <v>-601400</v>
+        <v>-499000</v>
       </c>
       <c r="H20" s="3">
-        <v>-418200</v>
+        <v>-374600</v>
       </c>
       <c r="I20" s="3">
+        <v>-579300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-402800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-361900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-365700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-910800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1537100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1410700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-521600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-529400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-766000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-335600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-647400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-607500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-507400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-465200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-257500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-511300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-454700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-574600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-356500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-424100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2685800</v>
+        <v>2375100</v>
       </c>
       <c r="E21" s="3">
-        <v>2962100</v>
+        <v>2142200</v>
       </c>
       <c r="F21" s="3">
-        <v>2987700</v>
+        <v>2587000</v>
       </c>
       <c r="G21" s="3">
-        <v>2726400</v>
+        <v>2853100</v>
       </c>
       <c r="H21" s="3">
-        <v>2742900</v>
+        <v>2877700</v>
       </c>
       <c r="I21" s="3">
+        <v>2626000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2641900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2682800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2613000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2088300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1465800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1656500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2491800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2475500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2497900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2418800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>2304100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2199700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>2017500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>2259900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>2415000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>2086000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>2113600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1982800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>2161000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>2100300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1763,162 +1841,180 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2399700</v>
+        <v>2081400</v>
       </c>
       <c r="E23" s="3">
-        <v>2676100</v>
+        <v>1857200</v>
       </c>
       <c r="F23" s="3">
-        <v>2706100</v>
+        <v>2311400</v>
       </c>
       <c r="G23" s="3">
-        <v>2438800</v>
+        <v>2577600</v>
       </c>
       <c r="H23" s="3">
-        <v>2462800</v>
+        <v>2606500</v>
       </c>
       <c r="I23" s="3">
+        <v>2349000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2372200</v>
+      </c>
+      <c r="K23" s="3">
         <v>2401300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2327700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1776300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1176800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1371500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2180700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2264200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2269100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2220200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2113200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2030400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1857900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>2106300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>2266900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1940900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1971400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>1838400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>2017400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>1959800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>452000</v>
+        <v>799900</v>
       </c>
       <c r="E24" s="3">
-        <v>613500</v>
+        <v>343500</v>
       </c>
       <c r="F24" s="3">
-        <v>648700</v>
+        <v>435400</v>
       </c>
       <c r="G24" s="3">
-        <v>517300</v>
+        <v>590900</v>
       </c>
       <c r="H24" s="3">
-        <v>554100</v>
+        <v>624900</v>
       </c>
       <c r="I24" s="3">
+        <v>498300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>533700</v>
+      </c>
+      <c r="K24" s="3">
         <v>557100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>527100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>320500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>177100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>332100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>367200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>464700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>624300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>481100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>383400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>380100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>398200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>467500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>527600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>400400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>406300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>255100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>474000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>414800</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1994,162 +2090,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1947700</v>
+        <v>1281500</v>
       </c>
       <c r="E26" s="3">
-        <v>2062600</v>
+        <v>1513700</v>
       </c>
       <c r="F26" s="3">
-        <v>2057400</v>
+        <v>1876000</v>
       </c>
       <c r="G26" s="3">
-        <v>1921500</v>
+        <v>1986700</v>
       </c>
       <c r="H26" s="3">
-        <v>1908700</v>
+        <v>1981600</v>
       </c>
       <c r="I26" s="3">
+        <v>1850700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1838400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1844100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1800600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1455800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>999700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1039400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1813500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1799500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1644800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1739000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1729800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1650300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1459700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1638800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1739200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1540500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>1565100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>1583300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>1543400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>1544900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1880200</v>
+        <v>1179600</v>
       </c>
       <c r="E27" s="3">
-        <v>1948500</v>
+        <v>1409600</v>
       </c>
       <c r="F27" s="3">
-        <v>1958200</v>
+        <v>1810900</v>
       </c>
       <c r="G27" s="3">
-        <v>1810300</v>
+        <v>1876800</v>
       </c>
       <c r="H27" s="3">
-        <v>1821600</v>
+        <v>1886200</v>
       </c>
       <c r="I27" s="3">
+        <v>1743700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1754500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1718700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1700700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1337800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1021200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>975800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1763600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1666200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1524600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1635900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1622000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1536200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1472500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1537200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1673700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1478000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>1500300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>1509600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>1466600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2225,8 +2339,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2302,8 +2422,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2505,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,162 +2588,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>801900</v>
+        <v>761600</v>
       </c>
       <c r="E32" s="3">
-        <v>518100</v>
+        <v>1102900</v>
       </c>
       <c r="F32" s="3">
-        <v>388900</v>
+        <v>772400</v>
       </c>
       <c r="G32" s="3">
-        <v>601400</v>
+        <v>499000</v>
       </c>
       <c r="H32" s="3">
-        <v>418200</v>
+        <v>374600</v>
       </c>
       <c r="I32" s="3">
+        <v>579300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>402800</v>
+      </c>
+      <c r="K32" s="3">
         <v>361900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>365700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>910800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1537100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1410700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>521600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>529400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>766000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>335600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>647400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>607500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>507400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>465200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>257500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>511300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>454700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>574600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>356500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1880200</v>
+        <v>1179600</v>
       </c>
       <c r="E33" s="3">
-        <v>1948500</v>
+        <v>1409600</v>
       </c>
       <c r="F33" s="3">
-        <v>1958200</v>
+        <v>1810900</v>
       </c>
       <c r="G33" s="3">
-        <v>1810300</v>
+        <v>1876800</v>
       </c>
       <c r="H33" s="3">
-        <v>1821600</v>
+        <v>1886200</v>
       </c>
       <c r="I33" s="3">
+        <v>1743700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1754500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1718700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1700700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1337800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1021200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>975800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1763600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1666200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1524600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1635900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1622000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1536200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1472500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1537200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1673700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1478000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>1500300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>1509600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>1466600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2837,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1880200</v>
+        <v>1179600</v>
       </c>
       <c r="E35" s="3">
-        <v>1948500</v>
+        <v>1409600</v>
       </c>
       <c r="F35" s="3">
-        <v>1958200</v>
+        <v>1810900</v>
       </c>
       <c r="G35" s="3">
-        <v>1810300</v>
+        <v>1876800</v>
       </c>
       <c r="H35" s="3">
-        <v>1821600</v>
+        <v>1886200</v>
       </c>
       <c r="I35" s="3">
+        <v>1743700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1754500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1718700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1700700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1337800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1021200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>975800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1763600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1666200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1524600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1635900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1622000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1536200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1472500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1537200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1673700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1478000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>1500300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>1509600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>1466600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +3043,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,162 +3074,176 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7067800</v>
+        <v>6003400</v>
       </c>
       <c r="E41" s="3">
-        <v>7991400</v>
+        <v>8002400</v>
       </c>
       <c r="F41" s="3">
-        <v>7931300</v>
+        <v>6807700</v>
       </c>
       <c r="G41" s="3">
-        <v>7278100</v>
+        <v>7697200</v>
       </c>
       <c r="H41" s="3">
-        <v>6422100</v>
+        <v>7639400</v>
       </c>
       <c r="I41" s="3">
+        <v>7010200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>6185700</v>
+      </c>
+      <c r="K41" s="3">
         <v>5961800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>7090400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>8527300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>8502800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>9156000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>7978400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>8501500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>8744800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>7436500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>7543500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>6538000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>6020800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>5560100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>5828700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>5823400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>5103800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>6764300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>6125100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>5266200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>286694900</v>
+        <v>300400300</v>
       </c>
       <c r="E42" s="3">
-        <v>311553600</v>
+        <v>290175400</v>
       </c>
       <c r="F42" s="3">
-        <v>312857100</v>
+        <v>276141300</v>
       </c>
       <c r="G42" s="3">
-        <v>296582900</v>
+        <v>300085000</v>
       </c>
       <c r="H42" s="3">
-        <v>286294700</v>
+        <v>301340500</v>
       </c>
       <c r="I42" s="3">
+        <v>285665400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>275755800</v>
+      </c>
+      <c r="K42" s="3">
         <v>271490000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>292090500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>268623800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>274213300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>326294300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>310629100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>262831400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>269948600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>245269300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>241611900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>216781100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>195829300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>207922900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>208904200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>209121500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>207952400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>225427900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>214720300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>216684600</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3135,8 +3319,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3212,8 +3402,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3289,8 +3485,14 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3366,239 +3568,263 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2052100</v>
+        <v>1941100</v>
       </c>
       <c r="E47" s="3">
-        <v>2072400</v>
+        <v>1904200</v>
       </c>
       <c r="F47" s="3">
-        <v>2057400</v>
+        <v>1976600</v>
       </c>
       <c r="G47" s="3">
-        <v>1955200</v>
+        <v>1996100</v>
       </c>
       <c r="H47" s="3">
-        <v>1880200</v>
+        <v>1981600</v>
       </c>
       <c r="I47" s="3">
+        <v>1883300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1810900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1862100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1889200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1897400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1839200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1909200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1814300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>4377100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>4556500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>4082400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>3990700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>3524400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>3540400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>3617900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>3362300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>3412900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>3261100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>3474700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>3274200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>3302600</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4151500</v>
+        <v>4121600</v>
       </c>
       <c r="E48" s="3">
-        <v>4183000</v>
+        <v>4122400</v>
       </c>
       <c r="F48" s="3">
-        <v>4191300</v>
+        <v>3998700</v>
       </c>
       <c r="G48" s="3">
-        <v>4220600</v>
+        <v>4029100</v>
       </c>
       <c r="H48" s="3">
-        <v>4158300</v>
+        <v>4037000</v>
       </c>
       <c r="I48" s="3">
+        <v>4065200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4005200</v>
+      </c>
+      <c r="K48" s="3">
         <v>4173300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4302400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4520900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4619000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4807600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4758300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2080900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2183700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2095500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2063100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1950400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1955000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1799200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1722100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1772000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1658100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1809200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1747700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1935900</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12449300</v>
+        <v>12417700</v>
       </c>
       <c r="E49" s="3">
-        <v>12548400</v>
+        <v>12174000</v>
       </c>
       <c r="F49" s="3">
-        <v>12578400</v>
+        <v>11991000</v>
       </c>
       <c r="G49" s="3">
-        <v>12467300</v>
+        <v>12086500</v>
       </c>
       <c r="H49" s="3">
-        <v>12541600</v>
+        <v>12115400</v>
       </c>
       <c r="I49" s="3">
+        <v>12008300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>12079900</v>
+      </c>
+      <c r="K49" s="3">
         <v>12615200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>12747400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>13044400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>13137100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>13433800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>13403300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>13616900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>14601200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>13722000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>13752100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>12876200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>11209000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>9239000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>8967000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>9009400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>8879200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>9437700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>9261800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>9327100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3900,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,85 +3983,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>679500</v>
+        <v>1813800</v>
       </c>
       <c r="E52" s="3">
-        <v>853700</v>
+        <v>1376300</v>
       </c>
       <c r="F52" s="3">
-        <v>1478400</v>
+        <v>654500</v>
       </c>
       <c r="G52" s="3">
-        <v>1540000</v>
+        <v>822300</v>
       </c>
       <c r="H52" s="3">
-        <v>1582800</v>
+        <v>1424000</v>
       </c>
       <c r="I52" s="3">
+        <v>1483300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1524500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1540800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1588800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1675100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1659000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1311000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1339500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1224100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1414400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1592800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1575800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1408300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1473200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1345200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1293400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1274800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1286000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>1485000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>1379000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>1552600</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4149,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>970187700</v>
+        <v>994021100</v>
       </c>
       <c r="E54" s="3">
-        <v>967487600</v>
+        <v>975926100</v>
       </c>
       <c r="F54" s="3">
-        <v>935176600</v>
+        <v>934474000</v>
       </c>
       <c r="G54" s="3">
-        <v>889652000</v>
+        <v>931873300</v>
       </c>
       <c r="H54" s="3">
-        <v>873572300</v>
+        <v>900751700</v>
       </c>
       <c r="I54" s="3">
+        <v>856902900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>841415100</v>
+      </c>
+      <c r="K54" s="3">
         <v>844903700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>874038600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>871260300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>896870700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>979014700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>899756300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>846847100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>884380800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>814599700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>796211700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>725594900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>712668600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>697316900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>687018900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>681155300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>674501300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>708036100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>681413900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>688538400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4267,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,8 +4298,10 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4117,8 +4377,14 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4194,8 +4460,14 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4271,8 +4543,14 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4348,85 +4626,97 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6317000</v>
+        <v>6301400</v>
       </c>
       <c r="E61" s="3">
-        <v>6342500</v>
+        <v>6125000</v>
       </c>
       <c r="F61" s="3">
-        <v>4759000</v>
+        <v>6084400</v>
       </c>
       <c r="G61" s="3">
-        <v>4755900</v>
+        <v>6109000</v>
       </c>
       <c r="H61" s="3">
-        <v>4819000</v>
+        <v>4583800</v>
       </c>
       <c r="I61" s="3">
+        <v>4580900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4641600</v>
+      </c>
+      <c r="K61" s="3">
         <v>4834800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4955700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5677000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5624100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5875300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5687700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5654200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>7478900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5815200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>5767500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>4140700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>4281100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>4266100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>4242700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>4416900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>5489300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>5854700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>5767100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>5863900</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4502,8 +4792,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4875,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4656,8 +4958,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +5041,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>916054500</v>
+        <v>940367500</v>
       </c>
       <c r="E66" s="3">
-        <v>914638300</v>
+        <v>922968300</v>
       </c>
       <c r="F66" s="3">
-        <v>881321900</v>
+        <v>882333500</v>
       </c>
       <c r="G66" s="3">
-        <v>836489600</v>
+        <v>880969500</v>
       </c>
       <c r="H66" s="3">
-        <v>820997800</v>
+        <v>848879500</v>
       </c>
       <c r="I66" s="3">
+        <v>805697500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>790776000</v>
+      </c>
+      <c r="K66" s="3">
         <v>793839200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>822458300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>819031400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>844592700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>925723100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>847230700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>794202300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>828487900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>762671500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>745088800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>678194300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>663747700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>651024100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>642619400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>636478200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>632539800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>663375800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>638197100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>645324700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +5159,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5238,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,85 +5321,97 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>5295100</v>
+        <v>5840000</v>
       </c>
       <c r="E70" s="3">
-        <v>4168800</v>
+        <v>5840000</v>
       </c>
       <c r="F70" s="3">
-        <v>4168800</v>
+        <v>5100100</v>
       </c>
       <c r="G70" s="3">
-        <v>4544200</v>
+        <v>4015300</v>
       </c>
       <c r="H70" s="3">
-        <v>3978800</v>
+        <v>4015300</v>
       </c>
       <c r="I70" s="3">
+        <v>4376900</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3832300</v>
+      </c>
+      <c r="K70" s="3">
         <v>3415700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>3985600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>4069300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>4069300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>2841100</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>3028200</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>3028200</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>3220000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>2990000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>2990000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>3040500</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>3187300</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>3187300</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>3407700</v>
       </c>
-      <c r="W70" s="3">
+      <c r="Y70" s="3">
         <v>3407700</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Z70" s="3">
         <v>2246800</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="AA70" s="3">
         <v>2319300</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AB70" s="3">
         <v>2496000</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AC70" s="3">
         <v>2761000</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,85 +5487,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>40917400</v>
+        <v>39068300</v>
       </c>
       <c r="E72" s="3">
-        <v>39095800</v>
+        <v>38771100</v>
       </c>
       <c r="F72" s="3">
-        <v>39101000</v>
+        <v>39411200</v>
       </c>
       <c r="G72" s="3">
-        <v>38726400</v>
+        <v>37656600</v>
       </c>
       <c r="H72" s="3">
-        <v>37702900</v>
+        <v>37661700</v>
       </c>
       <c r="I72" s="3">
+        <v>37300800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>36315000</v>
+      </c>
+      <c r="K72" s="3">
         <v>36837900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>35947400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>35805900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>35303000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>35967100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>35693300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>34932300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>36521300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>33449400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>32826700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>30388700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>30724400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>30016700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>28815800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>28453400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>27695800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>27932800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>27496500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>26814300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5653,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5736,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5819,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>48838200</v>
+        <v>47813500</v>
       </c>
       <c r="E76" s="3">
-        <v>48680500</v>
+        <v>47117800</v>
       </c>
       <c r="F76" s="3">
-        <v>49685900</v>
+        <v>47040400</v>
       </c>
       <c r="G76" s="3">
-        <v>48618200</v>
+        <v>46888500</v>
       </c>
       <c r="H76" s="3">
-        <v>48595700</v>
+        <v>47856900</v>
       </c>
       <c r="I76" s="3">
+        <v>46828500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>46806800</v>
+      </c>
+      <c r="K76" s="3">
         <v>47648800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>47594800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>48159600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>48208600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>50450500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>49497300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>49616600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>52672900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>48938200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>48133000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>44360100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>45733500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>43105500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>40991800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>41269400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>39714800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>42341000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>40720800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>40452700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5985,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1880200</v>
+        <v>1179600</v>
       </c>
       <c r="E81" s="3">
-        <v>1948500</v>
+        <v>1409600</v>
       </c>
       <c r="F81" s="3">
-        <v>1958200</v>
+        <v>1810900</v>
       </c>
       <c r="G81" s="3">
-        <v>1810300</v>
+        <v>1876800</v>
       </c>
       <c r="H81" s="3">
-        <v>1821600</v>
+        <v>1886200</v>
       </c>
       <c r="I81" s="3">
+        <v>1743700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1754500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1718700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1700700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1337800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1021200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>975800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1763600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1666200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1524600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1635900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1622000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1536200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1472500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1537200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1673700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1478000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>1500300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>1509600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>1466600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,85 +6191,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>286100</v>
+        <v>293600</v>
       </c>
       <c r="E83" s="3">
-        <v>286100</v>
+        <v>284900</v>
       </c>
       <c r="F83" s="3">
+        <v>275500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>275500</v>
+      </c>
+      <c r="H83" s="3">
+        <v>271200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>277000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>269800</v>
+      </c>
+      <c r="K83" s="3">
         <v>281600</v>
       </c>
-      <c r="G83" s="3">
-        <v>287600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>280100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>281600</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>285300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>312000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>289000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>285000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>311100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>211300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>228800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>198600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>190900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>169300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>159600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>153600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>148100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>145100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>142100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>144400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>143700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>140600</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6353,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6436,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6519,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6602,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6685,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7449300</v>
+        <v>11827500</v>
       </c>
       <c r="E89" s="3">
-        <v>6963500</v>
+        <v>-1711900</v>
       </c>
       <c r="F89" s="3">
-        <v>14984900</v>
+        <v>-7175100</v>
       </c>
       <c r="G89" s="3">
-        <v>4502900</v>
+        <v>6707100</v>
       </c>
       <c r="H89" s="3">
-        <v>15066800</v>
+        <v>14433300</v>
       </c>
       <c r="I89" s="3">
+        <v>4337200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>14512100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-34166400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>4980500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>6788600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-31314200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>56085500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>13420500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3169400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-5834000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1967700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-8936800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>13302100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-8250600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1346000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>6458300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-67700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>10880400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-4796100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>6374800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-18996000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,85 +6803,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-147200</v>
+        <v>-40500</v>
       </c>
       <c r="E91" s="3">
-        <v>-114900</v>
+        <v>-128000</v>
       </c>
       <c r="F91" s="3">
+        <v>-141800</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-110700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-138100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-102900</v>
+      </c>
+      <c r="L91" s="3">
         <v>-33800</v>
       </c>
-      <c r="G91" s="3">
-        <v>-143400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-66800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-102900</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-33800</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-155600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-126500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-241800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-74100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-115400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>54700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-67000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-13100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-141700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-79800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-68500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-17900</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-83000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6965,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +7048,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>5849200</v>
+        <v>-13792500</v>
       </c>
       <c r="E94" s="3">
-        <v>-5974600</v>
+        <v>3647900</v>
       </c>
       <c r="F94" s="3">
-        <v>-12141400</v>
+        <v>5633900</v>
       </c>
       <c r="G94" s="3">
-        <v>-4104200</v>
+        <v>-5754700</v>
       </c>
       <c r="H94" s="3">
-        <v>-14733400</v>
+        <v>-11694500</v>
       </c>
       <c r="I94" s="3">
+        <v>-3953100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-14191000</v>
+      </c>
+      <c r="K94" s="3">
         <v>34384100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4511200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5552000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>29174500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-55092500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-13328500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-790600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>5533100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1522700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>8880600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-11479500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>8039800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-811500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-5603900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>498600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-11229400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>4276700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-2833200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>16361800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,85 +7166,93 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-949800</v>
+        <v>-961200</v>
       </c>
       <c r="E96" s="3">
-        <v>-952800</v>
+        <v>-964100</v>
       </c>
       <c r="F96" s="3">
-        <v>-939300</v>
+        <v>-914900</v>
       </c>
       <c r="G96" s="3">
-        <v>-880800</v>
+        <v>-917800</v>
       </c>
       <c r="H96" s="3">
-        <v>-847000</v>
+        <v>-904700</v>
       </c>
       <c r="I96" s="3">
+        <v>-848300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-815800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-877800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-851500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-899300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-853300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-907500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-870900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-853000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-880500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-818300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-801400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-757900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-761100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-739200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-728600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-630300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-699600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-727500</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-717500</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-709800</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7328,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7411,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,235 +7494,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>789900</v>
+        <v>-133100</v>
       </c>
       <c r="E100" s="3">
-        <v>-929600</v>
+        <v>-961900</v>
       </c>
       <c r="F100" s="3">
-        <v>-2299900</v>
+        <v>760800</v>
       </c>
       <c r="G100" s="3">
-        <v>529400</v>
+        <v>-895300</v>
       </c>
       <c r="H100" s="3">
-        <v>102100</v>
+        <v>-2215200</v>
       </c>
       <c r="I100" s="3">
+        <v>509900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>98400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1125500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1591100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1138500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1866000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-25900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-602700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2052900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1164800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-665900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>619700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-6303300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>6132200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1036600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-718200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>174100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-746400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>872700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-2534400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>469400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-113400</v>
+        <v>99100</v>
       </c>
       <c r="E101" s="3">
-        <v>800</v>
+        <v>220600</v>
       </c>
       <c r="F101" s="3">
-        <v>109600</v>
+        <v>-109200</v>
       </c>
       <c r="G101" s="3">
-        <v>-72100</v>
+        <v>700</v>
       </c>
       <c r="H101" s="3">
-        <v>24800</v>
+        <v>105600</v>
       </c>
       <c r="I101" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-220800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-139700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-73600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-164800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>155400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-12500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-48300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-127700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>113900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>53900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-77800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>13600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>166400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-131000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>114600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-353500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>285800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-148300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>93000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-923600</v>
+        <v>-1999000</v>
       </c>
       <c r="E102" s="3">
-        <v>60100</v>
+        <v>1194800</v>
       </c>
       <c r="F102" s="3">
-        <v>653200</v>
+        <v>-889600</v>
       </c>
       <c r="G102" s="3">
-        <v>856000</v>
+        <v>57900</v>
       </c>
       <c r="H102" s="3">
-        <v>460300</v>
+        <v>629200</v>
       </c>
       <c r="I102" s="3">
+        <v>824500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>443300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1128500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1261400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>24500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-438500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1122600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-523200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>277600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>736200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-107000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>617400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>726000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>460700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-335700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>5200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>719700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>639200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>858900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-460900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
@@ -665,7 +665,8 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -767,25 +768,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9514700</v>
+        <v>9745200</v>
       </c>
       <c r="E8" s="3">
-        <v>8040800</v>
+        <v>8235500</v>
       </c>
       <c r="F8" s="3">
-        <v>6425800</v>
+        <v>6581500</v>
       </c>
       <c r="G8" s="3">
-        <v>5129100</v>
+        <v>5253300</v>
       </c>
       <c r="H8" s="3">
-        <v>4674200</v>
+        <v>4787400</v>
       </c>
       <c r="I8" s="3">
-        <v>4473800</v>
+        <v>4582200</v>
       </c>
       <c r="J8" s="3">
-        <v>4412400</v>
+        <v>4519300</v>
       </c>
       <c r="K8" s="3">
         <v>4645600</v>
@@ -1296,25 +1297,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-308800</v>
+        <v>-316300</v>
       </c>
       <c r="E15" s="3">
-        <v>-302300</v>
+        <v>-309600</v>
       </c>
       <c r="F15" s="3">
-        <v>-292900</v>
+        <v>-300000</v>
       </c>
       <c r="G15" s="3">
-        <v>-292900</v>
+        <v>-300000</v>
       </c>
       <c r="H15" s="3">
-        <v>-289300</v>
+        <v>-296300</v>
       </c>
       <c r="I15" s="3">
-        <v>-295100</v>
+        <v>-302200</v>
       </c>
       <c r="J15" s="3">
-        <v>-287100</v>
+        <v>-294100</v>
       </c>
       <c r="K15" s="3">
         <v>-301100</v>
@@ -1407,25 +1408,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6671700</v>
+        <v>6833300</v>
       </c>
       <c r="E17" s="3">
-        <v>5080600</v>
+        <v>5203700</v>
       </c>
       <c r="F17" s="3">
-        <v>3342000</v>
+        <v>3423000</v>
       </c>
       <c r="G17" s="3">
-        <v>2052500</v>
+        <v>2102200</v>
       </c>
       <c r="H17" s="3">
-        <v>1693100</v>
+        <v>1734100</v>
       </c>
       <c r="I17" s="3">
-        <v>1545500</v>
+        <v>1583000</v>
       </c>
       <c r="J17" s="3">
-        <v>1637400</v>
+        <v>1677000</v>
       </c>
       <c r="K17" s="3">
         <v>1882400</v>
@@ -1490,25 +1491,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2843000</v>
+        <v>2911800</v>
       </c>
       <c r="E18" s="3">
-        <v>2960100</v>
+        <v>3031800</v>
       </c>
       <c r="F18" s="3">
-        <v>3083800</v>
+        <v>3158500</v>
       </c>
       <c r="G18" s="3">
-        <v>3076600</v>
+        <v>3151100</v>
       </c>
       <c r="H18" s="3">
-        <v>2981100</v>
+        <v>3053300</v>
       </c>
       <c r="I18" s="3">
-        <v>2928300</v>
+        <v>2999300</v>
       </c>
       <c r="J18" s="3">
-        <v>2775000</v>
+        <v>2842200</v>
       </c>
       <c r="K18" s="3">
         <v>2763200</v>
@@ -1604,25 +1605,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-761600</v>
+        <v>-780000</v>
       </c>
       <c r="E20" s="3">
-        <v>-1102900</v>
+        <v>-1129600</v>
       </c>
       <c r="F20" s="3">
-        <v>-772400</v>
+        <v>-791100</v>
       </c>
       <c r="G20" s="3">
-        <v>-499000</v>
+        <v>-511100</v>
       </c>
       <c r="H20" s="3">
-        <v>-374600</v>
+        <v>-383700</v>
       </c>
       <c r="I20" s="3">
-        <v>-579300</v>
+        <v>-593300</v>
       </c>
       <c r="J20" s="3">
-        <v>-402800</v>
+        <v>-412600</v>
       </c>
       <c r="K20" s="3">
         <v>-361900</v>
@@ -1687,25 +1688,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2375100</v>
+        <v>2432600</v>
       </c>
       <c r="E21" s="3">
-        <v>2142200</v>
+        <v>2194100</v>
       </c>
       <c r="F21" s="3">
-        <v>2587000</v>
+        <v>2649600</v>
       </c>
       <c r="G21" s="3">
-        <v>2853100</v>
+        <v>2922200</v>
       </c>
       <c r="H21" s="3">
-        <v>2877700</v>
+        <v>2947400</v>
       </c>
       <c r="I21" s="3">
-        <v>2626000</v>
+        <v>2689600</v>
       </c>
       <c r="J21" s="3">
-        <v>2641900</v>
+        <v>2705900</v>
       </c>
       <c r="K21" s="3">
         <v>2682800</v>
@@ -1853,25 +1854,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2081400</v>
+        <v>2131800</v>
       </c>
       <c r="E23" s="3">
-        <v>1857200</v>
+        <v>1902200</v>
       </c>
       <c r="F23" s="3">
-        <v>2311400</v>
+        <v>2367400</v>
       </c>
       <c r="G23" s="3">
-        <v>2577600</v>
+        <v>2640000</v>
       </c>
       <c r="H23" s="3">
-        <v>2606500</v>
+        <v>2669600</v>
       </c>
       <c r="I23" s="3">
-        <v>2349000</v>
+        <v>2405900</v>
       </c>
       <c r="J23" s="3">
-        <v>2372200</v>
+        <v>2429600</v>
       </c>
       <c r="K23" s="3">
         <v>2401300</v>
@@ -1936,25 +1937,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>799900</v>
+        <v>819300</v>
       </c>
       <c r="E24" s="3">
-        <v>343500</v>
+        <v>351900</v>
       </c>
       <c r="F24" s="3">
-        <v>435400</v>
+        <v>445900</v>
       </c>
       <c r="G24" s="3">
-        <v>590900</v>
+        <v>605200</v>
       </c>
       <c r="H24" s="3">
-        <v>624900</v>
+        <v>640000</v>
       </c>
       <c r="I24" s="3">
-        <v>498300</v>
+        <v>510400</v>
       </c>
       <c r="J24" s="3">
-        <v>533700</v>
+        <v>546700</v>
       </c>
       <c r="K24" s="3">
         <v>557100</v>
@@ -2102,25 +2103,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1281500</v>
+        <v>1312600</v>
       </c>
       <c r="E26" s="3">
-        <v>1513700</v>
+        <v>1550400</v>
       </c>
       <c r="F26" s="3">
-        <v>1876000</v>
+        <v>1921500</v>
       </c>
       <c r="G26" s="3">
-        <v>1986700</v>
+        <v>2034800</v>
       </c>
       <c r="H26" s="3">
-        <v>1981600</v>
+        <v>2029600</v>
       </c>
       <c r="I26" s="3">
-        <v>1850700</v>
+        <v>1895600</v>
       </c>
       <c r="J26" s="3">
-        <v>1838400</v>
+        <v>1883000</v>
       </c>
       <c r="K26" s="3">
         <v>1844100</v>
@@ -2185,25 +2186,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1179600</v>
+        <v>1208100</v>
       </c>
       <c r="E27" s="3">
-        <v>1409600</v>
+        <v>1443700</v>
       </c>
       <c r="F27" s="3">
-        <v>1810900</v>
+        <v>1854800</v>
       </c>
       <c r="G27" s="3">
-        <v>1876800</v>
+        <v>1922200</v>
       </c>
       <c r="H27" s="3">
-        <v>1886200</v>
+        <v>1931800</v>
       </c>
       <c r="I27" s="3">
-        <v>1743700</v>
+        <v>1785900</v>
       </c>
       <c r="J27" s="3">
-        <v>1754500</v>
+        <v>1797000</v>
       </c>
       <c r="K27" s="3">
         <v>1718700</v>
@@ -2600,25 +2601,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>761600</v>
+        <v>780000</v>
       </c>
       <c r="E32" s="3">
-        <v>1102900</v>
+        <v>1129600</v>
       </c>
       <c r="F32" s="3">
-        <v>772400</v>
+        <v>791100</v>
       </c>
       <c r="G32" s="3">
-        <v>499000</v>
+        <v>511100</v>
       </c>
       <c r="H32" s="3">
-        <v>374600</v>
+        <v>383700</v>
       </c>
       <c r="I32" s="3">
-        <v>579300</v>
+        <v>593300</v>
       </c>
       <c r="J32" s="3">
-        <v>402800</v>
+        <v>412600</v>
       </c>
       <c r="K32" s="3">
         <v>361900</v>
@@ -2683,25 +2684,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1179600</v>
+        <v>1208100</v>
       </c>
       <c r="E33" s="3">
-        <v>1409600</v>
+        <v>1443700</v>
       </c>
       <c r="F33" s="3">
-        <v>1810900</v>
+        <v>1854800</v>
       </c>
       <c r="G33" s="3">
-        <v>1876800</v>
+        <v>1922200</v>
       </c>
       <c r="H33" s="3">
-        <v>1886200</v>
+        <v>1931800</v>
       </c>
       <c r="I33" s="3">
-        <v>1743700</v>
+        <v>1785900</v>
       </c>
       <c r="J33" s="3">
-        <v>1754500</v>
+        <v>1797000</v>
       </c>
       <c r="K33" s="3">
         <v>1718700</v>
@@ -2849,25 +2850,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1179600</v>
+        <v>1208100</v>
       </c>
       <c r="E35" s="3">
-        <v>1409600</v>
+        <v>1443700</v>
       </c>
       <c r="F35" s="3">
-        <v>1810900</v>
+        <v>1854800</v>
       </c>
       <c r="G35" s="3">
-        <v>1876800</v>
+        <v>1922200</v>
       </c>
       <c r="H35" s="3">
-        <v>1886200</v>
+        <v>1931800</v>
       </c>
       <c r="I35" s="3">
-        <v>1743700</v>
+        <v>1785900</v>
       </c>
       <c r="J35" s="3">
-        <v>1754500</v>
+        <v>1797000</v>
       </c>
       <c r="K35" s="3">
         <v>1718700</v>
@@ -3082,25 +3083,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6003400</v>
+        <v>6148900</v>
       </c>
       <c r="E41" s="3">
-        <v>8002400</v>
+        <v>8196300</v>
       </c>
       <c r="F41" s="3">
-        <v>6807700</v>
+        <v>6972600</v>
       </c>
       <c r="G41" s="3">
-        <v>7697200</v>
+        <v>7883700</v>
       </c>
       <c r="H41" s="3">
-        <v>7639400</v>
+        <v>7824400</v>
       </c>
       <c r="I41" s="3">
-        <v>7010200</v>
+        <v>7180000</v>
       </c>
       <c r="J41" s="3">
-        <v>6185700</v>
+        <v>6335500</v>
       </c>
       <c r="K41" s="3">
         <v>5961800</v>
@@ -3165,25 +3166,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>300400300</v>
+        <v>307677500</v>
       </c>
       <c r="E42" s="3">
-        <v>290175400</v>
+        <v>297204900</v>
       </c>
       <c r="F42" s="3">
-        <v>276141300</v>
+        <v>282830800</v>
       </c>
       <c r="G42" s="3">
-        <v>300085000</v>
+        <v>307354500</v>
       </c>
       <c r="H42" s="3">
-        <v>301340500</v>
+        <v>308640400</v>
       </c>
       <c r="I42" s="3">
-        <v>285665400</v>
+        <v>292585600</v>
       </c>
       <c r="J42" s="3">
-        <v>275755800</v>
+        <v>282436000</v>
       </c>
       <c r="K42" s="3">
         <v>271490000</v>
@@ -3580,25 +3581,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1941100</v>
+        <v>1988100</v>
       </c>
       <c r="E47" s="3">
-        <v>1904200</v>
+        <v>1950400</v>
       </c>
       <c r="F47" s="3">
-        <v>1976600</v>
+        <v>2024400</v>
       </c>
       <c r="G47" s="3">
-        <v>1996100</v>
+        <v>2044400</v>
       </c>
       <c r="H47" s="3">
-        <v>1981600</v>
+        <v>2029600</v>
       </c>
       <c r="I47" s="3">
-        <v>1883300</v>
+        <v>1928900</v>
       </c>
       <c r="J47" s="3">
-        <v>1810900</v>
+        <v>1854800</v>
       </c>
       <c r="K47" s="3">
         <v>1862100</v>
@@ -3663,25 +3664,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4121600</v>
+        <v>4221500</v>
       </c>
       <c r="E48" s="3">
-        <v>4122400</v>
+        <v>4222200</v>
       </c>
       <c r="F48" s="3">
-        <v>3998700</v>
+        <v>4095600</v>
       </c>
       <c r="G48" s="3">
-        <v>4029100</v>
+        <v>4126700</v>
       </c>
       <c r="H48" s="3">
-        <v>4037000</v>
+        <v>4134800</v>
       </c>
       <c r="I48" s="3">
-        <v>4065200</v>
+        <v>4163700</v>
       </c>
       <c r="J48" s="3">
-        <v>4005200</v>
+        <v>4102200</v>
       </c>
       <c r="K48" s="3">
         <v>4173300</v>
@@ -3746,25 +3747,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12417700</v>
+        <v>12718500</v>
       </c>
       <c r="E49" s="3">
-        <v>12174000</v>
+        <v>12468900</v>
       </c>
       <c r="F49" s="3">
-        <v>11991000</v>
+        <v>12281500</v>
       </c>
       <c r="G49" s="3">
-        <v>12086500</v>
+        <v>12379200</v>
       </c>
       <c r="H49" s="3">
-        <v>12115400</v>
+        <v>12408900</v>
       </c>
       <c r="I49" s="3">
-        <v>12008300</v>
+        <v>12299200</v>
       </c>
       <c r="J49" s="3">
-        <v>12079900</v>
+        <v>12372600</v>
       </c>
       <c r="K49" s="3">
         <v>12615200</v>
@@ -3995,25 +3996,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1813800</v>
+        <v>1857800</v>
       </c>
       <c r="E52" s="3">
-        <v>1376300</v>
+        <v>1409600</v>
       </c>
       <c r="F52" s="3">
-        <v>654500</v>
+        <v>670400</v>
       </c>
       <c r="G52" s="3">
-        <v>822300</v>
+        <v>842200</v>
       </c>
       <c r="H52" s="3">
-        <v>1424000</v>
+        <v>1458500</v>
       </c>
       <c r="I52" s="3">
-        <v>1483300</v>
+        <v>1519300</v>
       </c>
       <c r="J52" s="3">
-        <v>1524500</v>
+        <v>1561500</v>
       </c>
       <c r="K52" s="3">
         <v>1540800</v>
@@ -4161,25 +4162,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>994021100</v>
+        <v>1018101200</v>
       </c>
       <c r="E54" s="3">
-        <v>975926100</v>
+        <v>999567900</v>
       </c>
       <c r="F54" s="3">
-        <v>934474000</v>
+        <v>957111600</v>
       </c>
       <c r="G54" s="3">
-        <v>931873300</v>
+        <v>954447900</v>
       </c>
       <c r="H54" s="3">
-        <v>900751700</v>
+        <v>922572400</v>
       </c>
       <c r="I54" s="3">
-        <v>856902900</v>
+        <v>877661300</v>
       </c>
       <c r="J54" s="3">
-        <v>841415100</v>
+        <v>861798400</v>
       </c>
       <c r="K54" s="3">
         <v>844903700</v>
@@ -4638,25 +4639,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6301400</v>
+        <v>6454100</v>
       </c>
       <c r="E61" s="3">
-        <v>6125000</v>
+        <v>6273300</v>
       </c>
       <c r="F61" s="3">
-        <v>6084400</v>
+        <v>6231800</v>
       </c>
       <c r="G61" s="3">
-        <v>6109000</v>
+        <v>6257000</v>
       </c>
       <c r="H61" s="3">
-        <v>4583800</v>
+        <v>4694800</v>
       </c>
       <c r="I61" s="3">
-        <v>4580900</v>
+        <v>4691800</v>
       </c>
       <c r="J61" s="3">
-        <v>4641600</v>
+        <v>4754100</v>
       </c>
       <c r="K61" s="3">
         <v>4834800</v>
@@ -5053,25 +5054,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>940367500</v>
+        <v>963147900</v>
       </c>
       <c r="E66" s="3">
-        <v>922968300</v>
+        <v>945327200</v>
       </c>
       <c r="F66" s="3">
-        <v>882333500</v>
+        <v>903708000</v>
       </c>
       <c r="G66" s="3">
-        <v>880969500</v>
+        <v>902310900</v>
       </c>
       <c r="H66" s="3">
-        <v>848879500</v>
+        <v>869443600</v>
       </c>
       <c r="I66" s="3">
-        <v>805697500</v>
+        <v>825215500</v>
       </c>
       <c r="J66" s="3">
-        <v>790776000</v>
+        <v>809932500</v>
       </c>
       <c r="K66" s="3">
         <v>793839200</v>
@@ -5333,25 +5334,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>5840000</v>
+        <v>5981500</v>
       </c>
       <c r="E70" s="3">
-        <v>5840000</v>
+        <v>5981500</v>
       </c>
       <c r="F70" s="3">
-        <v>5100100</v>
+        <v>5223700</v>
       </c>
       <c r="G70" s="3">
-        <v>4015300</v>
+        <v>4112600</v>
       </c>
       <c r="H70" s="3">
-        <v>4015300</v>
+        <v>4112600</v>
       </c>
       <c r="I70" s="3">
-        <v>4376900</v>
+        <v>4483000</v>
       </c>
       <c r="J70" s="3">
-        <v>3832300</v>
+        <v>3925200</v>
       </c>
       <c r="K70" s="3">
         <v>3415700</v>
@@ -5499,25 +5500,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>39068300</v>
+        <v>40014800</v>
       </c>
       <c r="E72" s="3">
-        <v>38771100</v>
+        <v>39710300</v>
       </c>
       <c r="F72" s="3">
-        <v>39411200</v>
+        <v>40365900</v>
       </c>
       <c r="G72" s="3">
-        <v>37656600</v>
+        <v>38568900</v>
       </c>
       <c r="H72" s="3">
-        <v>37661700</v>
+        <v>38574000</v>
       </c>
       <c r="I72" s="3">
-        <v>37300800</v>
+        <v>38204400</v>
       </c>
       <c r="J72" s="3">
-        <v>36315000</v>
+        <v>37194800</v>
       </c>
       <c r="K72" s="3">
         <v>36837900</v>
@@ -5831,25 +5832,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47813500</v>
+        <v>48971800</v>
       </c>
       <c r="E76" s="3">
-        <v>47117800</v>
+        <v>48259200</v>
       </c>
       <c r="F76" s="3">
-        <v>47040400</v>
+        <v>48180000</v>
       </c>
       <c r="G76" s="3">
-        <v>46888500</v>
+        <v>48024400</v>
       </c>
       <c r="H76" s="3">
-        <v>47856900</v>
+        <v>49016200</v>
       </c>
       <c r="I76" s="3">
-        <v>46828500</v>
+        <v>47962900</v>
       </c>
       <c r="J76" s="3">
-        <v>46806800</v>
+        <v>47940700</v>
       </c>
       <c r="K76" s="3">
         <v>47648800</v>
@@ -6085,25 +6086,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1179600</v>
+        <v>1208100</v>
       </c>
       <c r="E81" s="3">
-        <v>1409600</v>
+        <v>1443700</v>
       </c>
       <c r="F81" s="3">
-        <v>1810900</v>
+        <v>1854800</v>
       </c>
       <c r="G81" s="3">
-        <v>1876800</v>
+        <v>1922200</v>
       </c>
       <c r="H81" s="3">
-        <v>1886200</v>
+        <v>1931800</v>
       </c>
       <c r="I81" s="3">
-        <v>1743700</v>
+        <v>1785900</v>
       </c>
       <c r="J81" s="3">
-        <v>1754500</v>
+        <v>1797000</v>
       </c>
       <c r="K81" s="3">
         <v>1718700</v>
@@ -6199,25 +6200,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>293600</v>
+        <v>300700</v>
       </c>
       <c r="E83" s="3">
-        <v>284900</v>
+        <v>291900</v>
       </c>
       <c r="F83" s="3">
-        <v>275500</v>
+        <v>282200</v>
       </c>
       <c r="G83" s="3">
-        <v>275500</v>
+        <v>282200</v>
       </c>
       <c r="H83" s="3">
-        <v>271200</v>
+        <v>277800</v>
       </c>
       <c r="I83" s="3">
-        <v>277000</v>
+        <v>283700</v>
       </c>
       <c r="J83" s="3">
-        <v>269800</v>
+        <v>276300</v>
       </c>
       <c r="K83" s="3">
         <v>281600</v>
@@ -6697,25 +6698,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11827500</v>
+        <v>12114100</v>
       </c>
       <c r="E89" s="3">
-        <v>-1711900</v>
+        <v>-1753300</v>
       </c>
       <c r="F89" s="3">
-        <v>-7175100</v>
+        <v>-7348900</v>
       </c>
       <c r="G89" s="3">
-        <v>6707100</v>
+        <v>6869600</v>
       </c>
       <c r="H89" s="3">
-        <v>14433300</v>
+        <v>14782900</v>
       </c>
       <c r="I89" s="3">
-        <v>4337200</v>
+        <v>4442200</v>
       </c>
       <c r="J89" s="3">
-        <v>14512100</v>
+        <v>14863700</v>
       </c>
       <c r="K89" s="3">
         <v>-34166400</v>
@@ -6811,25 +6812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-40500</v>
+        <v>-56000</v>
       </c>
       <c r="E91" s="3">
-        <v>-128000</v>
+        <v>-177000</v>
       </c>
       <c r="F91" s="3">
-        <v>-141800</v>
+        <v>-196000</v>
       </c>
       <c r="G91" s="3">
-        <v>-110700</v>
+        <v>-153000</v>
       </c>
       <c r="H91" s="3">
-        <v>-32500</v>
+        <v>-45000</v>
       </c>
       <c r="I91" s="3">
-        <v>-138100</v>
+        <v>-191000</v>
       </c>
       <c r="J91" s="3">
-        <v>-64400</v>
+        <v>-89000</v>
       </c>
       <c r="K91" s="3">
         <v>-102900</v>
@@ -7060,25 +7061,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13792500</v>
+        <v>-14126700</v>
       </c>
       <c r="E94" s="3">
-        <v>3647900</v>
+        <v>3736300</v>
       </c>
       <c r="F94" s="3">
-        <v>5633900</v>
+        <v>5770400</v>
       </c>
       <c r="G94" s="3">
-        <v>-5754700</v>
+        <v>-5894100</v>
       </c>
       <c r="H94" s="3">
-        <v>-11694500</v>
+        <v>-11977800</v>
       </c>
       <c r="I94" s="3">
-        <v>-3953100</v>
+        <v>-4048900</v>
       </c>
       <c r="J94" s="3">
-        <v>-14191000</v>
+        <v>-14534800</v>
       </c>
       <c r="K94" s="3">
         <v>34384100</v>
@@ -7174,25 +7175,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-961200</v>
+        <v>-984400</v>
       </c>
       <c r="E96" s="3">
-        <v>-964100</v>
+        <v>-987400</v>
       </c>
       <c r="F96" s="3">
-        <v>-914900</v>
+        <v>-937000</v>
       </c>
       <c r="G96" s="3">
-        <v>-917800</v>
+        <v>-940000</v>
       </c>
       <c r="H96" s="3">
-        <v>-904700</v>
+        <v>-926700</v>
       </c>
       <c r="I96" s="3">
-        <v>-848300</v>
+        <v>-868900</v>
       </c>
       <c r="J96" s="3">
-        <v>-815800</v>
+        <v>-835600</v>
       </c>
       <c r="K96" s="3">
         <v>-877800</v>
@@ -7506,25 +7507,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-133100</v>
+        <v>-136300</v>
       </c>
       <c r="E100" s="3">
-        <v>-961900</v>
+        <v>-985200</v>
       </c>
       <c r="F100" s="3">
-        <v>760800</v>
+        <v>779300</v>
       </c>
       <c r="G100" s="3">
-        <v>-895300</v>
+        <v>-917000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2215200</v>
+        <v>-2268900</v>
       </c>
       <c r="I100" s="3">
-        <v>509900</v>
+        <v>522200</v>
       </c>
       <c r="J100" s="3">
-        <v>98400</v>
+        <v>100700</v>
       </c>
       <c r="K100" s="3">
         <v>-1125500</v>
@@ -7589,25 +7590,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>99100</v>
+        <v>101500</v>
       </c>
       <c r="E101" s="3">
-        <v>220600</v>
+        <v>225900</v>
       </c>
       <c r="F101" s="3">
-        <v>-109200</v>
+        <v>-111900</v>
       </c>
       <c r="G101" s="3">
         <v>700</v>
       </c>
       <c r="H101" s="3">
-        <v>105600</v>
+        <v>108100</v>
       </c>
       <c r="I101" s="3">
-        <v>-69400</v>
+        <v>-71100</v>
       </c>
       <c r="J101" s="3">
-        <v>23900</v>
+        <v>24400</v>
       </c>
       <c r="K101" s="3">
         <v>-220800</v>
@@ -7672,25 +7673,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1999000</v>
+        <v>-2047400</v>
       </c>
       <c r="E102" s="3">
-        <v>1194800</v>
+        <v>1223700</v>
       </c>
       <c r="F102" s="3">
-        <v>-889600</v>
+        <v>-911100</v>
       </c>
       <c r="G102" s="3">
-        <v>57900</v>
+        <v>59300</v>
       </c>
       <c r="H102" s="3">
-        <v>629200</v>
+        <v>644400</v>
       </c>
       <c r="I102" s="3">
-        <v>824500</v>
+        <v>844400</v>
       </c>
       <c r="J102" s="3">
-        <v>443300</v>
+        <v>454100</v>
       </c>
       <c r="K102" s="3">
         <v>-1128500</v>

--- a/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>BNS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,188 +665,200 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9745200</v>
+        <v>10875100</v>
       </c>
       <c r="E8" s="3">
-        <v>8235500</v>
+        <v>10268800</v>
       </c>
       <c r="F8" s="3">
-        <v>6581500</v>
+        <v>9740200</v>
       </c>
       <c r="G8" s="3">
-        <v>5253300</v>
+        <v>8231300</v>
       </c>
       <c r="H8" s="3">
-        <v>4787400</v>
+        <v>6578100</v>
       </c>
       <c r="I8" s="3">
+        <v>5250600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4784900</v>
+      </c>
+      <c r="K8" s="3">
         <v>4582200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4519300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4645600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4889600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5099700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5355700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>6153200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6421400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>6433800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>6997200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>6236300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>6151600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>5610000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>5368100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>5070000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>4823200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>4649100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>4553100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>4481900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>4400400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>4378100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -928,8 +940,14 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1011,8 +1029,14 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1066,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1125,8 +1151,14 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1208,8 +1240,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1291,91 +1329,103 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-316300</v>
+        <v>-319800</v>
       </c>
       <c r="E15" s="3">
-        <v>-309600</v>
+        <v>-320600</v>
       </c>
       <c r="F15" s="3">
-        <v>-300000</v>
+        <v>-316100</v>
       </c>
       <c r="G15" s="3">
-        <v>-300000</v>
+        <v>-309500</v>
       </c>
       <c r="H15" s="3">
-        <v>-296300</v>
+        <v>-299800</v>
       </c>
       <c r="I15" s="3">
+        <v>-299800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-296100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-302200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-294100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-301100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-306400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-332000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-309000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-306200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-332100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-233100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-253700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-220200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>-214000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>-188900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>-176900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>-167100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>-148100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>-145100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>-142100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>-144400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>-143700</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <v>-140600</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1402,174 +1452,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6833300</v>
+        <v>8090700</v>
       </c>
       <c r="E17" s="3">
-        <v>5203700</v>
+        <v>7487300</v>
       </c>
       <c r="F17" s="3">
-        <v>3423000</v>
+        <v>6829800</v>
       </c>
       <c r="G17" s="3">
-        <v>2102200</v>
+        <v>5201000</v>
       </c>
       <c r="H17" s="3">
-        <v>1734100</v>
+        <v>3421200</v>
       </c>
       <c r="I17" s="3">
+        <v>2101100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1733200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1583000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1677000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1882400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2196300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2412600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2641800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3371000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3719000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3640300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3962000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3680500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3391100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2972200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3002900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2498500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2298900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2196900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2127000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2068800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>2026600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>1994300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2911800</v>
+        <v>2784500</v>
       </c>
       <c r="E18" s="3">
-        <v>3031800</v>
+        <v>2781500</v>
       </c>
       <c r="F18" s="3">
-        <v>3158500</v>
+        <v>2910400</v>
       </c>
       <c r="G18" s="3">
-        <v>3151100</v>
+        <v>3030300</v>
       </c>
       <c r="H18" s="3">
-        <v>3053300</v>
+        <v>3156900</v>
       </c>
       <c r="I18" s="3">
+        <v>3149500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3051800</v>
+      </c>
+      <c r="K18" s="3">
         <v>2999300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2842200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2763200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2693300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2687100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2713900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2782200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2702300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2793600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3035200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2555800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>2760600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>2637900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>2365300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2571500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>2524400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>2452200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>2426100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>2413000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>2373800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>2383800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1599,174 +1663,188 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-780000</v>
+        <v>-778900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1129600</v>
+        <v>-824000</v>
       </c>
       <c r="F20" s="3">
-        <v>-791100</v>
+        <v>-779600</v>
       </c>
       <c r="G20" s="3">
-        <v>-511100</v>
+        <v>-1129000</v>
       </c>
       <c r="H20" s="3">
-        <v>-383700</v>
+        <v>-790700</v>
       </c>
       <c r="I20" s="3">
+        <v>-510800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-383500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-593300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-412600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-361900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-365700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-910800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1537100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1410700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-521600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-529400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-766000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-335600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-647400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-607500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-507400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-465200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-257500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-511300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-454700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-574600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-356500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-424100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2432600</v>
+        <v>2310700</v>
       </c>
       <c r="E21" s="3">
-        <v>2194100</v>
+        <v>2262500</v>
       </c>
       <c r="F21" s="3">
-        <v>2649600</v>
+        <v>2431300</v>
       </c>
       <c r="G21" s="3">
-        <v>2922200</v>
+        <v>2192900</v>
       </c>
       <c r="H21" s="3">
-        <v>2947400</v>
+        <v>2648300</v>
       </c>
       <c r="I21" s="3">
+        <v>2920700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2945900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2689600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2705900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2682800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2613000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2088300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1465800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1656500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2491800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2475500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>2497900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2418800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>2304100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>2199700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>2017500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>2259900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>2415000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>2086000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>2113600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>1982800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>2161000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>2100300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1848,174 +1926,192 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2131800</v>
+        <v>2005600</v>
       </c>
       <c r="E23" s="3">
-        <v>1902200</v>
+        <v>1957500</v>
       </c>
       <c r="F23" s="3">
-        <v>2367400</v>
+        <v>2130800</v>
       </c>
       <c r="G23" s="3">
-        <v>2640000</v>
+        <v>1901200</v>
       </c>
       <c r="H23" s="3">
-        <v>2669600</v>
+        <v>2366200</v>
       </c>
       <c r="I23" s="3">
+        <v>2638600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2668300</v>
+      </c>
+      <c r="K23" s="3">
         <v>2405900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2429600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2401300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2327700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1776300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1176800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1371500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2180700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2264200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2269100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2220200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2113200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>2030400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1857900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>2106300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>2266900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>1940900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>1971400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>1838400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>2017400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>1959800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>819300</v>
+        <v>368000</v>
       </c>
       <c r="E24" s="3">
-        <v>351900</v>
+        <v>359100</v>
       </c>
       <c r="F24" s="3">
-        <v>445900</v>
+        <v>818800</v>
       </c>
       <c r="G24" s="3">
-        <v>605200</v>
+        <v>351700</v>
       </c>
       <c r="H24" s="3">
-        <v>640000</v>
+        <v>445700</v>
       </c>
       <c r="I24" s="3">
+        <v>604900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>639700</v>
+      </c>
+      <c r="K24" s="3">
         <v>510400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>546700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>557100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>527100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>320500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>177100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>332100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>367200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>464700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>624300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>481100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>383400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>380100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>398200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>467500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>527600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>400400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>406300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>255100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>474000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>414800</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2097,174 +2193,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1312600</v>
+        <v>1637700</v>
       </c>
       <c r="E26" s="3">
-        <v>1550400</v>
+        <v>1598400</v>
       </c>
       <c r="F26" s="3">
-        <v>1921500</v>
+        <v>1311900</v>
       </c>
       <c r="G26" s="3">
-        <v>2034800</v>
+        <v>1549600</v>
       </c>
       <c r="H26" s="3">
-        <v>2029600</v>
+        <v>1920500</v>
       </c>
       <c r="I26" s="3">
+        <v>2033800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2028600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1895600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1883000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1844100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1800600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1455800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>999700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1039400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1813500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1799500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1644800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1739000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1729800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1650300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1459700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1638800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>1739200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>1540500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>1565100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>1583300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>1543400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>1544900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1208100</v>
+        <v>1544400</v>
       </c>
       <c r="E27" s="3">
-        <v>1443700</v>
+        <v>1502200</v>
       </c>
       <c r="F27" s="3">
-        <v>1854800</v>
+        <v>1207500</v>
       </c>
       <c r="G27" s="3">
-        <v>1922200</v>
+        <v>1443000</v>
       </c>
       <c r="H27" s="3">
-        <v>1931800</v>
+        <v>1853900</v>
       </c>
       <c r="I27" s="3">
+        <v>1921200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1930900</v>
+      </c>
+      <c r="K27" s="3">
         <v>1785900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1797000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1718700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1700700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1337800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1021200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>975800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1763600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1666200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1524600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1635900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1622000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1536200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1472500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1537200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>1673700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>1478000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>1500300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>1509600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>1466600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2346,8 +2460,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2429,8 +2549,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2512,8 +2638,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2595,174 +2727,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>780000</v>
+        <v>778900</v>
       </c>
       <c r="E32" s="3">
-        <v>1129600</v>
+        <v>824000</v>
       </c>
       <c r="F32" s="3">
-        <v>791100</v>
+        <v>779600</v>
       </c>
       <c r="G32" s="3">
-        <v>511100</v>
+        <v>1129000</v>
       </c>
       <c r="H32" s="3">
-        <v>383700</v>
+        <v>790700</v>
       </c>
       <c r="I32" s="3">
+        <v>510800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>383500</v>
+      </c>
+      <c r="K32" s="3">
         <v>593300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>412600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>361900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>365700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>910800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1537100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1410700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>521600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>529400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>766000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>335600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>647400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>607500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>507400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>465200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>257500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>511300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>454700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>574600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>356500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1208100</v>
+        <v>1544400</v>
       </c>
       <c r="E33" s="3">
-        <v>1443700</v>
+        <v>1502200</v>
       </c>
       <c r="F33" s="3">
-        <v>1854800</v>
+        <v>1207500</v>
       </c>
       <c r="G33" s="3">
-        <v>1922200</v>
+        <v>1443000</v>
       </c>
       <c r="H33" s="3">
-        <v>1931800</v>
+        <v>1853900</v>
       </c>
       <c r="I33" s="3">
+        <v>1921200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1930900</v>
+      </c>
+      <c r="K33" s="3">
         <v>1785900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1797000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1718700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1700700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1337800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1021200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>975800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1763600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1666200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1524600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1635900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1622000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1536200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1472500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1537200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>1673700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>1478000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>1500300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>1509600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>1466600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2844,179 +2994,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1208100</v>
+        <v>1544400</v>
       </c>
       <c r="E35" s="3">
-        <v>1443700</v>
+        <v>1502200</v>
       </c>
       <c r="F35" s="3">
-        <v>1854800</v>
+        <v>1207500</v>
       </c>
       <c r="G35" s="3">
-        <v>1922200</v>
+        <v>1443000</v>
       </c>
       <c r="H35" s="3">
-        <v>1931800</v>
+        <v>1853900</v>
       </c>
       <c r="I35" s="3">
+        <v>1921200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1930900</v>
+      </c>
+      <c r="K35" s="3">
         <v>1785900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1797000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1718700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1700700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1337800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1021200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>975800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1763600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1666200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1524600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1635900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1622000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1536200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1472500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1537200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>1673700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>1478000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>1500300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>1509600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>1466600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3046,8 +3214,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3077,174 +3247,188 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6148900</v>
+        <v>9354400</v>
       </c>
       <c r="E41" s="3">
-        <v>8196300</v>
+        <v>6879400</v>
       </c>
       <c r="F41" s="3">
-        <v>6972600</v>
+        <v>6145700</v>
       </c>
       <c r="G41" s="3">
-        <v>7883700</v>
+        <v>8192100</v>
       </c>
       <c r="H41" s="3">
-        <v>7824400</v>
+        <v>6969000</v>
       </c>
       <c r="I41" s="3">
+        <v>7879700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>7820400</v>
+      </c>
+      <c r="K41" s="3">
         <v>7180000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6335500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5961800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7090400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8527300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>8502800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>9156000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>7978400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>8501500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>8744800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>7436500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>7543500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>6538000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>6020800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>5560100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>5828700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>5823400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>5103800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>6764300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>6125100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>5266200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>307677500</v>
+        <v>327825500</v>
       </c>
       <c r="E42" s="3">
-        <v>297204900</v>
+        <v>297369300</v>
       </c>
       <c r="F42" s="3">
-        <v>282830800</v>
+        <v>307519600</v>
       </c>
       <c r="G42" s="3">
-        <v>307354500</v>
+        <v>297052400</v>
       </c>
       <c r="H42" s="3">
-        <v>308640400</v>
+        <v>282685700</v>
       </c>
       <c r="I42" s="3">
+        <v>307196800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>308482100</v>
+      </c>
+      <c r="K42" s="3">
         <v>292585600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>282436000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>271490000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>292090500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>268623800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>274213300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>326294300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>310629100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>262831400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>269948600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>245269300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>241611900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>216781100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>195829300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>207922900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>208904200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>209121500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>207952400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>225427900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>214720300</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>216684600</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3326,8 +3510,14 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3409,8 +3599,14 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3492,8 +3688,14 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3575,257 +3777,281 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1988100</v>
+        <v>1930100</v>
       </c>
       <c r="E47" s="3">
-        <v>1950400</v>
+        <v>2004900</v>
       </c>
       <c r="F47" s="3">
-        <v>2024400</v>
+        <v>1987100</v>
       </c>
       <c r="G47" s="3">
-        <v>2044400</v>
+        <v>1949400</v>
       </c>
       <c r="H47" s="3">
-        <v>2029600</v>
+        <v>2023400</v>
       </c>
       <c r="I47" s="3">
+        <v>2043400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2028600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1928900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1854800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1862100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1889200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1897400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1839200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1909200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1814300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>4377100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>4556500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>4082400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>3990700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>3524400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>3540400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>3617900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>3362300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>3412900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>3261100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>3474700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>3274200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>3302600</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4221500</v>
+        <v>4208900</v>
       </c>
       <c r="E48" s="3">
-        <v>4222200</v>
+        <v>4180100</v>
       </c>
       <c r="F48" s="3">
-        <v>4095600</v>
+        <v>4219300</v>
       </c>
       <c r="G48" s="3">
-        <v>4126700</v>
+        <v>4220100</v>
       </c>
       <c r="H48" s="3">
-        <v>4134800</v>
+        <v>4093500</v>
       </c>
       <c r="I48" s="3">
+        <v>4124500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4132700</v>
+      </c>
+      <c r="K48" s="3">
         <v>4163700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4102200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4173300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4302400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4520900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4619000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4807600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4758300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2080900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2183700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2095500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2063100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1950400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1955000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1799200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1722100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1772000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1658100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1809200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>1747700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>1935900</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12718500</v>
+        <v>12780100</v>
       </c>
       <c r="E49" s="3">
-        <v>12468900</v>
+        <v>12879300</v>
       </c>
       <c r="F49" s="3">
-        <v>12281500</v>
+        <v>12712000</v>
       </c>
       <c r="G49" s="3">
-        <v>12379200</v>
+        <v>12462500</v>
       </c>
       <c r="H49" s="3">
-        <v>12408900</v>
+        <v>12275200</v>
       </c>
       <c r="I49" s="3">
+        <v>12372900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>12402500</v>
+      </c>
+      <c r="K49" s="3">
         <v>12299200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>12372600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>12615200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>12747400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>13044400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>13137100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>13433800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>13403300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>13616900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>14601200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>13722000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>13752100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>12876200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>11209000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>9239000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>8967000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>9009400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>8879200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>9437700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>9261800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>9327100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3907,8 +4133,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3990,91 +4222,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1857800</v>
+        <v>2338800</v>
       </c>
       <c r="E52" s="3">
-        <v>1409600</v>
+        <v>1623600</v>
       </c>
       <c r="F52" s="3">
-        <v>670400</v>
+        <v>1856800</v>
       </c>
       <c r="G52" s="3">
-        <v>842200</v>
+        <v>1408900</v>
       </c>
       <c r="H52" s="3">
-        <v>1458500</v>
+        <v>670000</v>
       </c>
       <c r="I52" s="3">
+        <v>841800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1457800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1519300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1561500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1540800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1588800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1675100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1659000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1311000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1339500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1224100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1414400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1592800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1575800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1408300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1473200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1345200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1293400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>1274800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>1286000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>1485000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>1379000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>1552600</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4156,91 +4400,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1018101200</v>
+        <v>1033615100</v>
       </c>
       <c r="E54" s="3">
-        <v>999567900</v>
+        <v>1016660900</v>
       </c>
       <c r="F54" s="3">
-        <v>957111600</v>
+        <v>1017578900</v>
       </c>
       <c r="G54" s="3">
-        <v>954447900</v>
+        <v>999055100</v>
       </c>
       <c r="H54" s="3">
-        <v>922572400</v>
+        <v>956620600</v>
       </c>
       <c r="I54" s="3">
+        <v>953958300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>922099100</v>
+      </c>
+      <c r="K54" s="3">
         <v>877661300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>861798400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>844903700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>874038600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>871260300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>896870700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>979014700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>899756300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>846847100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>884380800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>814599700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>796211700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>725594900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>712668600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>697316900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>687018900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>681155300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>674501300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>708036100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>681413900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>688538400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4270,8 +4526,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4301,8 +4559,10 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4384,8 +4644,14 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4467,8 +4733,14 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4550,8 +4822,14 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4633,91 +4911,103 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6454100</v>
+        <v>7082300</v>
       </c>
       <c r="E61" s="3">
-        <v>6273300</v>
+        <v>6503300</v>
       </c>
       <c r="F61" s="3">
-        <v>6231800</v>
+        <v>6450800</v>
       </c>
       <c r="G61" s="3">
-        <v>6257000</v>
+        <v>6270100</v>
       </c>
       <c r="H61" s="3">
-        <v>4694800</v>
+        <v>6228600</v>
       </c>
       <c r="I61" s="3">
+        <v>6253800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4692400</v>
+      </c>
+      <c r="K61" s="3">
         <v>4691800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4754100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4834800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4955700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5677000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5624100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5875300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5687700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5654200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>7478900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5815200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>5767500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>4140700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>4281100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>4266100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>4242700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>4416900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>5489300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>5854700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>5767100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>5863900</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4799,8 +5089,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4882,8 +5178,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4965,8 +5267,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5048,91 +5356,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>963147900</v>
+        <v>977305600</v>
       </c>
       <c r="E66" s="3">
-        <v>945327200</v>
+        <v>959540600</v>
       </c>
       <c r="F66" s="3">
-        <v>903708000</v>
+        <v>962653800</v>
       </c>
       <c r="G66" s="3">
-        <v>902310900</v>
+        <v>944842200</v>
       </c>
       <c r="H66" s="3">
-        <v>869443600</v>
+        <v>903244400</v>
       </c>
       <c r="I66" s="3">
+        <v>901848100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>868997600</v>
+      </c>
+      <c r="K66" s="3">
         <v>825215500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>809932500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>793839200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>822458300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>819031400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>844592700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>925723100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>847230700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>794202300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>828487900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>762671500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>745088800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>678194300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>663747700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>651024100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>642619400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>636478200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>632539800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>663375800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>638197100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>645324700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5162,8 +5482,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5245,8 +5567,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5328,91 +5656,103 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>5981500</v>
+        <v>5978400</v>
       </c>
       <c r="E70" s="3">
-        <v>5981500</v>
+        <v>5978400</v>
       </c>
       <c r="F70" s="3">
-        <v>5223700</v>
+        <v>5978400</v>
       </c>
       <c r="G70" s="3">
-        <v>4112600</v>
+        <v>5978400</v>
       </c>
       <c r="H70" s="3">
-        <v>4112600</v>
+        <v>5221000</v>
       </c>
       <c r="I70" s="3">
+        <v>4110500</v>
+      </c>
+      <c r="J70" s="3">
+        <v>4110500</v>
+      </c>
+      <c r="K70" s="3">
         <v>4483000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>3925200</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>3415700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>3985600</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>4069300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>4069300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>2841100</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>3028200</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>3028200</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>3220000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>2990000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>2990000</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>3040500</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>3187300</v>
       </c>
-      <c r="W70" s="3">
+      <c r="Y70" s="3">
         <v>3187300</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Z70" s="3">
         <v>3407700</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="AA70" s="3">
         <v>3407700</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AB70" s="3">
         <v>2246800</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AC70" s="3">
         <v>2319300</v>
       </c>
-      <c r="AB70" s="3">
+      <c r="AD70" s="3">
         <v>2496000</v>
       </c>
-      <c r="AC70" s="3">
+      <c r="AE70" s="3">
         <v>2761000</v>
       </c>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5494,91 +5834,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>40014800</v>
+        <v>41234400</v>
       </c>
       <c r="E72" s="3">
-        <v>39710300</v>
+        <v>40588800</v>
       </c>
       <c r="F72" s="3">
-        <v>40365900</v>
+        <v>39994200</v>
       </c>
       <c r="G72" s="3">
-        <v>38568900</v>
+        <v>39690000</v>
       </c>
       <c r="H72" s="3">
-        <v>38574000</v>
+        <v>40345200</v>
       </c>
       <c r="I72" s="3">
+        <v>38549100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>38554200</v>
+      </c>
+      <c r="K72" s="3">
         <v>38204400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>37194800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>36837900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>35947400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>35805900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>35303000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>35967100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>35693300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>34932300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>36521300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>33449400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>32826700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>30388700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>30724400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>30016700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>28815800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>28453400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>27695800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>27932800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>27496500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>26814300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5660,8 +6012,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5743,8 +6101,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5826,91 +6190,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>48971800</v>
+        <v>50331200</v>
       </c>
       <c r="E76" s="3">
-        <v>48259200</v>
+        <v>51141800</v>
       </c>
       <c r="F76" s="3">
-        <v>48180000</v>
+        <v>48946700</v>
       </c>
       <c r="G76" s="3">
-        <v>48024400</v>
+        <v>48234500</v>
       </c>
       <c r="H76" s="3">
-        <v>49016200</v>
+        <v>48155200</v>
       </c>
       <c r="I76" s="3">
+        <v>47999800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>48991100</v>
+      </c>
+      <c r="K76" s="3">
         <v>47962900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>47940700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>47648800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>47594800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>48159600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>48208600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>50450500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>49497300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>49616600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>52672900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>48938200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>48133000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>44360100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>45733500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>43105500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>40991800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>41269400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>39714800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>42341000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>40720800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>40452700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5992,179 +6368,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1208100</v>
+        <v>1544400</v>
       </c>
       <c r="E81" s="3">
-        <v>1443700</v>
+        <v>1502200</v>
       </c>
       <c r="F81" s="3">
-        <v>1854800</v>
+        <v>1207500</v>
       </c>
       <c r="G81" s="3">
-        <v>1922200</v>
+        <v>1443000</v>
       </c>
       <c r="H81" s="3">
-        <v>1931800</v>
+        <v>1853900</v>
       </c>
       <c r="I81" s="3">
+        <v>1921200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1930900</v>
+      </c>
+      <c r="K81" s="3">
         <v>1785900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1797000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1718700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1700700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1337800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1021200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>975800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1763600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1666200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1524600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1635900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1622000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1536200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1472500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1537200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>1673700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>1478000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>1500300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>1509600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>1466600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6194,91 +6588,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300700</v>
+        <v>305000</v>
       </c>
       <c r="E83" s="3">
-        <v>291900</v>
+        <v>305000</v>
       </c>
       <c r="F83" s="3">
-        <v>282200</v>
+        <v>300600</v>
       </c>
       <c r="G83" s="3">
-        <v>282200</v>
+        <v>291700</v>
       </c>
       <c r="H83" s="3">
-        <v>277800</v>
+        <v>282100</v>
       </c>
       <c r="I83" s="3">
+        <v>282100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>277600</v>
+      </c>
+      <c r="K83" s="3">
         <v>283700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>276300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>281600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>285300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>312000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>289000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>285000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>311100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>211300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>228800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>198600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>190900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>169300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>159600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>153600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>148100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>145100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>142100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>144400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>143700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>140600</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6360,8 +6762,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6443,8 +6851,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6526,8 +6940,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6609,8 +7029,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6692,91 +7118,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12114100</v>
+        <v>17270400</v>
       </c>
       <c r="E89" s="3">
-        <v>-1753300</v>
+        <v>-9404800</v>
       </c>
       <c r="F89" s="3">
-        <v>-7348900</v>
+        <v>12107800</v>
       </c>
       <c r="G89" s="3">
-        <v>6869600</v>
+        <v>-1752400</v>
       </c>
       <c r="H89" s="3">
-        <v>14782900</v>
+        <v>-7345100</v>
       </c>
       <c r="I89" s="3">
+        <v>6866100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>14775400</v>
+      </c>
+      <c r="K89" s="3">
         <v>4442200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>14863700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-34166400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4980500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>6788600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-31314200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>56085500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>13420500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>3169400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-5834000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1967700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-8936800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>13302100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-8250600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1346000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>6458300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-67700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>10880400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-4796100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>6374800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-18996000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6806,91 +7244,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-217000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-56000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-177000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-196000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-153000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-45000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-191000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-89000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-102900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-33800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-155600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-126500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-241800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-74100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-115400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>54700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-67000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-13100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-141700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-79800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-68500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-17900</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AC91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-83000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6972,8 +7418,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7055,91 +7507,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14126700</v>
+        <v>-15117400</v>
       </c>
       <c r="E94" s="3">
-        <v>3736300</v>
+        <v>11674700</v>
       </c>
       <c r="F94" s="3">
-        <v>5770400</v>
+        <v>-14119400</v>
       </c>
       <c r="G94" s="3">
-        <v>-5894100</v>
+        <v>3734400</v>
       </c>
       <c r="H94" s="3">
-        <v>-11977800</v>
+        <v>5767400</v>
       </c>
       <c r="I94" s="3">
+        <v>-5891000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-11971600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4048900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-14534800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>34384100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-4511200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-5552000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>29174500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-55092500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-13328500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-790600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>5533100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1522700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>8880600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-11479500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>8039800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-811500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-5603900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>498600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-11229400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>4276700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-2833200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>16361800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7169,91 +7633,99 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-984400</v>
+        <v>-1018000</v>
       </c>
       <c r="E96" s="3">
-        <v>-987400</v>
+        <v>-985400</v>
       </c>
       <c r="F96" s="3">
-        <v>-937000</v>
+        <v>-983900</v>
       </c>
       <c r="G96" s="3">
-        <v>-940000</v>
+        <v>-986900</v>
       </c>
       <c r="H96" s="3">
-        <v>-926700</v>
+        <v>-936600</v>
       </c>
       <c r="I96" s="3">
+        <v>-939500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-926200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-868900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-835600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-877800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-851500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-899300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-853300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-907500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-870900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-853000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-880500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-818300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-801400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-757900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-761100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-739200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-728600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-630300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-699600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-727500</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-717500</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AE96" s="3">
         <v>-709800</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7335,8 +7807,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7418,8 +7896,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7501,253 +7985,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-136300</v>
+        <v>430900</v>
       </c>
       <c r="E100" s="3">
-        <v>-985200</v>
+        <v>-1610300</v>
       </c>
       <c r="F100" s="3">
-        <v>779300</v>
+        <v>-136200</v>
       </c>
       <c r="G100" s="3">
-        <v>-917000</v>
+        <v>-984700</v>
       </c>
       <c r="H100" s="3">
-        <v>-2268900</v>
+        <v>778900</v>
       </c>
       <c r="I100" s="3">
+        <v>-916600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-2267700</v>
+      </c>
+      <c r="K100" s="3">
         <v>522200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1125500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1591100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1138500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1866000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-25900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-602700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-2052900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1164800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-665900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>619700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-6303300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>6132200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-1036600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-718200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>174100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-746400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>872700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-2534400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>469400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>101500</v>
+        <v>-108800</v>
       </c>
       <c r="E101" s="3">
-        <v>225900</v>
+        <v>74000</v>
       </c>
       <c r="F101" s="3">
-        <v>-111900</v>
+        <v>101400</v>
       </c>
       <c r="G101" s="3">
+        <v>225800</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-111800</v>
+      </c>
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>108100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-71100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>24400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-220800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-139700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-73600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-164800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>155400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-48300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-127700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>113900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>53900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-77800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>13600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>166400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-131000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>114600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-353500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>285800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-148300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>93000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2047400</v>
+        <v>2475000</v>
       </c>
       <c r="E102" s="3">
-        <v>1223700</v>
+        <v>733700</v>
       </c>
       <c r="F102" s="3">
-        <v>-911100</v>
+        <v>-2046400</v>
       </c>
       <c r="G102" s="3">
-        <v>59300</v>
+        <v>1223100</v>
       </c>
       <c r="H102" s="3">
-        <v>644400</v>
+        <v>-910600</v>
       </c>
       <c r="I102" s="3">
+        <v>59200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>644100</v>
+      </c>
+      <c r="K102" s="3">
         <v>844400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>454100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1128500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1261400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>24500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-438500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1122600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-523200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>277600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>736200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-107000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>617400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>726000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>460700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-335700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>5200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>719700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>639200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>858900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-460900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNS_QTR_FIN.xlsx
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -774,25 +774,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10875100</v>
+        <v>10679000</v>
       </c>
       <c r="E8" s="3">
-        <v>10268800</v>
+        <v>10083600</v>
       </c>
       <c r="F8" s="3">
-        <v>9740200</v>
+        <v>9564500</v>
       </c>
       <c r="G8" s="3">
-        <v>8231300</v>
+        <v>8082900</v>
       </c>
       <c r="H8" s="3">
-        <v>6578100</v>
+        <v>6459500</v>
       </c>
       <c r="I8" s="3">
-        <v>5250600</v>
+        <v>5156000</v>
       </c>
       <c r="J8" s="3">
-        <v>4784900</v>
+        <v>4698700</v>
       </c>
       <c r="K8" s="3">
         <v>4582200</v>
@@ -1341,25 +1341,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-319800</v>
+        <v>-314100</v>
       </c>
       <c r="E15" s="3">
-        <v>-320600</v>
+        <v>-314800</v>
       </c>
       <c r="F15" s="3">
-        <v>-316100</v>
+        <v>-310400</v>
       </c>
       <c r="G15" s="3">
-        <v>-309500</v>
+        <v>-303900</v>
       </c>
       <c r="H15" s="3">
-        <v>-299800</v>
+        <v>-294400</v>
       </c>
       <c r="I15" s="3">
-        <v>-299800</v>
+        <v>-294400</v>
       </c>
       <c r="J15" s="3">
-        <v>-296100</v>
+        <v>-290800</v>
       </c>
       <c r="K15" s="3">
         <v>-302200</v>
@@ -1460,25 +1460,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8090700</v>
+        <v>7944800</v>
       </c>
       <c r="E17" s="3">
-        <v>7487300</v>
+        <v>7352300</v>
       </c>
       <c r="F17" s="3">
-        <v>6829800</v>
+        <v>6706700</v>
       </c>
       <c r="G17" s="3">
-        <v>5201000</v>
+        <v>5107200</v>
       </c>
       <c r="H17" s="3">
-        <v>3421200</v>
+        <v>3359500</v>
       </c>
       <c r="I17" s="3">
-        <v>2101100</v>
+        <v>2063300</v>
       </c>
       <c r="J17" s="3">
-        <v>1733200</v>
+        <v>1701900</v>
       </c>
       <c r="K17" s="3">
         <v>1583000</v>
@@ -1549,25 +1549,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2784500</v>
+        <v>2734300</v>
       </c>
       <c r="E18" s="3">
-        <v>2781500</v>
+        <v>2731400</v>
       </c>
       <c r="F18" s="3">
-        <v>2910400</v>
+        <v>2857900</v>
       </c>
       <c r="G18" s="3">
-        <v>3030300</v>
+        <v>2975700</v>
       </c>
       <c r="H18" s="3">
-        <v>3156900</v>
+        <v>3100000</v>
       </c>
       <c r="I18" s="3">
-        <v>3149500</v>
+        <v>3092700</v>
       </c>
       <c r="J18" s="3">
-        <v>3051800</v>
+        <v>2996700</v>
       </c>
       <c r="K18" s="3">
         <v>2999300</v>
@@ -1671,25 +1671,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-778900</v>
+        <v>-764800</v>
       </c>
       <c r="E20" s="3">
-        <v>-824000</v>
+        <v>-809200</v>
       </c>
       <c r="F20" s="3">
-        <v>-779600</v>
+        <v>-765500</v>
       </c>
       <c r="G20" s="3">
-        <v>-1129000</v>
+        <v>-1108700</v>
       </c>
       <c r="H20" s="3">
-        <v>-790700</v>
+        <v>-776400</v>
       </c>
       <c r="I20" s="3">
-        <v>-510800</v>
+        <v>-501600</v>
       </c>
       <c r="J20" s="3">
-        <v>-383500</v>
+        <v>-376600</v>
       </c>
       <c r="K20" s="3">
         <v>-593300</v>
@@ -1760,25 +1760,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2310700</v>
+        <v>2269000</v>
       </c>
       <c r="E21" s="3">
-        <v>2262500</v>
+        <v>2221700</v>
       </c>
       <c r="F21" s="3">
-        <v>2431300</v>
+        <v>2387500</v>
       </c>
       <c r="G21" s="3">
-        <v>2192900</v>
+        <v>2153400</v>
       </c>
       <c r="H21" s="3">
-        <v>2648300</v>
+        <v>2600500</v>
       </c>
       <c r="I21" s="3">
-        <v>2920700</v>
+        <v>2868100</v>
       </c>
       <c r="J21" s="3">
-        <v>2945900</v>
+        <v>2892800</v>
       </c>
       <c r="K21" s="3">
         <v>2689600</v>
@@ -1938,25 +1938,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2005600</v>
+        <v>1969500</v>
       </c>
       <c r="E23" s="3">
-        <v>1957500</v>
+        <v>1922200</v>
       </c>
       <c r="F23" s="3">
-        <v>2130800</v>
+        <v>2092300</v>
       </c>
       <c r="G23" s="3">
-        <v>1901200</v>
+        <v>1867000</v>
       </c>
       <c r="H23" s="3">
-        <v>2366200</v>
+        <v>2323500</v>
       </c>
       <c r="I23" s="3">
-        <v>2638600</v>
+        <v>2591100</v>
       </c>
       <c r="J23" s="3">
-        <v>2668300</v>
+        <v>2620100</v>
       </c>
       <c r="K23" s="3">
         <v>2405900</v>
@@ -2027,25 +2027,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>368000</v>
+        <v>361300</v>
       </c>
       <c r="E24" s="3">
-        <v>359100</v>
+        <v>352600</v>
       </c>
       <c r="F24" s="3">
-        <v>818800</v>
+        <v>804100</v>
       </c>
       <c r="G24" s="3">
-        <v>351700</v>
+        <v>345300</v>
       </c>
       <c r="H24" s="3">
-        <v>445700</v>
+        <v>437700</v>
       </c>
       <c r="I24" s="3">
-        <v>604900</v>
+        <v>594000</v>
       </c>
       <c r="J24" s="3">
-        <v>639700</v>
+        <v>628100</v>
       </c>
       <c r="K24" s="3">
         <v>510400</v>
@@ -2205,25 +2205,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1637700</v>
+        <v>1608100</v>
       </c>
       <c r="E26" s="3">
-        <v>1598400</v>
+        <v>1569600</v>
       </c>
       <c r="F26" s="3">
-        <v>1311900</v>
+        <v>1288300</v>
       </c>
       <c r="G26" s="3">
-        <v>1549600</v>
+        <v>1521600</v>
       </c>
       <c r="H26" s="3">
-        <v>1920500</v>
+        <v>1885900</v>
       </c>
       <c r="I26" s="3">
-        <v>2033800</v>
+        <v>1997100</v>
       </c>
       <c r="J26" s="3">
-        <v>2028600</v>
+        <v>1992000</v>
       </c>
       <c r="K26" s="3">
         <v>1895600</v>
@@ -2294,25 +2294,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1544400</v>
+        <v>1516500</v>
       </c>
       <c r="E27" s="3">
-        <v>1502200</v>
+        <v>1475100</v>
       </c>
       <c r="F27" s="3">
-        <v>1207500</v>
+        <v>1185800</v>
       </c>
       <c r="G27" s="3">
-        <v>1443000</v>
+        <v>1416900</v>
       </c>
       <c r="H27" s="3">
-        <v>1853900</v>
+        <v>1820400</v>
       </c>
       <c r="I27" s="3">
-        <v>1921200</v>
+        <v>1886600</v>
       </c>
       <c r="J27" s="3">
-        <v>1930900</v>
+        <v>1896000</v>
       </c>
       <c r="K27" s="3">
         <v>1785900</v>
@@ -2739,25 +2739,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>778900</v>
+        <v>764800</v>
       </c>
       <c r="E32" s="3">
-        <v>824000</v>
+        <v>809200</v>
       </c>
       <c r="F32" s="3">
-        <v>779600</v>
+        <v>765500</v>
       </c>
       <c r="G32" s="3">
-        <v>1129000</v>
+        <v>1108700</v>
       </c>
       <c r="H32" s="3">
-        <v>790700</v>
+        <v>776400</v>
       </c>
       <c r="I32" s="3">
-        <v>510800</v>
+        <v>501600</v>
       </c>
       <c r="J32" s="3">
-        <v>383500</v>
+        <v>376600</v>
       </c>
       <c r="K32" s="3">
         <v>593300</v>
@@ -2828,25 +2828,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1544400</v>
+        <v>1516500</v>
       </c>
       <c r="E33" s="3">
-        <v>1502200</v>
+        <v>1475100</v>
       </c>
       <c r="F33" s="3">
-        <v>1207500</v>
+        <v>1185800</v>
       </c>
       <c r="G33" s="3">
-        <v>1443000</v>
+        <v>1416900</v>
       </c>
       <c r="H33" s="3">
-        <v>1853900</v>
+        <v>1820400</v>
       </c>
       <c r="I33" s="3">
-        <v>1921200</v>
+        <v>1886600</v>
       </c>
       <c r="J33" s="3">
-        <v>1930900</v>
+        <v>1896000</v>
       </c>
       <c r="K33" s="3">
         <v>1785900</v>
@@ -3006,25 +3006,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1544400</v>
+        <v>1516500</v>
       </c>
       <c r="E35" s="3">
-        <v>1502200</v>
+        <v>1475100</v>
       </c>
       <c r="F35" s="3">
-        <v>1207500</v>
+        <v>1185800</v>
       </c>
       <c r="G35" s="3">
-        <v>1443000</v>
+        <v>1416900</v>
       </c>
       <c r="H35" s="3">
-        <v>1853900</v>
+        <v>1820400</v>
       </c>
       <c r="I35" s="3">
-        <v>1921200</v>
+        <v>1886600</v>
       </c>
       <c r="J35" s="3">
-        <v>1930900</v>
+        <v>1896000</v>
       </c>
       <c r="K35" s="3">
         <v>1785900</v>
@@ -3255,25 +3255,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9354400</v>
+        <v>9185800</v>
       </c>
       <c r="E41" s="3">
-        <v>6879400</v>
+        <v>6755400</v>
       </c>
       <c r="F41" s="3">
-        <v>6145700</v>
+        <v>6034900</v>
       </c>
       <c r="G41" s="3">
-        <v>8192100</v>
+        <v>8044400</v>
       </c>
       <c r="H41" s="3">
-        <v>6969000</v>
+        <v>6843300</v>
       </c>
       <c r="I41" s="3">
-        <v>7879700</v>
+        <v>7737600</v>
       </c>
       <c r="J41" s="3">
-        <v>7820400</v>
+        <v>7679400</v>
       </c>
       <c r="K41" s="3">
         <v>7180000</v>
@@ -3344,25 +3344,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>327825500</v>
+        <v>321914200</v>
       </c>
       <c r="E42" s="3">
-        <v>297369300</v>
+        <v>292007200</v>
       </c>
       <c r="F42" s="3">
-        <v>307519600</v>
+        <v>301974500</v>
       </c>
       <c r="G42" s="3">
-        <v>297052400</v>
+        <v>291696000</v>
       </c>
       <c r="H42" s="3">
-        <v>282685700</v>
+        <v>277588400</v>
       </c>
       <c r="I42" s="3">
-        <v>307196800</v>
+        <v>301657500</v>
       </c>
       <c r="J42" s="3">
-        <v>308482100</v>
+        <v>302919600</v>
       </c>
       <c r="K42" s="3">
         <v>292585600</v>
@@ -3789,25 +3789,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1930100</v>
+        <v>1895300</v>
       </c>
       <c r="E47" s="3">
-        <v>2004900</v>
+        <v>1968700</v>
       </c>
       <c r="F47" s="3">
-        <v>1987100</v>
+        <v>1951300</v>
       </c>
       <c r="G47" s="3">
-        <v>1949400</v>
+        <v>1914200</v>
       </c>
       <c r="H47" s="3">
-        <v>2023400</v>
+        <v>1986900</v>
       </c>
       <c r="I47" s="3">
-        <v>2043400</v>
+        <v>2006500</v>
       </c>
       <c r="J47" s="3">
-        <v>2028600</v>
+        <v>1992000</v>
       </c>
       <c r="K47" s="3">
         <v>1928900</v>
@@ -3878,25 +3878,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4208900</v>
+        <v>4133100</v>
       </c>
       <c r="E48" s="3">
-        <v>4180100</v>
+        <v>4104700</v>
       </c>
       <c r="F48" s="3">
-        <v>4219300</v>
+        <v>4143200</v>
       </c>
       <c r="G48" s="3">
-        <v>4220100</v>
+        <v>4144000</v>
       </c>
       <c r="H48" s="3">
-        <v>4093500</v>
+        <v>4019600</v>
       </c>
       <c r="I48" s="3">
-        <v>4124500</v>
+        <v>4050200</v>
       </c>
       <c r="J48" s="3">
-        <v>4132700</v>
+        <v>4058200</v>
       </c>
       <c r="K48" s="3">
         <v>4163700</v>
@@ -3967,25 +3967,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12780100</v>
+        <v>12549600</v>
       </c>
       <c r="E49" s="3">
-        <v>12879300</v>
+        <v>12647100</v>
       </c>
       <c r="F49" s="3">
-        <v>12712000</v>
+        <v>12482800</v>
       </c>
       <c r="G49" s="3">
-        <v>12462500</v>
+        <v>12237800</v>
       </c>
       <c r="H49" s="3">
-        <v>12275200</v>
+        <v>12053800</v>
       </c>
       <c r="I49" s="3">
-        <v>12372900</v>
+        <v>12149800</v>
       </c>
       <c r="J49" s="3">
-        <v>12402500</v>
+        <v>12178900</v>
       </c>
       <c r="K49" s="3">
         <v>12299200</v>
@@ -4234,25 +4234,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2338800</v>
+        <v>2296600</v>
       </c>
       <c r="E52" s="3">
-        <v>1623600</v>
+        <v>1594300</v>
       </c>
       <c r="F52" s="3">
-        <v>1856800</v>
+        <v>1823300</v>
       </c>
       <c r="G52" s="3">
-        <v>1408900</v>
+        <v>1383500</v>
       </c>
       <c r="H52" s="3">
-        <v>670000</v>
+        <v>657900</v>
       </c>
       <c r="I52" s="3">
-        <v>841800</v>
+        <v>826600</v>
       </c>
       <c r="J52" s="3">
-        <v>1457800</v>
+        <v>1431500</v>
       </c>
       <c r="K52" s="3">
         <v>1519300</v>
@@ -4412,25 +4412,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1033615100</v>
+        <v>1014977200</v>
       </c>
       <c r="E54" s="3">
-        <v>1016660900</v>
+        <v>998328700</v>
       </c>
       <c r="F54" s="3">
-        <v>1017578900</v>
+        <v>999230200</v>
       </c>
       <c r="G54" s="3">
-        <v>999055100</v>
+        <v>981040400</v>
       </c>
       <c r="H54" s="3">
-        <v>956620600</v>
+        <v>939371100</v>
       </c>
       <c r="I54" s="3">
-        <v>953958300</v>
+        <v>936756700</v>
       </c>
       <c r="J54" s="3">
-        <v>922099100</v>
+        <v>905472100</v>
       </c>
       <c r="K54" s="3">
         <v>877661300</v>
@@ -4923,25 +4923,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7082300</v>
+        <v>6954600</v>
       </c>
       <c r="E61" s="3">
-        <v>6503300</v>
+        <v>6386100</v>
       </c>
       <c r="F61" s="3">
-        <v>6450800</v>
+        <v>6334400</v>
       </c>
       <c r="G61" s="3">
-        <v>6270100</v>
+        <v>6157000</v>
       </c>
       <c r="H61" s="3">
-        <v>6228600</v>
+        <v>6116300</v>
       </c>
       <c r="I61" s="3">
-        <v>6253800</v>
+        <v>6141100</v>
       </c>
       <c r="J61" s="3">
-        <v>4692400</v>
+        <v>4607800</v>
       </c>
       <c r="K61" s="3">
         <v>4691800</v>
@@ -5368,25 +5368,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>977305600</v>
+        <v>959683000</v>
       </c>
       <c r="E66" s="3">
-        <v>959540600</v>
+        <v>942238400</v>
       </c>
       <c r="F66" s="3">
-        <v>962653800</v>
+        <v>945295500</v>
       </c>
       <c r="G66" s="3">
-        <v>944842200</v>
+        <v>927805100</v>
       </c>
       <c r="H66" s="3">
-        <v>903244400</v>
+        <v>886957300</v>
       </c>
       <c r="I66" s="3">
-        <v>901848100</v>
+        <v>885586100</v>
       </c>
       <c r="J66" s="3">
-        <v>868997600</v>
+        <v>853328000</v>
       </c>
       <c r="K66" s="3">
         <v>825215500</v>
@@ -5668,25 +5668,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>5978400</v>
+        <v>5870600</v>
       </c>
       <c r="E70" s="3">
-        <v>5978400</v>
+        <v>5870600</v>
       </c>
       <c r="F70" s="3">
-        <v>5978400</v>
+        <v>5870600</v>
       </c>
       <c r="G70" s="3">
-        <v>5978400</v>
+        <v>5870600</v>
       </c>
       <c r="H70" s="3">
-        <v>5221000</v>
+        <v>5126900</v>
       </c>
       <c r="I70" s="3">
-        <v>4110500</v>
+        <v>4036400</v>
       </c>
       <c r="J70" s="3">
-        <v>4110500</v>
+        <v>4036400</v>
       </c>
       <c r="K70" s="3">
         <v>4483000</v>
@@ -5846,25 +5846,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>41234400</v>
+        <v>40490800</v>
       </c>
       <c r="E72" s="3">
-        <v>40588800</v>
+        <v>39856900</v>
       </c>
       <c r="F72" s="3">
-        <v>39994200</v>
+        <v>39273100</v>
       </c>
       <c r="G72" s="3">
-        <v>39690000</v>
+        <v>38974300</v>
       </c>
       <c r="H72" s="3">
-        <v>40345200</v>
+        <v>39617700</v>
       </c>
       <c r="I72" s="3">
-        <v>38549100</v>
+        <v>37854000</v>
       </c>
       <c r="J72" s="3">
-        <v>38554200</v>
+        <v>37859000</v>
       </c>
       <c r="K72" s="3">
         <v>38204400</v>
@@ -6202,25 +6202,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50331200</v>
+        <v>49423600</v>
       </c>
       <c r="E76" s="3">
-        <v>51141800</v>
+        <v>50219700</v>
       </c>
       <c r="F76" s="3">
-        <v>48946700</v>
+        <v>48064100</v>
       </c>
       <c r="G76" s="3">
-        <v>48234500</v>
+        <v>47364700</v>
       </c>
       <c r="H76" s="3">
-        <v>48155200</v>
+        <v>47286900</v>
       </c>
       <c r="I76" s="3">
-        <v>47999800</v>
+        <v>47134200</v>
       </c>
       <c r="J76" s="3">
-        <v>48991100</v>
+        <v>48107700</v>
       </c>
       <c r="K76" s="3">
         <v>47962900</v>
@@ -6474,25 +6474,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1544400</v>
+        <v>1516500</v>
       </c>
       <c r="E81" s="3">
-        <v>1502200</v>
+        <v>1475100</v>
       </c>
       <c r="F81" s="3">
-        <v>1207500</v>
+        <v>1185800</v>
       </c>
       <c r="G81" s="3">
-        <v>1443000</v>
+        <v>1416900</v>
       </c>
       <c r="H81" s="3">
-        <v>1853900</v>
+        <v>1820400</v>
       </c>
       <c r="I81" s="3">
-        <v>1921200</v>
+        <v>1886600</v>
       </c>
       <c r="J81" s="3">
-        <v>1930900</v>
+        <v>1896000</v>
       </c>
       <c r="K81" s="3">
         <v>1785900</v>
@@ -6596,25 +6596,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>305000</v>
+        <v>299500</v>
       </c>
       <c r="E83" s="3">
-        <v>305000</v>
+        <v>299500</v>
       </c>
       <c r="F83" s="3">
-        <v>300600</v>
+        <v>295200</v>
       </c>
       <c r="G83" s="3">
-        <v>291700</v>
+        <v>286400</v>
       </c>
       <c r="H83" s="3">
-        <v>282100</v>
+        <v>277000</v>
       </c>
       <c r="I83" s="3">
-        <v>282100</v>
+        <v>277000</v>
       </c>
       <c r="J83" s="3">
-        <v>277600</v>
+        <v>272600</v>
       </c>
       <c r="K83" s="3">
         <v>283700</v>
@@ -7130,25 +7130,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>17270400</v>
+        <v>16959000</v>
       </c>
       <c r="E89" s="3">
-        <v>-9404800</v>
+        <v>-9235200</v>
       </c>
       <c r="F89" s="3">
-        <v>12107800</v>
+        <v>11889500</v>
       </c>
       <c r="G89" s="3">
-        <v>-1752400</v>
+        <v>-1720800</v>
       </c>
       <c r="H89" s="3">
-        <v>-7345100</v>
+        <v>-7212700</v>
       </c>
       <c r="I89" s="3">
-        <v>6866100</v>
+        <v>6742300</v>
       </c>
       <c r="J89" s="3">
-        <v>14775400</v>
+        <v>14508900</v>
       </c>
       <c r="K89" s="3">
         <v>4442200</v>
@@ -7519,25 +7519,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15117400</v>
+        <v>-14844800</v>
       </c>
       <c r="E94" s="3">
-        <v>11674700</v>
+        <v>11464200</v>
       </c>
       <c r="F94" s="3">
-        <v>-14119400</v>
+        <v>-13864800</v>
       </c>
       <c r="G94" s="3">
-        <v>3734400</v>
+        <v>3667000</v>
       </c>
       <c r="H94" s="3">
-        <v>5767400</v>
+        <v>5663400</v>
       </c>
       <c r="I94" s="3">
-        <v>-5891000</v>
+        <v>-5784800</v>
       </c>
       <c r="J94" s="3">
-        <v>-11971600</v>
+        <v>-11755800</v>
       </c>
       <c r="K94" s="3">
         <v>-4048900</v>
@@ -7641,25 +7641,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1018000</v>
+        <v>-999600</v>
       </c>
       <c r="E96" s="3">
-        <v>-985400</v>
+        <v>-967700</v>
       </c>
       <c r="F96" s="3">
-        <v>-983900</v>
+        <v>-966200</v>
       </c>
       <c r="G96" s="3">
-        <v>-986900</v>
+        <v>-969100</v>
       </c>
       <c r="H96" s="3">
-        <v>-936600</v>
+        <v>-919700</v>
       </c>
       <c r="I96" s="3">
-        <v>-939500</v>
+        <v>-922600</v>
       </c>
       <c r="J96" s="3">
-        <v>-926200</v>
+        <v>-909500</v>
       </c>
       <c r="K96" s="3">
         <v>-868900</v>
@@ -7997,25 +7997,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>430900</v>
+        <v>423100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1610300</v>
+        <v>-1581200</v>
       </c>
       <c r="F100" s="3">
-        <v>-136200</v>
+        <v>-133800</v>
       </c>
       <c r="G100" s="3">
-        <v>-984700</v>
+        <v>-966900</v>
       </c>
       <c r="H100" s="3">
-        <v>778900</v>
+        <v>764800</v>
       </c>
       <c r="I100" s="3">
-        <v>-916600</v>
+        <v>-900000</v>
       </c>
       <c r="J100" s="3">
-        <v>-2267700</v>
+        <v>-2226800</v>
       </c>
       <c r="K100" s="3">
         <v>522200</v>
@@ -8086,25 +8086,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-108800</v>
+        <v>-106900</v>
       </c>
       <c r="E101" s="3">
-        <v>74000</v>
+        <v>72700</v>
       </c>
       <c r="F101" s="3">
-        <v>101400</v>
+        <v>99600</v>
       </c>
       <c r="G101" s="3">
-        <v>225800</v>
+        <v>221700</v>
       </c>
       <c r="H101" s="3">
-        <v>-111800</v>
+        <v>-109800</v>
       </c>
       <c r="I101" s="3">
         <v>700</v>
       </c>
       <c r="J101" s="3">
-        <v>108100</v>
+        <v>106100</v>
       </c>
       <c r="K101" s="3">
         <v>-71100</v>
@@ -8175,25 +8175,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2475000</v>
+        <v>2430400</v>
       </c>
       <c r="E102" s="3">
-        <v>733700</v>
+        <v>720500</v>
       </c>
       <c r="F102" s="3">
-        <v>-2046400</v>
+        <v>-2009500</v>
       </c>
       <c r="G102" s="3">
-        <v>1223100</v>
+        <v>1201000</v>
       </c>
       <c r="H102" s="3">
-        <v>-910600</v>
+        <v>-894200</v>
       </c>
       <c r="I102" s="3">
-        <v>59200</v>
+        <v>58200</v>
       </c>
       <c r="J102" s="3">
-        <v>644100</v>
+        <v>632500</v>
       </c>
       <c r="K102" s="3">
         <v>844400</v>
